--- a/data/1.xlsx
+++ b/data/1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{561C4ADF-AB6A-4524-8FFC-C2C5E20260B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{561C4ADF-AB6A-4524-8FFC-C2C5E20260B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54F333D8-DB60-43CA-9002-A7A5833FB620}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7515" uniqueCount="3460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7203" uniqueCount="3460">
   <si>
     <t>标题</t>
   </si>
@@ -10820,7 +10820,7 @@
   <cols>
     <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
     <col min="4" max="4" width="73.25" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="34.25" customWidth="1"/>
@@ -10835,7 +10835,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f>HYPERLINK(E1)</f>
+        <f t="shared" ref="C1:C64" si="0">HYPERLINK(E1)</f>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/achira</v>
       </c>
       <c r="D1" t="s">
@@ -10862,7 +10862,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>HYPERLINK(E2)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/acorn-squash</v>
       </c>
       <c r="D2" t="s">
@@ -10889,7 +10889,7 @@
         <v>55</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>HYPERLINK(E3)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/adam-and-eve</v>
       </c>
       <c r="D3" t="s">
@@ -10916,7 +10916,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>HYPERLINK(E4)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/african-daisy</v>
       </c>
       <c r="D4" t="s">
@@ -10943,7 +10943,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>HYPERLINK(E5)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/african-violet</v>
       </c>
       <c r="D5" t="s">
@@ -10970,7 +10970,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>HYPERLINK(E6)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/african-wonder-tree</v>
       </c>
       <c r="D6" t="s">
@@ -10997,7 +10997,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>HYPERLINK(E7)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/algaroba</v>
       </c>
       <c r="D7" t="s">
@@ -11024,7 +11024,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>HYPERLINK(E8)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/alocasia</v>
       </c>
       <c r="D8" t="s">
@@ -11051,7 +11051,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>HYPERLINK(E9)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/aloe</v>
       </c>
       <c r="D9" t="s">
@@ -11078,7 +11078,7 @@
         <v>45</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>HYPERLINK(E10)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/alsike-clover</v>
       </c>
       <c r="D10" t="s">
@@ -11105,7 +11105,7 @@
         <v>50</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>HYPERLINK(E11)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/aluminum-plant</v>
       </c>
       <c r="D11" t="s">
@@ -11132,7 +11132,7 @@
         <v>3452</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>HYPERLINK(E12)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/alumroot</v>
       </c>
       <c r="D12" t="s">
@@ -11159,7 +11159,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>HYPERLINK(E13)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/alyssum</v>
       </c>
       <c r="D13" t="s">
@@ -11186,7 +11186,7 @@
         <v>68</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>HYPERLINK(E14)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/amaryllis</v>
       </c>
       <c r="D14" t="s">
@@ -11213,7 +11213,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>HYPERLINK(E15)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ambrosia-mexicana</v>
       </c>
       <c r="D15" t="s">
@@ -11240,7 +11240,7 @@
         <v>78</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>HYPERLINK(E16)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/american-bittersweet</v>
       </c>
       <c r="D16" t="s">
@@ -11267,7 +11267,7 @@
         <v>83</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>HYPERLINK(E17)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/american-holly</v>
       </c>
       <c r="D17" t="s">
@@ -11294,7 +11294,7 @@
         <v>88</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>HYPERLINK(E18)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/american-mandrake</v>
       </c>
       <c r="D18" t="s">
@@ -11321,7 +11321,7 @@
         <v>93</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>HYPERLINK(E19)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/american-rubber-plant</v>
       </c>
       <c r="D19" t="s">
@@ -11348,7 +11348,7 @@
         <v>98</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>HYPERLINK(E20)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/american-yew</v>
       </c>
       <c r="D20" t="s">
@@ -11375,7 +11375,7 @@
         <v>103</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>HYPERLINK(E21)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/amur-maple</v>
       </c>
       <c r="D21" t="s">
@@ -11402,7 +11402,7 @@
         <v>109</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>HYPERLINK(E22)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/andromeda-japonica</v>
       </c>
       <c r="D22" t="s">
@@ -11429,7 +11429,7 @@
         <v>114</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>HYPERLINK(E23)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/angelica-tree</v>
       </c>
       <c r="D23" t="s">
@@ -11456,7 +11456,7 @@
         <v>119</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f>HYPERLINK(E24)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/anthericum-comosum</v>
       </c>
       <c r="D24" t="s">
@@ -11483,7 +11483,7 @@
         <v>123</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>HYPERLINK(E25)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/antirrhinum-multiflorum</v>
       </c>
       <c r="D25" t="s">
@@ -11510,7 +11510,7 @@
         <v>128</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f>HYPERLINK(E26)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/apple</v>
       </c>
       <c r="D26" t="s">
@@ -11537,7 +11537,7 @@
         <v>133</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f>HYPERLINK(E27)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/apricot</v>
       </c>
       <c r="D27" t="s">
@@ -11564,7 +11564,7 @@
         <v>137</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f>HYPERLINK(E28)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/arabian-gentian</v>
       </c>
       <c r="D28" t="s">
@@ -11591,7 +11591,7 @@
         <v>142</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>HYPERLINK(E29)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/areca-palm</v>
       </c>
       <c r="D29" t="s">
@@ -11618,7 +11618,7 @@
         <v>147</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f>HYPERLINK(E30)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/aregelia</v>
       </c>
       <c r="D30" t="s">
@@ -11645,7 +11645,7 @@
         <v>152</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f>HYPERLINK(E31)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/arrow-head-vine</v>
       </c>
       <c r="D31" t="s">
@@ -11672,7 +11672,7 @@
         <v>156</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f>HYPERLINK(E32)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/artillery-plant</v>
       </c>
       <c r="D32" t="s">
@@ -11699,7 +11699,7 @@
         <v>159</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f>HYPERLINK(E33)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/arum</v>
       </c>
       <c r="D33" t="s">
@@ -11726,7 +11726,7 @@
         <v>162</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f>HYPERLINK(E34)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/arum-lily</v>
       </c>
       <c r="D34" t="s">
@@ -11753,7 +11753,7 @@
         <v>166</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f>HYPERLINK(E35)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/asian-lily</v>
       </c>
       <c r="D35" t="s">
@@ -11780,7 +11780,7 @@
         <v>171</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f>HYPERLINK(E36)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/asparagus-fern</v>
       </c>
       <c r="D36" t="s">
@@ -11807,7 +11807,7 @@
         <v>176</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f>HYPERLINK(E37)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/aspidium-falcatum</v>
       </c>
       <c r="D37" t="s">
@@ -11834,7 +11834,7 @@
         <v>181</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f>HYPERLINK(E38)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/australian-ivy-palm</v>
       </c>
       <c r="D38" t="s">
@@ -11861,7 +11861,7 @@
         <v>185</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f>HYPERLINK(E39)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/australian-nut</v>
       </c>
       <c r="D39" t="s">
@@ -11888,7 +11888,7 @@
         <v>191</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f>HYPERLINK(E40)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/australian-pine</v>
       </c>
       <c r="D40" t="s">
@@ -11915,7 +11915,7 @@
         <v>196</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f>HYPERLINK(E41)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/autumn-crocus</v>
       </c>
       <c r="D41" t="s">
@@ -11942,7 +11942,7 @@
         <v>200</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f>HYPERLINK(E42)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/autumn-olive</v>
       </c>
       <c r="D42" t="s">
@@ -11969,7 +11969,7 @@
         <v>205</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f>HYPERLINK(E43)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/avocado</v>
       </c>
       <c r="D43" t="s">
@@ -11996,7 +11996,7 @@
         <v>215</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f>HYPERLINK(E44)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/azalea</v>
       </c>
       <c r="D44" t="s">
@@ -12023,7 +12023,7 @@
         <v>210</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f>HYPERLINK(E45)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/baby-doll-ti-plant</v>
       </c>
       <c r="D45" t="s">
@@ -12050,7 +12050,7 @@
         <v>219</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f>HYPERLINK(E46)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/baby-rubber-plant</v>
       </c>
       <c r="D46" t="s">
@@ -12077,7 +12077,7 @@
         <v>221</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f>HYPERLINK(E47)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/babys-breath</v>
       </c>
       <c r="D47" t="s">
@@ -12104,7 +12104,7 @@
         <v>226</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f>HYPERLINK(E48)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/babys-tears</v>
       </c>
       <c r="D48" t="s">
@@ -12131,7 +12131,7 @@
         <v>231</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f>HYPERLINK(E49)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bachelors-buttons</v>
       </c>
       <c r="D49" t="s">
@@ -12158,7 +12158,7 @@
         <v>236</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f>HYPERLINK(E50)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ball-fern</v>
       </c>
       <c r="D50" t="s">
@@ -12185,7 +12185,7 @@
         <v>240</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f>HYPERLINK(E51)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bamboo</v>
       </c>
       <c r="D51" t="s">
@@ -12212,7 +12212,7 @@
         <v>245</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f>HYPERLINK(E52)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bamboo-palm</v>
       </c>
       <c r="D52" t="s">
@@ -12239,7 +12239,7 @@
         <v>249</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f>HYPERLINK(E53)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bamboo-vine</v>
       </c>
       <c r="D53" t="s">
@@ -12266,7 +12266,7 @@
         <v>253</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f>HYPERLINK(E54)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/banana</v>
       </c>
       <c r="D54" t="s">
@@ -12293,7 +12293,7 @@
         <v>258</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f>HYPERLINK(E55)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/banana-squash</v>
       </c>
       <c r="D55" t="s">
@@ -12320,7 +12320,7 @@
         <v>261</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f>HYPERLINK(E56)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/barbados-aloe</v>
       </c>
       <c r="D56" t="s">
@@ -12347,7 +12347,7 @@
         <v>266</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f>HYPERLINK(E57)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/barbados-lily</v>
       </c>
       <c r="D57" t="s">
@@ -12374,7 +12374,7 @@
         <v>270</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f>HYPERLINK(E58)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/barbados-pride</v>
       </c>
       <c r="D58" t="s">
@@ -12401,7 +12401,7 @@
         <v>274</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f>HYPERLINK(E59)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/barbados-pride-2</v>
       </c>
       <c r="D59" t="s">
@@ -12428,7 +12428,7 @@
         <v>278</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f>HYPERLINK(E60)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/barberton-daisy</v>
       </c>
       <c r="D60" t="s">
@@ -12455,7 +12455,7 @@
         <v>281</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f>HYPERLINK(E61)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/barnabys-thistle</v>
       </c>
       <c r="D61" t="s">
@@ -12482,7 +12482,7 @@
         <v>285</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f>HYPERLINK(E62)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/basil</v>
       </c>
       <c r="D62" t="s">
@@ -12509,7 +12509,7 @@
         <v>290</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f>HYPERLINK(E63)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bay-laurel</v>
       </c>
       <c r="D63" t="s">
@@ -12536,7 +12536,7 @@
         <v>294</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f>HYPERLINK(E64)</f>
+        <f t="shared" si="0"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bead-tree</v>
       </c>
       <c r="D64" t="s">
@@ -12563,7 +12563,7 @@
         <v>299</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f>HYPERLINK(E65)</f>
+        <f t="shared" ref="C65:C128" si="1">HYPERLINK(E65)</f>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/beets</v>
       </c>
       <c r="D65" t="s">
@@ -12590,7 +12590,7 @@
         <v>303</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f>HYPERLINK(E66)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/begonia</v>
       </c>
       <c r="D66" t="s">
@@ -12617,7 +12617,7 @@
         <v>308</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f>HYPERLINK(E67)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/begonia-climbing</v>
       </c>
       <c r="D67" t="s">
@@ -12644,7 +12644,7 @@
         <v>313</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f>HYPERLINK(E68)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/begonia-trailing</v>
       </c>
       <c r="D68" t="s">
@@ -12671,7 +12671,7 @@
         <v>317</v>
       </c>
       <c r="C69" s="1" t="str">
-        <f>HYPERLINK(E69)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/belmore-sentry-palm</v>
       </c>
       <c r="D69" t="s">
@@ -12698,7 +12698,7 @@
         <v>321</v>
       </c>
       <c r="C70" s="1" t="str">
-        <f>HYPERLINK(E70)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bergamot-orange</v>
       </c>
       <c r="D70" t="s">
@@ -12725,7 +12725,7 @@
         <v>326</v>
       </c>
       <c r="C71" s="1" t="str">
-        <f>HYPERLINK(E71)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/big-shagbark-hickory</v>
       </c>
       <c r="D71" t="s">
@@ -12752,7 +12752,7 @@
         <v>331</v>
       </c>
       <c r="C72" s="1" t="str">
-        <f>HYPERLINK(E72)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/big-shellbark-hickory</v>
       </c>
       <c r="D72" t="s">
@@ -12779,7 +12779,7 @@
         <v>342</v>
       </c>
       <c r="C73" s="1" t="str">
-        <f>HYPERLINK(E73)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bird-paradise</v>
       </c>
       <c r="D73" t="s">
@@ -12806,7 +12806,7 @@
         <v>334</v>
       </c>
       <c r="C74" s="1" t="str">
-        <f>HYPERLINK(E74)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bird-paradise-2</v>
       </c>
       <c r="D74" t="s">
@@ -12833,7 +12833,7 @@
         <v>337</v>
       </c>
       <c r="C75" s="1" t="str">
-        <f>HYPERLINK(E75)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bird-paradise-flower</v>
       </c>
       <c r="D75" t="s">
@@ -12860,7 +12860,7 @@
         <v>345</v>
       </c>
       <c r="C76" s="1" t="str">
-        <f>HYPERLINK(E76)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/birds-tongue-flower</v>
       </c>
       <c r="D76" t="s">
@@ -12887,7 +12887,7 @@
         <v>352</v>
       </c>
       <c r="C77" s="1" t="str">
-        <f>HYPERLINK(E77)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bishops-weed</v>
       </c>
       <c r="D77" t="s">
@@ -12914,7 +12914,7 @@
         <v>348</v>
       </c>
       <c r="C78" s="1" t="str">
-        <f>HYPERLINK(E78)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bitter-pecan</v>
       </c>
       <c r="D78" t="s">
@@ -12941,7 +12941,7 @@
         <v>357</v>
       </c>
       <c r="C79" s="1" t="str">
-        <f>HYPERLINK(E79)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bitter-root</v>
       </c>
       <c r="D79" t="s">
@@ -12968,7 +12968,7 @@
         <v>362</v>
       </c>
       <c r="C80" s="1" t="str">
-        <f>HYPERLINK(E80)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bitternut</v>
       </c>
       <c r="D80" t="s">
@@ -12995,7 +12995,7 @@
         <v>365</v>
       </c>
       <c r="C81" s="1" t="str">
-        <f>HYPERLINK(E81)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/black-calla</v>
       </c>
       <c r="D81" t="s">
@@ -13022,7 +13022,7 @@
         <v>369</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f>HYPERLINK(E82)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/black-cherry</v>
       </c>
       <c r="D82" t="s">
@@ -13049,7 +13049,7 @@
         <v>372</v>
       </c>
       <c r="C83" s="1" t="str">
-        <f>HYPERLINK(E83)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/black-haw</v>
       </c>
       <c r="D83" t="s">
@@ -13076,7 +13076,7 @@
         <v>377</v>
       </c>
       <c r="C84" s="1" t="str">
-        <f>HYPERLINK(E84)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/black-hawthorn</v>
       </c>
       <c r="D84" t="s">
@@ -13103,7 +13103,7 @@
         <v>381</v>
       </c>
       <c r="C85" s="1" t="str">
-        <f>HYPERLINK(E85)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/black-laurel</v>
       </c>
       <c r="D85" t="s">
@@ -13130,7 +13130,7 @@
         <v>385</v>
       </c>
       <c r="C86" s="1" t="str">
-        <f>HYPERLINK(E86)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/black-nightshade</v>
       </c>
       <c r="D86" t="s">
@@ -13157,7 +13157,7 @@
         <v>390</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f>HYPERLINK(E87)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/black-walnut</v>
       </c>
       <c r="D87" t="s">
@@ -13184,7 +13184,7 @@
         <v>394</v>
       </c>
       <c r="C88" s="1" t="str">
-        <f>HYPERLINK(E88)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/blackjack-pine</v>
       </c>
       <c r="D88" t="s">
@@ -13211,7 +13211,7 @@
         <v>399</v>
       </c>
       <c r="C89" s="1" t="str">
-        <f>HYPERLINK(E89)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/blaspheme-vine</v>
       </c>
       <c r="D89" t="s">
@@ -13238,7 +13238,7 @@
         <v>402</v>
       </c>
       <c r="C90" s="1" t="str">
-        <f>HYPERLINK(E90)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bloodleaf</v>
       </c>
       <c r="D90" t="s">
@@ -13265,7 +13265,7 @@
         <v>407</v>
       </c>
       <c r="C91" s="1" t="str">
-        <f>HYPERLINK(E91)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/blooming-sally</v>
       </c>
       <c r="D91" t="s">
@@ -13292,7 +13292,7 @@
         <v>412</v>
       </c>
       <c r="C92" s="1" t="str">
-        <f>HYPERLINK(E92)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/blue-bead</v>
       </c>
       <c r="D92" t="s">
@@ -13319,7 +13319,7 @@
         <v>416</v>
       </c>
       <c r="C93" s="1" t="str">
-        <f>HYPERLINK(E93)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/blue-daisy</v>
       </c>
       <c r="D93" t="s">
@@ -13346,7 +13346,7 @@
         <v>420</v>
       </c>
       <c r="C94" s="1" t="str">
-        <f>HYPERLINK(E94)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/blue-echeveria</v>
       </c>
       <c r="D94" t="s">
@@ -13373,7 +13373,7 @@
         <v>425</v>
       </c>
       <c r="C95" s="1" t="str">
-        <f>HYPERLINK(E95)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/blue-eyed-daisy</v>
       </c>
       <c r="D95" t="s">
@@ -13400,7 +13400,7 @@
         <v>439</v>
       </c>
       <c r="C96" s="1" t="str">
-        <f>HYPERLINK(E96)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bluebottle</v>
       </c>
       <c r="D96" t="s">
@@ -13427,7 +13427,7 @@
         <v>429</v>
       </c>
       <c r="C97" s="1" t="str">
-        <f>HYPERLINK(E97)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/blue-dicks</v>
       </c>
       <c r="D97" t="s">
@@ -13454,7 +13454,7 @@
         <v>433</v>
       </c>
       <c r="C98" s="1" t="str">
-        <f>HYPERLINK(E98)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/blue-dicks-2</v>
       </c>
       <c r="D98" t="s">
@@ -13481,7 +13481,7 @@
         <v>435</v>
       </c>
       <c r="C99" s="1" t="str">
-        <f>HYPERLINK(E99)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/blue-dicks-3</v>
       </c>
       <c r="D99" t="s">
@@ -13508,7 +13508,7 @@
         <v>427</v>
       </c>
       <c r="C100" s="1" t="str">
-        <f>HYPERLINK(E100)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/blue-eyed-african-daisy</v>
       </c>
       <c r="D100" t="s">
@@ -13535,7 +13535,7 @@
         <v>442</v>
       </c>
       <c r="C101" s="1" t="str">
-        <f>HYPERLINK(E101)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/blunt-leaf-peperomia</v>
       </c>
       <c r="D101" t="s">
@@ -13562,7 +13562,7 @@
         <v>445</v>
       </c>
       <c r="C102" s="1" t="str">
-        <f>HYPERLINK(E102)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/blushing-bromeliad</v>
       </c>
       <c r="D102" t="s">
@@ -13589,7 +13589,7 @@
         <v>457</v>
       </c>
       <c r="C103" s="1" t="str">
-        <f>HYPERLINK(E103)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bobbins</v>
       </c>
       <c r="D103" t="s">
@@ -13616,7 +13616,7 @@
         <v>449</v>
       </c>
       <c r="C104" s="1" t="str">
-        <f>HYPERLINK(E104)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bog-laurel</v>
       </c>
       <c r="D104" t="s">
@@ -13643,7 +13643,7 @@
         <v>453</v>
       </c>
       <c r="C105" s="1" t="str">
-        <f>HYPERLINK(E105)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bold-sword-fern</v>
       </c>
       <c r="D105" t="s">
@@ -13670,7 +13670,7 @@
         <v>460</v>
       </c>
       <c r="C106" s="1" t="str">
-        <f>HYPERLINK(E106)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/borage</v>
       </c>
       <c r="D106" t="s">
@@ -13697,7 +13697,7 @@
         <v>465</v>
       </c>
       <c r="C107" s="1" t="str">
-        <f>HYPERLINK(E107)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/boston-fern</v>
       </c>
       <c r="D107" t="s">
@@ -13724,7 +13724,7 @@
         <v>468</v>
       </c>
       <c r="C108" s="1" t="str">
-        <f>HYPERLINK(E108)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bottle-palm</v>
       </c>
       <c r="D108" t="s">
@@ -13751,7 +13751,7 @@
         <v>496</v>
       </c>
       <c r="C109" s="1" t="str">
-        <f>HYPERLINK(E109)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bottle-palm-2</v>
       </c>
       <c r="D109" t="s">
@@ -13778,7 +13778,7 @@
         <v>472</v>
       </c>
       <c r="C110" s="1" t="str">
-        <f>HYPERLINK(E110)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bottlebrush</v>
       </c>
       <c r="D110" t="s">
@@ -13805,7 +13805,7 @@
         <v>477</v>
       </c>
       <c r="C111" s="1" t="str">
-        <f>HYPERLINK(E111)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/boxwood</v>
       </c>
       <c r="D111" t="s">
@@ -13832,7 +13832,7 @@
         <v>481</v>
       </c>
       <c r="C112" s="1" t="str">
-        <f>HYPERLINK(E112)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bracken-fern</v>
       </c>
       <c r="D112" t="s">
@@ -13859,7 +13859,7 @@
         <v>485</v>
       </c>
       <c r="C113" s="1" t="str">
-        <f>HYPERLINK(E113)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/brake-fern</v>
       </c>
       <c r="D113" t="s">
@@ -13886,7 +13886,7 @@
         <v>488</v>
       </c>
       <c r="C114" s="1" t="str">
-        <f>HYPERLINK(E114)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/branching-ivy</v>
       </c>
       <c r="D114" t="s">
@@ -13913,7 +13913,7 @@
         <v>492</v>
       </c>
       <c r="C115" s="1" t="str">
-        <f>HYPERLINK(E115)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/brazilian-orchid</v>
       </c>
       <c r="D115" t="s">
@@ -13940,7 +13940,7 @@
         <v>514</v>
       </c>
       <c r="C116" s="1" t="str">
-        <f>HYPERLINK(E116)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/brazilwood</v>
       </c>
       <c r="D116" t="s">
@@ -13967,7 +13967,7 @@
         <v>498</v>
       </c>
       <c r="C117" s="1" t="str">
-        <f>HYPERLINK(E117)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bread-and-butter-plant</v>
       </c>
       <c r="D117" t="s">
@@ -13994,7 +13994,7 @@
         <v>503</v>
       </c>
       <c r="C118" s="1" t="str">
-        <f>HYPERLINK(E118)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/brides-bonnet</v>
       </c>
       <c r="D118" t="s">
@@ -14021,7 +14021,7 @@
         <v>507</v>
       </c>
       <c r="C119" s="1" t="str">
-        <f>HYPERLINK(E119)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bristly-greenbrier</v>
       </c>
       <c r="D119" t="s">
@@ -14048,7 +14048,7 @@
         <v>511</v>
       </c>
       <c r="C120" s="1" t="str">
-        <f>HYPERLINK(E120)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/brodiaea-pulchella</v>
       </c>
       <c r="D120" t="s">
@@ -14075,7 +14075,7 @@
         <v>517</v>
       </c>
       <c r="C121" s="1" t="str">
-        <f>HYPERLINK(E121)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/broom-hickory</v>
       </c>
       <c r="D121" t="s">
@@ -14102,7 +14102,7 @@
         <v>520</v>
       </c>
       <c r="C122" s="1" t="str">
-        <f>HYPERLINK(E122)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/brunfelsia</v>
       </c>
       <c r="D122" t="s">
@@ -14129,7 +14129,7 @@
         <v>524</v>
       </c>
       <c r="C123" s="1" t="str">
-        <f>HYPERLINK(E123)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/buckeye</v>
       </c>
       <c r="D123" t="s">
@@ -14156,7 +14156,7 @@
         <v>529</v>
       </c>
       <c r="C124" s="1" t="str">
-        <f>HYPERLINK(E124)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/buckwheat</v>
       </c>
       <c r="D124" t="s">
@@ -14183,7 +14183,7 @@
         <v>533</v>
       </c>
       <c r="C125" s="1" t="str">
-        <f>HYPERLINK(E125)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/buddhist-pine</v>
       </c>
       <c r="D125" t="s">
@@ -14210,7 +14210,7 @@
         <v>538</v>
       </c>
       <c r="C126" s="1" t="str">
-        <f>HYPERLINK(E126)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bull-pine</v>
       </c>
       <c r="D126" t="s">
@@ -14237,7 +14237,7 @@
         <v>541</v>
       </c>
       <c r="C127" s="1" t="str">
-        <f>HYPERLINK(E127)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bullbrier</v>
       </c>
       <c r="D127" t="s">
@@ -14264,7 +14264,7 @@
         <v>545</v>
       </c>
       <c r="C128" s="1" t="str">
-        <f>HYPERLINK(E128)</f>
+        <f t="shared" si="1"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/bur-gourd</v>
       </c>
       <c r="D128" t="s">
@@ -14291,7 +14291,7 @@
         <v>549</v>
       </c>
       <c r="C129" s="1" t="str">
-        <f>HYPERLINK(E129)</f>
+        <f t="shared" ref="C129:C192" si="2">HYPERLINK(E129)</f>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/burning-bush</v>
       </c>
       <c r="D129" t="s">
@@ -14318,7 +14318,7 @@
         <v>553</v>
       </c>
       <c r="C130" s="1" t="str">
-        <f>HYPERLINK(E130)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/burros-tail</v>
       </c>
       <c r="D130" t="s">
@@ -14345,7 +14345,7 @@
         <v>557</v>
       </c>
       <c r="C131" s="1" t="str">
-        <f>HYPERLINK(E131)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/buttercup</v>
       </c>
       <c r="D131" t="s">
@@ -14372,7 +14372,7 @@
         <v>562</v>
       </c>
       <c r="C132" s="1" t="str">
-        <f>HYPERLINK(E132)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/buttercup-squash</v>
       </c>
       <c r="D132" t="s">
@@ -14399,7 +14399,7 @@
         <v>565</v>
       </c>
       <c r="C133" s="1" t="str">
-        <f>HYPERLINK(E133)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/butterfly-ginger</v>
       </c>
       <c r="D133" t="s">
@@ -14426,7 +14426,7 @@
         <v>570</v>
       </c>
       <c r="C134" s="1" t="str">
-        <f>HYPERLINK(E134)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/butterfly-iris</v>
       </c>
       <c r="D134" t="s">
@@ -14453,7 +14453,7 @@
         <v>575</v>
       </c>
       <c r="C135" s="1" t="str">
-        <f>HYPERLINK(E135)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/butternut-squash</v>
       </c>
       <c r="D135" t="s">
@@ -14480,7 +14480,7 @@
         <v>578</v>
       </c>
       <c r="C136" s="1" t="str">
-        <f>HYPERLINK(E136)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/buzzy-lizzie</v>
       </c>
       <c r="D136" t="s">
@@ -14507,7 +14507,7 @@
         <v>608</v>
       </c>
       <c r="C137" s="1" t="str">
-        <f>HYPERLINK(E137)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/caeroba</v>
       </c>
       <c r="D137" t="s">
@@ -14534,7 +14534,7 @@
         <v>583</v>
       </c>
       <c r="C138" s="1" t="str">
-        <f>HYPERLINK(E138)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/caladium</v>
       </c>
       <c r="D138" t="s">
@@ -14561,7 +14561,7 @@
         <v>587</v>
       </c>
       <c r="C139" s="1" t="str">
-        <f>HYPERLINK(E139)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/calamondin-orange</v>
       </c>
       <c r="D139" t="s">
@@ -14588,7 +14588,7 @@
         <v>590</v>
       </c>
       <c r="C140" s="1" t="str">
-        <f>HYPERLINK(E140)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/calathea</v>
       </c>
       <c r="D140" t="s">
@@ -14615,7 +14615,7 @@
         <v>594</v>
       </c>
       <c r="C141" s="1" t="str">
-        <f>HYPERLINK(E141)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/calathea-lancifolia-2</v>
       </c>
       <c r="D141" t="s">
@@ -14642,7 +14642,7 @@
         <v>597</v>
       </c>
       <c r="C142" s="1" t="str">
-        <f>HYPERLINK(E142)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/calathea-lancifolia-3</v>
       </c>
       <c r="D142" t="s">
@@ -14669,7 +14669,7 @@
         <v>600</v>
       </c>
       <c r="C143" s="1" t="str">
-        <f>HYPERLINK(E143)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/california-ivy</v>
       </c>
       <c r="D143" t="s">
@@ -14696,7 +14696,7 @@
         <v>603</v>
       </c>
       <c r="C144" s="1" t="str">
-        <f>HYPERLINK(E144)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/california-pitcher-plant</v>
       </c>
       <c r="D144" t="s">
@@ -14723,7 +14723,7 @@
         <v>611</v>
       </c>
       <c r="C145" s="1" t="str">
-        <f>HYPERLINK(E145)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/calla-lily</v>
       </c>
       <c r="D145" t="s">
@@ -14750,7 +14750,7 @@
         <v>614</v>
       </c>
       <c r="C146" s="1" t="str">
-        <f>HYPERLINK(E146)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/callistemon-brachyandrus</v>
       </c>
       <c r="D146" t="s">
@@ -14777,7 +14777,7 @@
         <v>617</v>
       </c>
       <c r="C147" s="1" t="str">
-        <f>HYPERLINK(E147)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/callistemon-citrinus</v>
       </c>
       <c r="D147" t="s">
@@ -14804,7 +14804,7 @@
         <v>620</v>
       </c>
       <c r="C148" s="1" t="str">
-        <f>HYPERLINK(E148)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/callistemon-viminalis</v>
       </c>
       <c r="D148" t="s">
@@ -14831,7 +14831,7 @@
         <v>622</v>
       </c>
       <c r="C149" s="1" t="str">
-        <f>HYPERLINK(E149)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/calochortus-nuttalli</v>
       </c>
       <c r="D149" t="s">
@@ -14858,7 +14858,7 @@
         <v>626</v>
       </c>
       <c r="C150" s="1" t="str">
-        <f>HYPERLINK(E150)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/camellia</v>
       </c>
       <c r="D150" t="s">
@@ -14885,7 +14885,7 @@
         <v>631</v>
       </c>
       <c r="C151" s="1" t="str">
-        <f>HYPERLINK(E151)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/canada-hemlock</v>
       </c>
       <c r="D151" t="s">
@@ -14912,7 +14912,7 @@
         <v>634</v>
       </c>
       <c r="C152" s="1" t="str">
-        <f>HYPERLINK(E152)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/canary-date-palm</v>
       </c>
       <c r="D152" t="s">
@@ -14939,7 +14939,7 @@
         <v>637</v>
       </c>
       <c r="C153" s="1" t="str">
-        <f>HYPERLINK(E153)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/candle-plant</v>
       </c>
       <c r="D153" t="s">
@@ -14966,7 +14966,7 @@
         <v>641</v>
       </c>
       <c r="C154" s="1" t="str">
-        <f>HYPERLINK(E154)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/candycorn-plant</v>
       </c>
       <c r="D154" t="s">
@@ -14993,7 +14993,7 @@
         <v>644</v>
       </c>
       <c r="C155" s="1" t="str">
-        <f>HYPERLINK(E155)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cane-palm</v>
       </c>
       <c r="D155" t="s">
@@ -15020,7 +15020,7 @@
         <v>648</v>
       </c>
       <c r="C156" s="1" t="str">
-        <f>HYPERLINK(E156)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/canna-lily</v>
       </c>
       <c r="D156" t="s">
@@ -15047,7 +15047,7 @@
         <v>652</v>
       </c>
       <c r="C157" s="1" t="str">
-        <f>HYPERLINK(E157)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/canterbury-bell</v>
       </c>
       <c r="D157" t="s">
@@ -15074,7 +15074,7 @@
         <v>655</v>
       </c>
       <c r="C158" s="1" t="str">
-        <f>HYPERLINK(E158)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cape-jasmine</v>
       </c>
       <c r="D158" t="s">
@@ -15101,7 +15101,7 @@
         <v>23</v>
       </c>
       <c r="C159" s="1" t="str">
-        <f>HYPERLINK(E159)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cape-marigold</v>
       </c>
       <c r="D159" t="s">
@@ -15128,7 +15128,7 @@
         <v>662</v>
       </c>
       <c r="C160" s="1" t="str">
-        <f>HYPERLINK(E160)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cape-primrose</v>
       </c>
       <c r="D160" t="s">
@@ -15155,7 +15155,7 @@
         <v>666</v>
       </c>
       <c r="C161" s="1" t="str">
-        <f>HYPERLINK(E161)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/caraway</v>
       </c>
       <c r="D161" t="s">
@@ -15182,7 +15182,7 @@
         <v>671</v>
       </c>
       <c r="C162" s="1" t="str">
-        <f>HYPERLINK(E162)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cardboard-cycad</v>
       </c>
       <c r="D162" t="s">
@@ -15209,7 +15209,7 @@
         <v>675</v>
       </c>
       <c r="C163" s="1" t="str">
-        <f>HYPERLINK(E163)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cardboard-palm</v>
       </c>
       <c r="D163" t="s">
@@ -15236,7 +15236,7 @@
         <v>679</v>
       </c>
       <c r="C164" s="1" t="str">
-        <f>HYPERLINK(E164)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cardinal-flower</v>
       </c>
       <c r="D164" t="s">
@@ -15263,7 +15263,7 @@
         <v>684</v>
       </c>
       <c r="C165" s="1" t="str">
-        <f>HYPERLINK(E165)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/carnation</v>
       </c>
       <c r="D165" t="s">
@@ -15290,7 +15290,7 @@
         <v>688</v>
       </c>
       <c r="C166" s="1" t="str">
-        <f>HYPERLINK(E166)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/carob</v>
       </c>
       <c r="D166" t="s">
@@ -15317,7 +15317,7 @@
         <v>724</v>
       </c>
       <c r="C167" s="1" t="str">
-        <f>HYPERLINK(E167)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/caroba</v>
       </c>
       <c r="D167" t="s">
@@ -15344,7 +15344,7 @@
         <v>693</v>
       </c>
       <c r="C168" s="1" t="str">
-        <f>HYPERLINK(E168)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/carolina-hemlock</v>
       </c>
       <c r="D168" t="s">
@@ -15371,7 +15371,7 @@
         <v>696</v>
       </c>
       <c r="C169" s="1" t="str">
-        <f>HYPERLINK(E169)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/carolina-maple</v>
       </c>
       <c r="D169" t="s">
@@ -15398,7 +15398,7 @@
         <v>700</v>
       </c>
       <c r="C170" s="1" t="str">
-        <f>HYPERLINK(E170)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/carrion-flower</v>
       </c>
       <c r="D170" t="s">
@@ -15425,7 +15425,7 @@
         <v>704</v>
       </c>
       <c r="C171" s="1" t="str">
-        <f>HYPERLINK(E171)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/carrion-flower-2</v>
       </c>
       <c r="D171" t="s">
@@ -15452,7 +15452,7 @@
         <v>709</v>
       </c>
       <c r="C172" s="1" t="str">
-        <f>HYPERLINK(E172)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/carrot-fern</v>
       </c>
       <c r="D172" t="s">
@@ -15479,7 +15479,7 @@
         <v>712</v>
       </c>
       <c r="C173" s="1" t="str">
-        <f>HYPERLINK(E173)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/carrot-flower</v>
       </c>
       <c r="D173" t="s">
@@ -15506,7 +15506,7 @@
         <v>716</v>
       </c>
       <c r="C174" s="1" t="str">
-        <f>HYPERLINK(E174)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/casaba-melon</v>
       </c>
       <c r="D174" t="s">
@@ -15533,7 +15533,7 @@
         <v>720</v>
       </c>
       <c r="C175" s="1" t="str">
-        <f>HYPERLINK(E175)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cast-iron-plant</v>
       </c>
       <c r="D175" t="s">
@@ -15560,7 +15560,7 @@
         <v>729</v>
       </c>
       <c r="C176" s="1" t="str">
-        <f>HYPERLINK(E176)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/castor-bean-plant</v>
       </c>
       <c r="D176" t="s">
@@ -15587,7 +15587,7 @@
         <v>733</v>
       </c>
       <c r="C177" s="1" t="str">
-        <f>HYPERLINK(E177)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cat-brier</v>
       </c>
       <c r="D177" t="s">
@@ -15614,7 +15614,7 @@
         <v>737</v>
       </c>
       <c r="C178" s="1" t="str">
-        <f>HYPERLINK(E178)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cat-ear</v>
       </c>
       <c r="D178" t="s">
@@ -15641,7 +15641,7 @@
         <v>740</v>
       </c>
       <c r="C179" s="1" t="str">
-        <f>HYPERLINK(E179)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/catnip</v>
       </c>
       <c r="D179" t="s">
@@ -15668,7 +15668,7 @@
         <v>744</v>
       </c>
       <c r="C180" s="1" t="str">
-        <f>HYPERLINK(E180)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/catsear</v>
       </c>
       <c r="D180" t="s">
@@ -15695,7 +15695,7 @@
         <v>748</v>
       </c>
       <c r="C181" s="1" t="str">
-        <f>HYPERLINK(E181)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cattleya-labiata</v>
       </c>
       <c r="D181" t="s">
@@ -15722,7 +15722,7 @@
         <v>752</v>
       </c>
       <c r="C182" s="1" t="str">
-        <f>HYPERLINK(E182)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/celosia-globosa</v>
       </c>
       <c r="D182" t="s">
@@ -15749,7 +15749,7 @@
         <v>756</v>
       </c>
       <c r="C183" s="1" t="str">
-        <f>HYPERLINK(E183)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/celosia-plumosa</v>
       </c>
       <c r="D183" t="s">
@@ -15776,7 +15776,7 @@
         <v>760</v>
       </c>
       <c r="C184" s="1" t="str">
-        <f>HYPERLINK(E184)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/celosia-spicata</v>
       </c>
       <c r="D184" t="s">
@@ -15803,7 +15803,7 @@
         <v>764</v>
       </c>
       <c r="C185" s="1" t="str">
-        <f>HYPERLINK(E185)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ceriman</v>
       </c>
       <c r="D185" t="s">
@@ -15830,7 +15830,7 @@
         <v>776</v>
       </c>
       <c r="C186" s="1" t="str">
-        <f>HYPERLINK(E186)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chamaedorea</v>
       </c>
       <c r="D186" t="s">
@@ -15857,7 +15857,7 @@
         <v>768</v>
       </c>
       <c r="C187" s="1" t="str">
-        <f>HYPERLINK(E187)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chamomile</v>
       </c>
       <c r="D187" t="s">
@@ -15884,7 +15884,7 @@
         <v>772</v>
       </c>
       <c r="C188" s="1" t="str">
-        <f>HYPERLINK(E188)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chandelier-plant</v>
       </c>
       <c r="D188" t="s">
@@ -15911,7 +15911,7 @@
         <v>778</v>
       </c>
       <c r="C189" s="1" t="str">
-        <f>HYPERLINK(E189)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chaparral</v>
       </c>
       <c r="D189" t="s">
@@ -15938,7 +15938,7 @@
         <v>783</v>
       </c>
       <c r="C190" s="1" t="str">
-        <f>HYPERLINK(E190)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/charlock</v>
       </c>
       <c r="D190" t="s">
@@ -15965,7 +15965,7 @@
         <v>788</v>
       </c>
       <c r="C191" s="1" t="str">
-        <f>HYPERLINK(E191)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/charming-dieffenbachia</v>
       </c>
       <c r="D191" t="s">
@@ -15992,7 +15992,7 @@
         <v>791</v>
       </c>
       <c r="C192" s="1" t="str">
-        <f>HYPERLINK(E192)</f>
+        <f t="shared" si="2"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chenille-plant</v>
       </c>
       <c r="D192" t="s">
@@ -16019,7 +16019,7 @@
         <v>795</v>
       </c>
       <c r="C193" s="1" t="str">
-        <f>HYPERLINK(E193)</f>
+        <f t="shared" ref="C193:C256" si="3">HYPERLINK(E193)</f>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cherry</v>
       </c>
       <c r="D193" t="s">
@@ -16046,7 +16046,7 @@
         <v>798</v>
       </c>
       <c r="C194" s="1" t="str">
-        <f>HYPERLINK(E194)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chervil</v>
       </c>
       <c r="D194" t="s">
@@ -16073,7 +16073,7 @@
         <v>802</v>
       </c>
       <c r="C195" s="1" t="str">
-        <f>HYPERLINK(E195)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chestnut</v>
       </c>
       <c r="D195" t="s">
@@ -16100,7 +16100,7 @@
         <v>807</v>
       </c>
       <c r="C196" s="1" t="str">
-        <f>HYPERLINK(E196)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chicken-gizzard</v>
       </c>
       <c r="D196" t="s">
@@ -16127,7 +16127,7 @@
         <v>813</v>
       </c>
       <c r="C197" s="1" t="str">
-        <f>HYPERLINK(E197)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chickens-and-hens</v>
       </c>
       <c r="D197" t="s">
@@ -16154,7 +16154,7 @@
         <v>817</v>
       </c>
       <c r="C198" s="1" t="str">
-        <f>HYPERLINK(E198)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/china-aster</v>
       </c>
       <c r="D198" t="s">
@@ -16181,7 +16181,7 @@
         <v>821</v>
       </c>
       <c r="C199" s="1" t="str">
-        <f>HYPERLINK(E199)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/china-root</v>
       </c>
       <c r="D199" t="s">
@@ -16208,7 +16208,7 @@
         <v>824</v>
       </c>
       <c r="C200" s="1" t="str">
-        <f>HYPERLINK(E200)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chinaberry-tree</v>
       </c>
       <c r="D200" t="s">
@@ -16235,7 +16235,7 @@
         <v>827</v>
       </c>
       <c r="C201" s="1" t="str">
-        <f>HYPERLINK(E201)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chinese-evergreen</v>
       </c>
       <c r="D201" t="s">
@@ -16262,7 +16262,7 @@
         <v>830</v>
       </c>
       <c r="C202" s="1" t="str">
-        <f>HYPERLINK(E202)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chinese-jade</v>
       </c>
       <c r="D202" t="s">
@@ -16289,7 +16289,7 @@
         <v>834</v>
       </c>
       <c r="C203" s="1" t="str">
-        <f>HYPERLINK(E203)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chinese-plumbago</v>
       </c>
       <c r="D203" t="s">
@@ -16316,7 +16316,7 @@
         <v>810</v>
       </c>
       <c r="C204" s="1" t="str">
-        <f>HYPERLINK(E204)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chin-lao-shu</v>
       </c>
       <c r="D204" t="s">
@@ -16343,7 +16343,7 @@
         <v>838</v>
       </c>
       <c r="C205" s="1" t="str">
-        <f>HYPERLINK(E205)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chives</v>
       </c>
       <c r="D205" t="s">
@@ -16370,7 +16370,7 @@
         <v>841</v>
       </c>
       <c r="C206" s="1" t="str">
-        <f>HYPERLINK(E206)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chlorophytum</v>
       </c>
       <c r="D206" t="s">
@@ -16397,7 +16397,7 @@
         <v>845</v>
       </c>
       <c r="C207" s="1" t="str">
-        <f>HYPERLINK(E207)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chlorophytum-bichetti</v>
       </c>
       <c r="D207" t="s">
@@ -16424,7 +16424,7 @@
         <v>848</v>
       </c>
       <c r="C208" s="1" t="str">
-        <f>HYPERLINK(E208)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chocolate-soldier</v>
       </c>
       <c r="D208" t="s">
@@ -16451,7 +16451,7 @@
         <v>852</v>
       </c>
       <c r="C209" s="1" t="str">
-        <f>HYPERLINK(E209)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/choke-cherry</v>
       </c>
       <c r="D209" t="s">
@@ -16478,7 +16478,7 @@
         <v>855</v>
       </c>
       <c r="C210" s="1" t="str">
-        <f>HYPERLINK(E210)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/christmas-cactus</v>
       </c>
       <c r="D210" t="s">
@@ -16505,7 +16505,7 @@
         <v>860</v>
       </c>
       <c r="C211" s="1" t="str">
-        <f>HYPERLINK(E211)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/christmas-dagger</v>
       </c>
       <c r="D211" t="s">
@@ -16532,7 +16532,7 @@
         <v>869</v>
       </c>
       <c r="C212" s="1" t="str">
-        <f>HYPERLINK(E212)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/christmas-orchid</v>
       </c>
       <c r="D212" t="s">
@@ -16559,7 +16559,7 @@
         <v>864</v>
       </c>
       <c r="C213" s="1" t="str">
-        <f>HYPERLINK(E213)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/christmas-palm</v>
       </c>
       <c r="D213" t="s">
@@ -16586,7 +16586,7 @@
         <v>884</v>
       </c>
       <c r="C214" s="1" t="str">
-        <f>HYPERLINK(E214)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/christmas-rose</v>
       </c>
       <c r="D214" t="s">
@@ -16613,7 +16613,7 @@
         <v>873</v>
       </c>
       <c r="C215" s="1" t="str">
-        <f>HYPERLINK(E215)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/chrysanthemum</v>
       </c>
       <c r="D215" t="s">
@@ -16640,7 +16640,7 @@
         <v>877</v>
       </c>
       <c r="C216" s="1" t="str">
-        <f>HYPERLINK(E216)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cilantro</v>
       </c>
       <c r="D216" t="s">
@@ -16667,7 +16667,7 @@
         <v>881</v>
       </c>
       <c r="C217" s="1" t="str">
-        <f>HYPERLINK(E217)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cinnamon</v>
       </c>
       <c r="D217" t="s">
@@ -16694,7 +16694,7 @@
         <v>888</v>
       </c>
       <c r="C218" s="1" t="str">
-        <f>HYPERLINK(E218)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cinquefoil</v>
       </c>
       <c r="D218" t="s">
@@ -16721,7 +16721,7 @@
         <v>892</v>
       </c>
       <c r="C219" s="1" t="str">
-        <f>HYPERLINK(E219)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cirrhopetalum</v>
       </c>
       <c r="D219" t="s">
@@ -16748,7 +16748,7 @@
         <v>896</v>
       </c>
       <c r="C220" s="1" t="str">
-        <f>HYPERLINK(E220)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/clearweed</v>
       </c>
       <c r="D220" t="s">
@@ -16775,7 +16775,7 @@
         <v>900</v>
       </c>
       <c r="C221" s="1" t="str">
-        <f>HYPERLINK(E221)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/clematis</v>
       </c>
       <c r="D221" t="s">
@@ -16802,7 +16802,7 @@
         <v>904</v>
       </c>
       <c r="C222" s="1" t="str">
-        <f>HYPERLINK(E222)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cliff-brake</v>
       </c>
       <c r="D222" t="s">
@@ -16829,7 +16829,7 @@
         <v>909</v>
       </c>
       <c r="C223" s="1" t="str">
-        <f>HYPERLINK(E223)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/climbing-bittersweet</v>
       </c>
       <c r="D223" t="s">
@@ -16856,7 +16856,7 @@
         <v>912</v>
       </c>
       <c r="C224" s="1" t="str">
-        <f>HYPERLINK(E224)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/climbing-lily</v>
       </c>
       <c r="D224" t="s">
@@ -16883,7 +16883,7 @@
         <v>916</v>
       </c>
       <c r="C225" s="1" t="str">
-        <f>HYPERLINK(E225)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/climbing-nightshade</v>
       </c>
       <c r="D225" t="s">
@@ -16910,7 +16910,7 @@
         <v>920</v>
       </c>
       <c r="C226" s="1" t="str">
-        <f>HYPERLINK(E226)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/clivia-lily</v>
       </c>
       <c r="D226" t="s">
@@ -16937,7 +16937,7 @@
         <v>933</v>
       </c>
       <c r="C227" s="1" t="str">
-        <f>HYPERLINK(E227)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/club-moss</v>
       </c>
       <c r="D227" t="s">
@@ -16964,7 +16964,7 @@
         <v>924</v>
       </c>
       <c r="C228" s="1" t="str">
-        <f>HYPERLINK(E228)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/clusia-rosea</v>
       </c>
       <c r="D228" t="s">
@@ -16991,7 +16991,7 @@
         <v>929</v>
       </c>
       <c r="C229" s="1" t="str">
-        <f>HYPERLINK(E229)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cocks-comb</v>
       </c>
       <c r="D229" t="s">
@@ -17018,7 +17018,7 @@
         <v>938</v>
       </c>
       <c r="C230" s="1" t="str">
-        <f>HYPERLINK(E230)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cocktail-orchid</v>
       </c>
       <c r="D230" t="s">
@@ -17045,7 +17045,7 @@
         <v>941</v>
       </c>
       <c r="C231" s="1" t="str">
-        <f>HYPERLINK(E231)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/coffee-tree</v>
       </c>
       <c r="D231" t="s">
@@ -17072,7 +17072,7 @@
         <v>945</v>
       </c>
       <c r="C232" s="1" t="str">
-        <f>HYPERLINK(E232)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/coleus</v>
       </c>
       <c r="D232" t="s">
@@ -17099,7 +17099,7 @@
         <v>948</v>
       </c>
       <c r="C233" s="1" t="str">
-        <f>HYPERLINK(E233)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/collinia-elegans</v>
       </c>
       <c r="D233" t="s">
@@ -17126,7 +17126,7 @@
         <v>950</v>
       </c>
       <c r="C234" s="1" t="str">
-        <f>HYPERLINK(E234)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/common-camellia</v>
       </c>
       <c r="D234" t="s">
@@ -17153,7 +17153,7 @@
         <v>954</v>
       </c>
       <c r="C235" s="1" t="str">
-        <f>HYPERLINK(E235)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/common-catbrier</v>
       </c>
       <c r="D235" t="s">
@@ -17180,7 +17180,7 @@
         <v>650</v>
       </c>
       <c r="C236" s="1" t="str">
-        <f>HYPERLINK(E236)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/common-garden-canna</v>
       </c>
       <c r="D236" t="s">
@@ -17207,7 +17207,7 @@
         <v>957</v>
       </c>
       <c r="C237" s="1" t="str">
-        <f>HYPERLINK(E237)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/common-greenbrier</v>
       </c>
       <c r="D237" t="s">
@@ -17234,7 +17234,7 @@
         <v>959</v>
       </c>
       <c r="C238" s="1" t="str">
-        <f>HYPERLINK(E238)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/common-privet</v>
       </c>
       <c r="D238" t="s">
@@ -17261,7 +17261,7 @@
         <v>967</v>
       </c>
       <c r="C239" s="1" t="str">
-        <f>HYPERLINK(E239)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/common-snapdragon</v>
       </c>
       <c r="D239" t="s">
@@ -17288,7 +17288,7 @@
         <v>964</v>
       </c>
       <c r="C240" s="1" t="str">
-        <f>HYPERLINK(E240)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/common-staghorn-fern</v>
       </c>
       <c r="D240" t="s">
@@ -17315,7 +17315,7 @@
         <v>971</v>
       </c>
       <c r="C241" s="1" t="str">
-        <f>HYPERLINK(E241)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/confederate-jasmine</v>
       </c>
       <c r="D241" t="s">
@@ -17342,7 +17342,7 @@
         <v>975</v>
       </c>
       <c r="C242" s="1" t="str">
-        <f>HYPERLINK(E242)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/coolwort</v>
       </c>
       <c r="D242" t="s">
@@ -17369,7 +17369,7 @@
         <v>978</v>
       </c>
       <c r="C243" s="1" t="str">
-        <f>HYPERLINK(E243)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/coontie-palm</v>
       </c>
       <c r="D243" t="s">
@@ -17396,7 +17396,7 @@
         <v>982</v>
       </c>
       <c r="C244" s="1" t="str">
-        <f>HYPERLINK(E244)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/copper-rose</v>
       </c>
       <c r="D244" t="s">
@@ -17423,7 +17423,7 @@
         <v>985</v>
       </c>
       <c r="C245" s="1" t="str">
-        <f>HYPERLINK(E245)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/copperleaf</v>
       </c>
       <c r="D245" t="s">
@@ -17450,7 +17450,7 @@
         <v>989</v>
       </c>
       <c r="C246" s="1" t="str">
-        <f>HYPERLINK(E246)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/coral-bells</v>
       </c>
       <c r="D246" t="s">
@@ -17477,7 +17477,7 @@
         <v>991</v>
       </c>
       <c r="C247" s="1" t="str">
-        <f>HYPERLINK(E247)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cordatum</v>
       </c>
       <c r="D247" t="s">
@@ -17504,7 +17504,7 @@
         <v>995</v>
       </c>
       <c r="C248" s="1" t="str">
-        <f>HYPERLINK(E248)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/coreopsis</v>
       </c>
       <c r="D248" t="s">
@@ -17531,7 +17531,7 @@
         <v>999</v>
       </c>
       <c r="C249" s="1" t="str">
-        <f>HYPERLINK(E249)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/corn-plant</v>
       </c>
       <c r="D249" t="s">
@@ -17558,7 +17558,7 @@
         <v>1004</v>
       </c>
       <c r="C250" s="1" t="str">
-        <f>HYPERLINK(E250)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cornflower</v>
       </c>
       <c r="D250" t="s">
@@ -17585,7 +17585,7 @@
         <v>1007</v>
       </c>
       <c r="C251" s="1" t="str">
-        <f>HYPERLINK(E251)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cornstalk-plant</v>
       </c>
       <c r="D251" t="s">
@@ -17612,7 +17612,7 @@
         <v>1010</v>
       </c>
       <c r="C252" s="1" t="str">
-        <f>HYPERLINK(E252)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cow-parsnip</v>
       </c>
       <c r="D252" t="s">
@@ -17639,7 +17639,7 @@
         <v>1014</v>
       </c>
       <c r="C253" s="1" t="str">
-        <f>HYPERLINK(E253)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cowbane</v>
       </c>
       <c r="D253" t="s">
@@ -17666,7 +17666,7 @@
         <v>1018</v>
       </c>
       <c r="C254" s="1" t="str">
-        <f>HYPERLINK(E254)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/crape-myrtle</v>
       </c>
       <c r="D254" t="s">
@@ -17693,7 +17693,7 @@
         <v>1023</v>
       </c>
       <c r="C255" s="1" t="str">
-        <f>HYPERLINK(E255)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/creeping-charlie</v>
       </c>
       <c r="D255" t="s">
@@ -17720,7 +17720,7 @@
         <v>1027</v>
       </c>
       <c r="C256" s="1" t="str">
-        <f>HYPERLINK(E256)</f>
+        <f t="shared" si="3"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/creeping-gloxinia</v>
       </c>
       <c r="D256" t="s">
@@ -17747,7 +17747,7 @@
         <v>1031</v>
       </c>
       <c r="C257" s="1" t="str">
-        <f>HYPERLINK(E257)</f>
+        <f t="shared" ref="C257:C320" si="4">HYPERLINK(E257)</f>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/creeping-mahonia</v>
       </c>
       <c r="D257" t="s">
@@ -17774,7 +17774,7 @@
         <v>1035</v>
       </c>
       <c r="C258" s="1" t="str">
-        <f>HYPERLINK(E258)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/creeping-pilea</v>
       </c>
       <c r="D258" t="s">
@@ -17801,7 +17801,7 @@
         <v>1039</v>
       </c>
       <c r="C259" s="1" t="str">
-        <f>HYPERLINK(E259)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/creeping-rubus</v>
       </c>
       <c r="D259" t="s">
@@ -17828,7 +17828,7 @@
         <v>1043</v>
       </c>
       <c r="C260" s="1" t="str">
-        <f>HYPERLINK(E260)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/creeping-zinnia</v>
       </c>
       <c r="D260" t="s">
@@ -17855,7 +17855,7 @@
         <v>1020</v>
       </c>
       <c r="C261" s="1" t="str">
-        <f>HYPERLINK(E261)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/crepe-myrtle</v>
       </c>
       <c r="D261" t="s">
@@ -17882,7 +17882,7 @@
         <v>1047</v>
       </c>
       <c r="C262" s="1" t="str">
-        <f>HYPERLINK(E262)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/crimson-bottlebush</v>
       </c>
       <c r="D262" t="s">
@@ -17909,7 +17909,7 @@
         <v>1050</v>
       </c>
       <c r="C263" s="1" t="str">
-        <f>HYPERLINK(E263)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/crimson-cup</v>
       </c>
       <c r="D263" t="s">
@@ -17936,7 +17936,7 @@
         <v>1053</v>
       </c>
       <c r="C264" s="1" t="str">
-        <f>HYPERLINK(E264)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/crisped-feather-fern</v>
       </c>
       <c r="D264" t="s">
@@ -17963,7 +17963,7 @@
         <v>1056</v>
       </c>
       <c r="C265" s="1" t="str">
-        <f>HYPERLINK(E265)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/crossandra</v>
       </c>
       <c r="D265" t="s">
@@ -17990,7 +17990,7 @@
         <v>1059</v>
       </c>
       <c r="C266" s="1" t="str">
-        <f>HYPERLINK(E266)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cuckoo-pint</v>
       </c>
       <c r="D266" t="s">
@@ -18017,7 +18017,7 @@
         <v>1062</v>
       </c>
       <c r="C267" s="1" t="str">
-        <f>HYPERLINK(E267)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cucumber</v>
       </c>
       <c r="D267" t="s">
@@ -18044,7 +18044,7 @@
         <v>1066</v>
       </c>
       <c r="C268" s="1" t="str">
-        <f>HYPERLINK(E268)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cushion-aloe</v>
       </c>
       <c r="D268" t="s">
@@ -18071,7 +18071,7 @@
         <v>1069</v>
       </c>
       <c r="C269" s="1" t="str">
-        <f>HYPERLINK(E269)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cushion-moss</v>
       </c>
       <c r="D269" t="s">
@@ -18098,7 +18098,7 @@
         <v>1072</v>
       </c>
       <c r="C270" s="1" t="str">
-        <f>HYPERLINK(E270)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cutleaf-philodendron</v>
       </c>
       <c r="D270" t="s">
@@ -18125,7 +18125,7 @@
         <v>1075</v>
       </c>
       <c r="C271" s="1" t="str">
-        <f>HYPERLINK(E271)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cycads</v>
       </c>
       <c r="D271" t="s">
@@ -18152,7 +18152,7 @@
         <v>1083</v>
       </c>
       <c r="C272" s="1" t="str">
-        <f>HYPERLINK(E272)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cyclamen</v>
       </c>
       <c r="D272" t="s">
@@ -18179,7 +18179,7 @@
         <v>1079</v>
       </c>
       <c r="C273" s="1" t="str">
-        <f>HYPERLINK(E273)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/cyrtudeira</v>
       </c>
       <c r="D273" t="s">
@@ -18206,7 +18206,7 @@
         <v>1088</v>
       </c>
       <c r="C274" s="1" t="str">
-        <f>HYPERLINK(E274)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/daffodil</v>
       </c>
       <c r="D274" t="s">
@@ -18233,7 +18233,7 @@
         <v>1092</v>
       </c>
       <c r="C275" s="1" t="str">
-        <f>HYPERLINK(E275)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dahlia</v>
       </c>
       <c r="D275" t="s">
@@ -18260,7 +18260,7 @@
         <v>1096</v>
       </c>
       <c r="C276" s="1" t="str">
-        <f>HYPERLINK(E276)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dainty-rabbits-foot-fern</v>
       </c>
       <c r="D276" t="s">
@@ -18287,7 +18287,7 @@
         <v>1101</v>
       </c>
       <c r="C277" s="1" t="str">
-        <f>HYPERLINK(E277)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/daisy</v>
       </c>
       <c r="D277" t="s">
@@ -18314,7 +18314,7 @@
         <v>1105</v>
       </c>
       <c r="C278" s="1" t="str">
-        <f>HYPERLINK(E278)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dallas-fern</v>
       </c>
       <c r="D278" t="s">
@@ -18341,7 +18341,7 @@
         <v>1107</v>
       </c>
       <c r="C279" s="1" t="str">
-        <f>HYPERLINK(E279)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dancing-doll-orchid</v>
       </c>
       <c r="D279" t="s">
@@ -18368,7 +18368,7 @@
         <v>1110</v>
       </c>
       <c r="C280" s="1" t="str">
-        <f>HYPERLINK(E280)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/day-lilies-many-varieties</v>
       </c>
       <c r="D280" t="s">
@@ -18395,7 +18395,7 @@
         <v>1118</v>
       </c>
       <c r="C281" s="1" t="str">
-        <f>HYPERLINK(E281)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/deadly-nightshade</v>
       </c>
       <c r="D281" t="s">
@@ -18422,7 +18422,7 @@
         <v>1114</v>
       </c>
       <c r="C282" s="1" t="str">
-        <f>HYPERLINK(E282)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/desert-azalea</v>
       </c>
       <c r="D282" t="s">
@@ -18449,7 +18449,7 @@
         <v>1125</v>
       </c>
       <c r="C283" s="1" t="str">
-        <f>HYPERLINK(E283)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/desert-rose</v>
       </c>
       <c r="D283" t="s">
@@ -18476,7 +18476,7 @@
         <v>1122</v>
       </c>
       <c r="C284" s="1" t="str">
-        <f>HYPERLINK(E284)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/desert-trumpet</v>
       </c>
       <c r="D284" t="s">
@@ -18503,7 +18503,7 @@
         <v>1128</v>
       </c>
       <c r="C285" s="1" t="str">
-        <f>HYPERLINK(E285)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/devils-backbone</v>
       </c>
       <c r="D285" t="s">
@@ -18530,7 +18530,7 @@
         <v>1131</v>
       </c>
       <c r="C286" s="1" t="str">
-        <f>HYPERLINK(E286)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/devils-ivy</v>
       </c>
       <c r="D286" t="s">
@@ -18557,7 +18557,7 @@
         <v>1135</v>
       </c>
       <c r="C287" s="1" t="str">
-        <f>HYPERLINK(E287)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dichelostemma</v>
       </c>
       <c r="D287" t="s">
@@ -18584,7 +18584,7 @@
         <v>1139</v>
       </c>
       <c r="C288" s="1" t="str">
-        <f>HYPERLINK(E288)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dichorisandra-reginae</v>
       </c>
       <c r="D288" t="s">
@@ -18611,7 +18611,7 @@
         <v>1144</v>
       </c>
       <c r="C289" s="1" t="str">
-        <f>HYPERLINK(E289)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dieffenbachia</v>
       </c>
       <c r="D289" t="s">
@@ -18638,7 +18638,7 @@
         <v>1147</v>
       </c>
       <c r="C290" s="1" t="str">
-        <f>HYPERLINK(E290)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dill</v>
       </c>
       <c r="D290" t="s">
@@ -18665,7 +18665,7 @@
         <v>1150</v>
       </c>
       <c r="C291" s="1" t="str">
-        <f>HYPERLINK(E291)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dinteranthus</v>
       </c>
       <c r="D291" t="s">
@@ -18692,7 +18692,7 @@
         <v>1154</v>
       </c>
       <c r="C292" s="1" t="str">
-        <f>HYPERLINK(E292)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dock</v>
       </c>
       <c r="D292" t="s">
@@ -18719,7 +18719,7 @@
         <v>1158</v>
       </c>
       <c r="C293" s="1" t="str">
-        <f>HYPERLINK(E293)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dog-daisy</v>
       </c>
       <c r="D293" t="s">
@@ -18746,7 +18746,7 @@
         <v>1162</v>
       </c>
       <c r="C294" s="1" t="str">
-        <f>HYPERLINK(E294)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dog-hobble</v>
       </c>
       <c r="D294" t="s">
@@ -18773,7 +18773,7 @@
         <v>1166</v>
       </c>
       <c r="C295" s="1" t="str">
-        <f>HYPERLINK(E295)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dogbane-hemp</v>
       </c>
       <c r="D295" t="s">
@@ -18800,7 +18800,7 @@
         <v>1170</v>
       </c>
       <c r="C296" s="1" t="str">
-        <f>HYPERLINK(E296)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dracaena</v>
       </c>
       <c r="D296" t="s">
@@ -18827,7 +18827,7 @@
         <v>1174</v>
       </c>
       <c r="C297" s="1" t="str">
-        <f>HYPERLINK(E297)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/duffii-fern</v>
       </c>
       <c r="D297" t="s">
@@ -18854,7 +18854,7 @@
         <v>1179</v>
       </c>
       <c r="C298" s="1" t="str">
-        <f>HYPERLINK(E298)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dumbcane</v>
       </c>
       <c r="D298" t="s">
@@ -18881,7 +18881,7 @@
         <v>1182</v>
       </c>
       <c r="C299" s="1" t="str">
-        <f>HYPERLINK(E299)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dwarf-date-palm</v>
       </c>
       <c r="D299" t="s">
@@ -18908,7 +18908,7 @@
         <v>1185</v>
       </c>
       <c r="C300" s="1" t="str">
-        <f>HYPERLINK(E300)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dwarf-feather-palm</v>
       </c>
       <c r="D300" t="s">
@@ -18935,7 +18935,7 @@
         <v>1188</v>
       </c>
       <c r="C301" s="1" t="str">
-        <f>HYPERLINK(E301)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dwarf-palm</v>
       </c>
       <c r="D301" t="s">
@@ -18962,7 +18962,7 @@
         <v>1191</v>
       </c>
       <c r="C302" s="1" t="str">
-        <f>HYPERLINK(E302)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dwarf-poinciana</v>
       </c>
       <c r="D302" t="s">
@@ -18989,7 +18989,7 @@
         <v>1194</v>
       </c>
       <c r="C303" s="1" t="str">
-        <f>HYPERLINK(E303)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dwarf-rose-stripe-star</v>
       </c>
       <c r="D303" t="s">
@@ -19016,7 +19016,7 @@
         <v>1214</v>
       </c>
       <c r="C304" s="1" t="str">
-        <f>HYPERLINK(E304)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dwarf-royal-palm</v>
       </c>
       <c r="D304" t="s">
@@ -19043,7 +19043,7 @@
         <v>1198</v>
       </c>
       <c r="C305" s="1" t="str">
-        <f>HYPERLINK(E305)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/dwarf-whitman-fern</v>
       </c>
       <c r="D305" t="s">
@@ -19070,7 +19070,7 @@
         <v>1201</v>
       </c>
       <c r="C306" s="1" t="str">
-        <f>HYPERLINK(E306)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/earth-star</v>
       </c>
       <c r="D306" t="s">
@@ -19097,7 +19097,7 @@
         <v>1204</v>
       </c>
       <c r="C307" s="1" t="str">
-        <f>HYPERLINK(E307)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/easter-cattleya</v>
       </c>
       <c r="D307" t="s">
@@ -19124,7 +19124,7 @@
         <v>1208</v>
       </c>
       <c r="C308" s="1" t="str">
-        <f>HYPERLINK(E308)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/easter-daisy</v>
       </c>
       <c r="D308" t="s">
@@ -19151,7 +19151,7 @@
         <v>1211</v>
       </c>
       <c r="C309" s="1" t="str">
-        <f>HYPERLINK(E309)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/easter-lily</v>
       </c>
       <c r="D309" t="s">
@@ -19178,7 +19178,7 @@
         <v>1217</v>
       </c>
       <c r="C310" s="1" t="str">
-        <f>HYPERLINK(E310)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/easter-lily-cactus</v>
       </c>
       <c r="D310" t="s">
@@ -19205,7 +19205,7 @@
         <v>1206</v>
       </c>
       <c r="C311" s="1" t="str">
-        <f>HYPERLINK(E311)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/easter-orchid</v>
       </c>
       <c r="D311" t="s">
@@ -19232,7 +19232,7 @@
         <v>1221</v>
       </c>
       <c r="C312" s="1" t="str">
-        <f>HYPERLINK(E312)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/easter-rose</v>
       </c>
       <c r="D312" t="s">
@@ -19259,7 +19259,7 @@
         <v>1224</v>
       </c>
       <c r="C313" s="1" t="str">
-        <f>HYPERLINK(E313)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/eastern-star</v>
       </c>
       <c r="D313" t="s">
@@ -19286,7 +19286,7 @@
         <v>1227</v>
       </c>
       <c r="C314" s="1" t="str">
-        <f>HYPERLINK(E314)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/edible-banana</v>
       </c>
       <c r="D314" t="s">
@@ -19313,7 +19313,7 @@
         <v>1229</v>
       </c>
       <c r="C315" s="1" t="str">
-        <f>HYPERLINK(E315)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/elephant-ears</v>
       </c>
       <c r="D315" t="s">
@@ -19340,7 +19340,7 @@
         <v>1229</v>
       </c>
       <c r="C316" s="1" t="str">
-        <f>HYPERLINK(E316)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/elephant-ears-0</v>
       </c>
       <c r="D316" t="s">
@@ -19367,7 +19367,7 @@
         <v>1235</v>
       </c>
       <c r="C317" s="1" t="str">
-        <f>HYPERLINK(E317)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/elephant-ear-begonia</v>
       </c>
       <c r="D317" t="s">
@@ -19394,7 +19394,7 @@
         <v>1238</v>
       </c>
       <c r="C318" s="1" t="str">
-        <f>HYPERLINK(E318)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/emerald-feather</v>
       </c>
       <c r="D318" t="s">
@@ -19421,7 +19421,7 @@
         <v>1242</v>
       </c>
       <c r="C319" s="1" t="str">
-        <f>HYPERLINK(E319)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/emerald-ripple-peperomia</v>
       </c>
       <c r="D319" t="s">
@@ -19448,7 +19448,7 @@
         <v>1247</v>
       </c>
       <c r="C320" s="1" t="str">
-        <f>HYPERLINK(E320)</f>
+        <f t="shared" si="4"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/english-hawthorn</v>
       </c>
       <c r="D320" t="s">
@@ -19475,7 +19475,7 @@
         <v>1251</v>
       </c>
       <c r="C321" s="1" t="str">
-        <f>HYPERLINK(E321)</f>
+        <f t="shared" ref="C321:C384" si="5">HYPERLINK(E321)</f>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/english-holly</v>
       </c>
       <c r="D321" t="s">
@@ -19502,7 +19502,7 @@
         <v>1255</v>
       </c>
       <c r="C322" s="1" t="str">
-        <f>HYPERLINK(E322)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/english-ivy</v>
       </c>
       <c r="D322" t="s">
@@ -19529,7 +19529,7 @@
         <v>1258</v>
       </c>
       <c r="C323" s="1" t="str">
-        <f>HYPERLINK(E323)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/english-yew</v>
       </c>
       <c r="D323" t="s">
@@ -19556,7 +19556,7 @@
         <v>1262</v>
       </c>
       <c r="C324" s="1" t="str">
-        <f>HYPERLINK(E324)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/epazote</v>
       </c>
       <c r="D324" t="s">
@@ -19583,7 +19583,7 @@
         <v>1266</v>
       </c>
       <c r="C325" s="1" t="str">
-        <f>HYPERLINK(E325)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/episcia</v>
       </c>
       <c r="D325" t="s">
@@ -19610,7 +19610,7 @@
         <v>1269</v>
       </c>
       <c r="C326" s="1" t="str">
-        <f>HYPERLINK(E326)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/eucalyptus</v>
       </c>
       <c r="D326" t="s">
@@ -19637,7 +19637,7 @@
         <v>1273</v>
       </c>
       <c r="C327" s="1" t="str">
-        <f>HYPERLINK(E327)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/european-bittersweet</v>
       </c>
       <c r="D327" t="s">
@@ -19664,7 +19664,7 @@
         <v>1276</v>
       </c>
       <c r="C328" s="1" t="str">
-        <f>HYPERLINK(E328)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/european-holly</v>
       </c>
       <c r="D328" t="s">
@@ -19691,7 +19691,7 @@
         <v>1279</v>
       </c>
       <c r="C329" s="1" t="str">
-        <f>HYPERLINK(E329)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/everlasting-pea</v>
       </c>
       <c r="D329" t="s">
@@ -19718,7 +19718,7 @@
         <v>1283</v>
       </c>
       <c r="C330" s="1" t="str">
-        <f>HYPERLINK(E330)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/exotica</v>
       </c>
       <c r="D330" t="s">
@@ -19745,7 +19745,7 @@
         <v>1286</v>
       </c>
       <c r="C331" s="1" t="str">
-        <f>HYPERLINK(E331)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fairy-fountain</v>
       </c>
       <c r="D331" t="s">
@@ -19772,7 +19772,7 @@
         <v>1291</v>
       </c>
       <c r="C332" s="1" t="str">
-        <f>HYPERLINK(E332)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/false-aralia</v>
       </c>
       <c r="D332" t="s">
@@ -19799,7 +19799,7 @@
         <v>1294</v>
       </c>
       <c r="C333" s="1" t="str">
-        <f>HYPERLINK(E333)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/false-bittersweet</v>
       </c>
       <c r="D333" t="s">
@@ -19826,7 +19826,7 @@
         <v>1296</v>
       </c>
       <c r="C334" s="1" t="str">
-        <f>HYPERLINK(E334)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/false-queen-annes-lace</v>
       </c>
       <c r="D334" t="s">
@@ -19853,7 +19853,7 @@
         <v>1299</v>
       </c>
       <c r="C335" s="1" t="str">
-        <f>HYPERLINK(E335)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fan-tufted-palm</v>
       </c>
       <c r="D335" t="s">
@@ -19880,7 +19880,7 @@
         <v>1303</v>
       </c>
       <c r="C336" s="1" t="str">
-        <f>HYPERLINK(E336)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/feather-geranium</v>
       </c>
       <c r="D336" t="s">
@@ -19907,7 +19907,7 @@
         <v>1307</v>
       </c>
       <c r="C337" s="1" t="str">
-        <f>HYPERLINK(E337)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/feather-palm</v>
       </c>
       <c r="D337" t="s">
@@ -19934,7 +19934,7 @@
         <v>1310</v>
       </c>
       <c r="C338" s="1" t="str">
-        <f>HYPERLINK(E338)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fennel</v>
       </c>
       <c r="D338" t="s">
@@ -19961,7 +19961,7 @@
         <v>1314</v>
       </c>
       <c r="C339" s="1" t="str">
-        <f>HYPERLINK(E339)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fern-palm</v>
       </c>
       <c r="D339" t="s">
@@ -19988,7 +19988,7 @@
         <v>1337</v>
       </c>
       <c r="C340" s="1" t="str">
-        <f>HYPERLINK(E340)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fetter-bush</v>
       </c>
       <c r="D340" t="s">
@@ -20015,7 +20015,7 @@
         <v>1317</v>
       </c>
       <c r="C341" s="1" t="str">
-        <f>HYPERLINK(E341)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fetterbush</v>
       </c>
       <c r="D341" t="s">
@@ -20042,7 +20042,7 @@
         <v>1321</v>
       </c>
       <c r="C342" s="1" t="str">
-        <f>HYPERLINK(E342)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fiddle-leaf</v>
       </c>
       <c r="D342" t="s">
@@ -20069,7 +20069,7 @@
         <v>1325</v>
       </c>
       <c r="C343" s="1" t="str">
-        <f>HYPERLINK(E343)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fiddleneck</v>
       </c>
       <c r="D343" t="s">
@@ -20096,7 +20096,7 @@
         <v>1329</v>
       </c>
       <c r="C344" s="1" t="str">
-        <f>HYPERLINK(E344)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/field-horsetail</v>
       </c>
       <c r="D344" t="s">
@@ -20123,7 +20123,7 @@
         <v>1334</v>
       </c>
       <c r="C345" s="1" t="str">
-        <f>HYPERLINK(E345)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/field-pennycress</v>
       </c>
       <c r="D345" t="s">
@@ -20150,7 +20150,7 @@
         <v>1340</v>
       </c>
       <c r="C346" s="1" t="str">
-        <f>HYPERLINK(E346)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fiery-reed-orchid</v>
       </c>
       <c r="D346" t="s">
@@ -20177,7 +20177,7 @@
         <v>1343</v>
       </c>
       <c r="C347" s="1" t="str">
-        <f>HYPERLINK(E347)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fig</v>
       </c>
       <c r="D347" t="s">
@@ -20204,7 +20204,7 @@
         <v>1348</v>
       </c>
       <c r="C348" s="1" t="str">
-        <f>HYPERLINK(E348)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fig-leaf-gourd</v>
       </c>
       <c r="D348" t="s">
@@ -20231,7 +20231,7 @@
         <v>1352</v>
       </c>
       <c r="C349" s="1" t="str">
-        <f>HYPERLINK(E349)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/figleaf-palm</v>
       </c>
       <c r="D349" t="s">
@@ -20258,7 +20258,7 @@
         <v>1356</v>
       </c>
       <c r="C350" s="1" t="str">
-        <f>HYPERLINK(E350)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/figwort</v>
       </c>
       <c r="D350" t="s">
@@ -20285,7 +20285,7 @@
         <v>1384</v>
       </c>
       <c r="C351" s="1" t="str">
-        <f>HYPERLINK(E351)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fingernail-plant</v>
       </c>
       <c r="D351" t="s">
@@ -20312,7 +20312,7 @@
         <v>1360</v>
       </c>
       <c r="C352" s="1" t="str">
-        <f>HYPERLINK(E352)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fire-lily</v>
       </c>
       <c r="D352" t="s">
@@ -20339,7 +20339,7 @@
         <v>1363</v>
       </c>
       <c r="C353" s="1" t="str">
-        <f>HYPERLINK(E353)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fire-weed</v>
       </c>
       <c r="D353" t="s">
@@ -20366,7 +20366,7 @@
         <v>1366</v>
       </c>
       <c r="C354" s="1" t="str">
-        <f>HYPERLINK(E354)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fish-tail-fern</v>
       </c>
       <c r="D354" t="s">
@@ -20393,7 +20393,7 @@
         <v>1369</v>
       </c>
       <c r="C355" s="1" t="str">
-        <f>HYPERLINK(E355)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/flag</v>
       </c>
       <c r="D355" t="s">
@@ -20420,7 +20420,7 @@
         <v>1373</v>
       </c>
       <c r="C356" s="1" t="str">
-        <f>HYPERLINK(E356)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/flame-african-violet</v>
       </c>
       <c r="D356" t="s">
@@ -20447,7 +20447,7 @@
         <v>1376</v>
       </c>
       <c r="C357" s="1" t="str">
-        <f>HYPERLINK(E357)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/flame-woods</v>
       </c>
       <c r="D357" t="s">
@@ -20474,7 +20474,7 @@
         <v>1380</v>
       </c>
       <c r="C358" s="1" t="str">
-        <f>HYPERLINK(E358)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/flamingo-flower</v>
       </c>
       <c r="D358" t="s">
@@ -20501,7 +20501,7 @@
         <v>1387</v>
       </c>
       <c r="C359" s="1" t="str">
-        <f>HYPERLINK(E359)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fleabane</v>
       </c>
       <c r="D359" t="s">
@@ -20528,7 +20528,7 @@
         <v>1391</v>
       </c>
       <c r="C360" s="1" t="str">
-        <f>HYPERLINK(E360)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/florida-beauty</v>
       </c>
       <c r="D360" t="s">
@@ -20555,7 +20555,7 @@
         <v>1395</v>
       </c>
       <c r="C361" s="1" t="str">
-        <f>HYPERLINK(E361)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/florida-butterfly-orchid</v>
       </c>
       <c r="D361" t="s">
@@ -20582,7 +20582,7 @@
         <v>1395</v>
       </c>
       <c r="C362" s="1" t="str">
-        <f>HYPERLINK(E362)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/florida-butterfly-orchid-0</v>
       </c>
       <c r="D362" t="s">
@@ -20609,7 +20609,7 @@
         <v>1402</v>
       </c>
       <c r="C363" s="1" t="str">
-        <f>HYPERLINK(E363)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/florists-calla</v>
       </c>
       <c r="D363" t="s">
@@ -20636,7 +20636,7 @@
         <v>1405</v>
       </c>
       <c r="C364" s="1" t="str">
-        <f>HYPERLINK(E364)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fluffy-ruffles</v>
       </c>
       <c r="D364" t="s">
@@ -20663,7 +20663,7 @@
         <v>1408</v>
       </c>
       <c r="C365" s="1" t="str">
-        <f>HYPERLINK(E365)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/forster-sentry-palm</v>
       </c>
       <c r="D365" t="s">
@@ -20690,7 +20690,7 @@
         <v>1413</v>
       </c>
       <c r="C366" s="1" t="str">
-        <f>HYPERLINK(E366)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/fortunes-palm</v>
       </c>
       <c r="D366" t="s">
@@ -20717,7 +20717,7 @@
         <v>1417</v>
       </c>
       <c r="C367" s="1" t="str">
-        <f>HYPERLINK(E367)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/foxglove</v>
       </c>
       <c r="D367" t="s">
@@ -20744,7 +20744,7 @@
         <v>1421</v>
       </c>
       <c r="C368" s="1" t="str">
-        <f>HYPERLINK(E368)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/franciscan-rain-tree</v>
       </c>
       <c r="D368" t="s">
@@ -20771,7 +20771,7 @@
         <v>1424</v>
       </c>
       <c r="C369" s="1" t="str">
-        <f>HYPERLINK(E369)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/freckle-face</v>
       </c>
       <c r="D369" t="s">
@@ -20798,7 +20798,7 @@
         <v>1427</v>
       </c>
       <c r="C370" s="1" t="str">
-        <f>HYPERLINK(E370)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/friendship-plant</v>
       </c>
       <c r="D370" t="s">
@@ -20825,7 +20825,7 @@
         <v>1431</v>
       </c>
       <c r="C371" s="1" t="str">
-        <f>HYPERLINK(E371)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/garden-calla</v>
       </c>
       <c r="D371" t="s">
@@ -20852,7 +20852,7 @@
         <v>1434</v>
       </c>
       <c r="C372" s="1" t="str">
-        <f>HYPERLINK(E372)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/garden-chamomile</v>
       </c>
       <c r="D372" t="s">
@@ -20879,7 +20879,7 @@
         <v>1437</v>
       </c>
       <c r="C373" s="1" t="str">
-        <f>HYPERLINK(E373)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/garden-hyacinth</v>
       </c>
       <c r="D373" t="s">
@@ -20906,7 +20906,7 @@
         <v>1441</v>
       </c>
       <c r="C374" s="1" t="str">
-        <f>HYPERLINK(E374)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/garden-marigold</v>
       </c>
       <c r="D374" t="s">
@@ -20933,7 +20933,7 @@
         <v>969</v>
       </c>
       <c r="C375" s="1" t="str">
-        <f>HYPERLINK(E375)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/garden-snapdragon</v>
       </c>
       <c r="D375" t="s">
@@ -20960,7 +20960,7 @@
         <v>657</v>
       </c>
       <c r="C376" s="1" t="str">
-        <f>HYPERLINK(E376)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/gardenia</v>
       </c>
       <c r="D376" t="s">
@@ -20987,7 +20987,7 @@
         <v>1451</v>
       </c>
       <c r="C377" s="1" t="str">
-        <f>HYPERLINK(E377)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/garlic</v>
       </c>
       <c r="D377" t="s">
@@ -21014,7 +21014,7 @@
         <v>1447</v>
       </c>
       <c r="C378" s="1" t="str">
-        <f>HYPERLINK(E378)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/geranium</v>
       </c>
       <c r="D378" t="s">
@@ -21041,7 +21041,7 @@
         <v>1455</v>
       </c>
       <c r="C379" s="1" t="str">
-        <f>HYPERLINK(E379)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/geranium-leaf-aralia</v>
       </c>
       <c r="D379" t="s">
@@ -21068,7 +21068,7 @@
         <v>1458</v>
       </c>
       <c r="C380" s="1" t="str">
-        <f>HYPERLINK(E380)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/gerber-daisy</v>
       </c>
       <c r="D380" t="s">
@@ -21095,7 +21095,7 @@
         <v>1461</v>
       </c>
       <c r="C381" s="1" t="str">
-        <f>HYPERLINK(E381)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/german-violet</v>
       </c>
       <c r="D381" t="s">
@@ -21122,7 +21122,7 @@
         <v>1464</v>
       </c>
       <c r="C382" s="1" t="str">
-        <f>HYPERLINK(E382)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/gherkins</v>
       </c>
       <c r="D382" t="s">
@@ -21149,7 +21149,7 @@
         <v>1489</v>
       </c>
       <c r="C383" s="1" t="str">
-        <f>HYPERLINK(E383)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ghost-leafless-orchid</v>
       </c>
       <c r="D383" t="s">
@@ -21176,7 +21176,7 @@
         <v>1467</v>
       </c>
       <c r="C384" s="1" t="str">
-        <f>HYPERLINK(E384)</f>
+        <f t="shared" si="5"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ghost-plant</v>
       </c>
       <c r="D384" t="s">
@@ -21203,7 +21203,7 @@
         <v>1471</v>
       </c>
       <c r="C385" s="1" t="str">
-        <f>HYPERLINK(E385)</f>
+        <f t="shared" ref="C385:C448" si="6">HYPERLINK(E385)</f>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/giant-aster</v>
       </c>
       <c r="D385" t="s">
@@ -21230,7 +21230,7 @@
         <v>1473</v>
       </c>
       <c r="C386" s="1" t="str">
-        <f>HYPERLINK(E386)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/giant-dracaena</v>
       </c>
       <c r="D386" t="s">
@@ -21257,7 +21257,7 @@
         <v>1477</v>
       </c>
       <c r="C387" s="1" t="str">
-        <f>HYPERLINK(E387)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/giant-dumb-cane</v>
       </c>
       <c r="D387" t="s">
@@ -21284,7 +21284,7 @@
         <v>1012</v>
       </c>
       <c r="C388" s="1" t="str">
-        <f>HYPERLINK(E388)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/giant-hogweed</v>
       </c>
       <c r="D388" t="s">
@@ -21311,7 +21311,7 @@
         <v>1482</v>
       </c>
       <c r="C389" s="1" t="str">
-        <f>HYPERLINK(E389)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/giant-holly-fern</v>
       </c>
       <c r="D389" t="s">
@@ -21338,7 +21338,7 @@
         <v>1486</v>
       </c>
       <c r="C390" s="1" t="str">
-        <f>HYPERLINK(E390)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/giant-touch-me-not</v>
       </c>
       <c r="D390" t="s">
@@ -21365,7 +21365,7 @@
         <v>1493</v>
       </c>
       <c r="C391" s="1" t="str">
-        <f>HYPERLINK(E391)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/giant-white-inch-plant</v>
       </c>
       <c r="D391" t="s">
@@ -21392,7 +21392,7 @@
         <v>1496</v>
       </c>
       <c r="C392" s="1" t="str">
-        <f>HYPERLINK(E392)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/glacier-ivy</v>
       </c>
       <c r="D392" t="s">
@@ -21419,7 +21419,7 @@
         <v>1499</v>
       </c>
       <c r="C393" s="1" t="str">
-        <f>HYPERLINK(E393)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/gladiola</v>
       </c>
       <c r="D393" t="s">
@@ -21446,7 +21446,7 @@
         <v>1502</v>
       </c>
       <c r="C394" s="1" t="str">
-        <f>HYPERLINK(E394)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/globe-thistle</v>
       </c>
       <c r="D394" t="s">
@@ -21473,7 +21473,7 @@
         <v>1505</v>
       </c>
       <c r="C395" s="1" t="str">
-        <f>HYPERLINK(E395)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/gloriosa-lily</v>
       </c>
       <c r="D395" t="s">
@@ -21500,7 +21500,7 @@
         <v>1508</v>
       </c>
       <c r="C396" s="1" t="str">
-        <f>HYPERLINK(E396)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/gloxinia</v>
       </c>
       <c r="D396" t="s">
@@ -21527,7 +21527,7 @@
         <v>1511</v>
       </c>
       <c r="C397" s="1" t="str">
-        <f>HYPERLINK(E397)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/goatweed</v>
       </c>
       <c r="D397" t="s">
@@ -21554,7 +21554,7 @@
         <v>1515</v>
       </c>
       <c r="C398" s="1" t="str">
-        <f>HYPERLINK(E398)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/gold-bloom</v>
       </c>
       <c r="D398" t="s">
@@ -21581,7 +21581,7 @@
         <v>1518</v>
       </c>
       <c r="C399" s="1" t="str">
-        <f>HYPERLINK(E399)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/gold-dieffenbachia</v>
       </c>
       <c r="D399" t="s">
@@ -21608,7 +21608,7 @@
         <v>1521</v>
       </c>
       <c r="C400" s="1" t="str">
-        <f>HYPERLINK(E400)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/gold-dust-dracaena</v>
       </c>
       <c r="D400" t="s">
@@ -21635,7 +21635,7 @@
         <v>1526</v>
       </c>
       <c r="C401" s="1" t="str">
-        <f>HYPERLINK(E401)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/golden-bells</v>
       </c>
       <c r="D401" t="s">
@@ -21662,7 +21662,7 @@
         <v>1529</v>
       </c>
       <c r="C402" s="1" t="str">
-        <f>HYPERLINK(E402)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/golden-birds-nest</v>
       </c>
       <c r="D402" t="s">
@@ -21689,7 +21689,7 @@
         <v>1533</v>
       </c>
       <c r="C403" s="1" t="str">
-        <f>HYPERLINK(E403)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/golden-butterfly-palm</v>
       </c>
       <c r="D403" t="s">
@@ -21716,7 +21716,7 @@
         <v>1536</v>
       </c>
       <c r="C404" s="1" t="str">
-        <f>HYPERLINK(E404)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/golden-lace-orchid</v>
       </c>
       <c r="D404" t="s">
@@ -21743,7 +21743,7 @@
         <v>1540</v>
       </c>
       <c r="C405" s="1" t="str">
-        <f>HYPERLINK(E405)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/golden-pothos</v>
       </c>
       <c r="D405" t="s">
@@ -21770,7 +21770,7 @@
         <v>1543</v>
       </c>
       <c r="C406" s="1" t="str">
-        <f>HYPERLINK(E406)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/golden-ragwort</v>
       </c>
       <c r="D406" t="s">
@@ -21797,7 +21797,7 @@
         <v>1547</v>
       </c>
       <c r="C407" s="1" t="str">
-        <f>HYPERLINK(E407)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/golden-shower-orchid</v>
       </c>
       <c r="D407" t="s">
@@ -21824,7 +21824,7 @@
         <v>1523</v>
       </c>
       <c r="C408" s="1" t="str">
-        <f>HYPERLINK(E408)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/gold-fish-plant</v>
       </c>
       <c r="D408" t="s">
@@ -21851,7 +21851,7 @@
         <v>1550</v>
       </c>
       <c r="C409" s="1" t="str">
-        <f>HYPERLINK(E409)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/good-luck-palm</v>
       </c>
       <c r="D409" t="s">
@@ -21878,7 +21878,7 @@
         <v>1553</v>
       </c>
       <c r="C410" s="1" t="str">
-        <f>HYPERLINK(E410)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/good-luck-plant</v>
       </c>
       <c r="D410" t="s">
@@ -21905,7 +21905,7 @@
         <v>1557</v>
       </c>
       <c r="C411" s="1" t="str">
-        <f>HYPERLINK(E411)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/grape-hyacinth</v>
       </c>
       <c r="D411" t="s">
@@ -21932,7 +21932,7 @@
         <v>1560</v>
       </c>
       <c r="C412" s="1" t="str">
-        <f>HYPERLINK(E412)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/grape-ivy</v>
       </c>
       <c r="D412" t="s">
@@ -21959,7 +21959,7 @@
         <v>1564</v>
       </c>
       <c r="C413" s="1" t="str">
-        <f>HYPERLINK(E413)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/grapefruit</v>
       </c>
       <c r="D413" t="s">
@@ -21986,7 +21986,7 @@
         <v>1567</v>
       </c>
       <c r="C414" s="1" t="str">
-        <f>HYPERLINK(E414)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/grass-palm</v>
       </c>
       <c r="D414" t="s">
@@ -22013,7 +22013,7 @@
         <v>1570</v>
       </c>
       <c r="C415" s="1" t="str">
-        <f>HYPERLINK(E415)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/great-willow-herb</v>
       </c>
       <c r="D415" t="s">
@@ -22040,7 +22040,7 @@
         <v>1573</v>
       </c>
       <c r="C416" s="1" t="str">
-        <f>HYPERLINK(E416)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/greater-ammi</v>
       </c>
       <c r="D416" t="s">
@@ -22067,7 +22067,7 @@
         <v>1576</v>
       </c>
       <c r="C417" s="1" t="str">
-        <f>HYPERLINK(E417)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/green-gold-naphthysis</v>
       </c>
       <c r="D417" t="s">
@@ -22094,7 +22094,7 @@
         <v>1579</v>
       </c>
       <c r="C418" s="1" t="str">
-        <f>HYPERLINK(E418)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/green-ripple-peperomia</v>
       </c>
       <c r="D418" t="s">
@@ -22121,7 +22121,7 @@
         <v>1582</v>
       </c>
       <c r="C419" s="1" t="str">
-        <f>HYPERLINK(E419)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/greenbrier</v>
       </c>
       <c r="D419" t="s">
@@ -22148,7 +22148,7 @@
         <v>1585</v>
       </c>
       <c r="C420" s="1" t="str">
-        <f>HYPERLINK(E420)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ground-apple</v>
       </c>
       <c r="D420" t="s">
@@ -22175,7 +22175,7 @@
         <v>1588</v>
       </c>
       <c r="C421" s="1" t="str">
-        <f>HYPERLINK(E421)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/groundsel</v>
       </c>
       <c r="D421" t="s">
@@ -22202,7 +22202,7 @@
         <v>1591</v>
       </c>
       <c r="C422" s="1" t="str">
-        <f>HYPERLINK(E422)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hagbrier</v>
       </c>
       <c r="D422" t="s">
@@ -22229,7 +22229,7 @@
         <v>1594</v>
       </c>
       <c r="C423" s="1" t="str">
-        <f>HYPERLINK(E423)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hahns-self-branching-english-ivy</v>
       </c>
       <c r="D423" t="s">
@@ -22256,7 +22256,7 @@
         <v>1597</v>
       </c>
       <c r="C424" s="1" t="str">
-        <f>HYPERLINK(E424)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hardy-baby-tears</v>
       </c>
       <c r="D424" t="s">
@@ -22283,7 +22283,7 @@
         <v>1601</v>
       </c>
       <c r="C425" s="1" t="str">
-        <f>HYPERLINK(E425)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hardy-gloxinia</v>
       </c>
       <c r="D425" t="s">
@@ -22310,7 +22310,7 @@
         <v>1604</v>
       </c>
       <c r="C426" s="1" t="str">
-        <f>HYPERLINK(E426)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hare-fern</v>
       </c>
       <c r="D426" t="s">
@@ -22337,7 +22337,7 @@
         <v>1607</v>
       </c>
       <c r="C427" s="1" t="str">
-        <f>HYPERLINK(E427)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hashish</v>
       </c>
       <c r="D427" t="s">
@@ -22364,7 +22364,7 @@
         <v>1612</v>
       </c>
       <c r="C428" s="1" t="str">
-        <f>HYPERLINK(E428)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hawaiian-ti</v>
       </c>
       <c r="D428" t="s">
@@ -22391,7 +22391,7 @@
         <v>1615</v>
       </c>
       <c r="C429" s="1" t="str">
-        <f>HYPERLINK(E429)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/haworthia</v>
       </c>
       <c r="D429" t="s">
@@ -22418,7 +22418,7 @@
         <v>1618</v>
       </c>
       <c r="C430" s="1" t="str">
-        <f>HYPERLINK(E430)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/haws</v>
       </c>
       <c r="D430" t="s">
@@ -22445,7 +22445,7 @@
         <v>1622</v>
       </c>
       <c r="C431" s="1" t="str">
-        <f>HYPERLINK(E431)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/haws-apple</v>
       </c>
       <c r="D431" t="s">
@@ -22472,7 +22472,7 @@
         <v>1625</v>
       </c>
       <c r="C432" s="1" t="str">
-        <f>HYPERLINK(E432)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hawthorn</v>
       </c>
       <c r="D432" t="s">
@@ -22499,7 +22499,7 @@
         <v>1628</v>
       </c>
       <c r="C433" s="1" t="str">
-        <f>HYPERLINK(E433)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/heartleaf-philodendron</v>
       </c>
       <c r="D433" t="s">
@@ -22526,7 +22526,7 @@
         <v>1632</v>
       </c>
       <c r="C434" s="1" t="str">
-        <f>HYPERLINK(E434)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/heavenly-bamboo</v>
       </c>
       <c r="D434" t="s">
@@ -22553,7 +22553,7 @@
         <v>1636</v>
       </c>
       <c r="C435" s="1" t="str">
-        <f>HYPERLINK(E435)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hedgehog-gourd</v>
       </c>
       <c r="D435" t="s">
@@ -22580,7 +22580,7 @@
         <v>1640</v>
       </c>
       <c r="C436" s="1" t="str">
-        <f>HYPERLINK(E436)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/heliotrope</v>
       </c>
       <c r="D436" t="s">
@@ -22607,7 +22607,7 @@
         <v>1643</v>
       </c>
       <c r="C437" s="1" t="str">
-        <f>HYPERLINK(E437)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hellebore</v>
       </c>
       <c r="D437" t="s">
@@ -22634,7 +22634,7 @@
         <v>1593</v>
       </c>
       <c r="C438" s="1" t="str">
-        <f>HYPERLINK(E438)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hellfetter</v>
       </c>
       <c r="D438" t="s">
@@ -22661,7 +22661,7 @@
         <v>1647</v>
       </c>
       <c r="C439" s="1" t="str">
-        <f>HYPERLINK(E439)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hemlock-tree</v>
       </c>
       <c r="D439" t="s">
@@ -22688,7 +22688,7 @@
         <v>1650</v>
       </c>
       <c r="C440" s="1" t="str">
-        <f>HYPERLINK(E440)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hen-and-chickens-fern</v>
       </c>
       <c r="D440" t="s">
@@ -22715,7 +22715,7 @@
         <v>1654</v>
       </c>
       <c r="C441" s="1" t="str">
-        <f>HYPERLINK(E441)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hens-and-chickens</v>
       </c>
       <c r="D441" t="s">
@@ -22742,7 +22742,7 @@
         <v>1657</v>
       </c>
       <c r="C442" s="1" t="str">
-        <f>HYPERLINK(E442)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hercules-club</v>
       </c>
       <c r="D442" t="s">
@@ -22769,7 +22769,7 @@
         <v>1680</v>
       </c>
       <c r="C443" s="1" t="str">
-        <f>HYPERLINK(E443)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hibiscus</v>
       </c>
       <c r="D443" t="s">
@@ -22796,7 +22796,7 @@
         <v>1660</v>
       </c>
       <c r="C444" s="1" t="str">
-        <f>HYPERLINK(E444)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hills-snow</v>
       </c>
       <c r="D444" t="s">
@@ -22823,7 +22823,7 @@
         <v>1665</v>
       </c>
       <c r="C445" s="1" t="str">
-        <f>HYPERLINK(E445)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hindu-rope-plant</v>
       </c>
       <c r="D445" t="s">
@@ -22850,7 +22850,7 @@
         <v>1668</v>
       </c>
       <c r="C446" s="1" t="str">
-        <f>HYPERLINK(E446)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hoary-alyssum</v>
       </c>
       <c r="D446" t="s">
@@ -22877,7 +22877,7 @@
         <v>1671</v>
       </c>
       <c r="C447" s="1" t="str">
-        <f>HYPERLINK(E447)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/holligold</v>
       </c>
       <c r="D447" t="s">
@@ -22904,7 +22904,7 @@
         <v>1674</v>
       </c>
       <c r="C448" s="1" t="str">
-        <f>HYPERLINK(E448)</f>
+        <f t="shared" si="6"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/holly</v>
       </c>
       <c r="D448" t="s">
@@ -22931,7 +22931,7 @@
         <v>1677</v>
       </c>
       <c r="C449" s="1" t="str">
-        <f>HYPERLINK(E449)</f>
+        <f t="shared" ref="C449:C512" si="7">HYPERLINK(E449)</f>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/holly-fern</v>
       </c>
       <c r="D449" t="s">
@@ -22958,7 +22958,7 @@
         <v>1685</v>
       </c>
       <c r="C450" s="1" t="str">
-        <f>HYPERLINK(E450)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hollyhock</v>
       </c>
       <c r="D450" t="s">
@@ -22985,7 +22985,7 @@
         <v>1688</v>
       </c>
       <c r="C451" s="1" t="str">
-        <f>HYPERLINK(E451)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/honey-locust</v>
       </c>
       <c r="D451" t="s">
@@ -23012,7 +23012,7 @@
         <v>1693</v>
       </c>
       <c r="C452" s="1" t="str">
-        <f>HYPERLINK(E452)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/honey-plant</v>
       </c>
       <c r="D452" t="s">
@@ -23039,7 +23039,7 @@
         <v>1691</v>
       </c>
       <c r="C453" s="1" t="str">
-        <f>HYPERLINK(E453)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/honeydew-melon</v>
       </c>
       <c r="D453" t="s">
@@ -23066,7 +23066,7 @@
         <v>1699</v>
       </c>
       <c r="C454" s="1" t="str">
-        <f>HYPERLINK(E454)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/honeysuckle-fuchsia</v>
       </c>
       <c r="D454" t="s">
@@ -23093,7 +23093,7 @@
         <v>434</v>
       </c>
       <c r="C455" s="1" t="str">
-        <f>HYPERLINK(E455)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hookera-pulchella</v>
       </c>
       <c r="D455" t="s">
@@ -23120,7 +23120,7 @@
         <v>1704</v>
       </c>
       <c r="C456" s="1" t="str">
-        <f>HYPERLINK(E456)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hops</v>
       </c>
       <c r="D456" t="s">
@@ -23147,7 +23147,7 @@
         <v>526</v>
       </c>
       <c r="C457" s="1" t="str">
-        <f>HYPERLINK(E457)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/horse-chestnut</v>
       </c>
       <c r="D457" t="s">
@@ -23174,7 +23174,7 @@
         <v>1708</v>
       </c>
       <c r="C458" s="1" t="str">
-        <f>HYPERLINK(E458)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/horsehead-philodendron</v>
       </c>
       <c r="D458" t="s">
@@ -23201,7 +23201,7 @@
         <v>1711</v>
       </c>
       <c r="C459" s="1" t="str">
-        <f>HYPERLINK(E459)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/horseweed</v>
       </c>
       <c r="D459" t="s">
@@ -23228,7 +23228,7 @@
         <v>1714</v>
       </c>
       <c r="C460" s="1" t="str">
-        <f>HYPERLINK(E460)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hortensia</v>
       </c>
       <c r="D460" t="s">
@@ -23255,7 +23255,7 @@
         <v>1717</v>
       </c>
       <c r="C461" s="1" t="str">
-        <f>HYPERLINK(E461)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hosta</v>
       </c>
       <c r="D461" t="s">
@@ -23282,7 +23282,7 @@
         <v>1721</v>
       </c>
       <c r="C462" s="1" t="str">
-        <f>HYPERLINK(E462)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hounds-tongue</v>
       </c>
       <c r="D462" t="s">
@@ -23309,7 +23309,7 @@
         <v>1724</v>
       </c>
       <c r="C463" s="1" t="str">
-        <f>HYPERLINK(E463)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hubbard-squash</v>
       </c>
       <c r="D463" t="s">
@@ -23336,7 +23336,7 @@
         <v>1727</v>
       </c>
       <c r="C464" s="1" t="str">
-        <f>HYPERLINK(E464)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hurricane-plant</v>
       </c>
       <c r="D464" t="s">
@@ -23363,7 +23363,7 @@
         <v>1439</v>
       </c>
       <c r="C465" s="1" t="str">
-        <f>HYPERLINK(E465)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hyacinth</v>
       </c>
       <c r="D465" t="s">
@@ -23390,7 +23390,7 @@
         <v>1731</v>
       </c>
       <c r="C466" s="1" t="str">
-        <f>HYPERLINK(E466)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hydrangea</v>
       </c>
       <c r="D466" t="s">
@@ -23417,7 +23417,7 @@
         <v>1737</v>
       </c>
       <c r="C467" s="1" t="str">
-        <f>HYPERLINK(E467)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/hypocyrta</v>
       </c>
       <c r="D467" t="s">
@@ -23444,7 +23444,7 @@
         <v>1734</v>
       </c>
       <c r="C468" s="1" t="str">
-        <f>HYPERLINK(E468)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ice-plant</v>
       </c>
       <c r="D468" t="s">
@@ -23471,7 +23471,7 @@
         <v>1740</v>
       </c>
       <c r="C469" s="1" t="str">
-        <f>HYPERLINK(E469)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/impala-lily</v>
       </c>
       <c r="D469" t="s">
@@ -23498,7 +23498,7 @@
         <v>1743</v>
       </c>
       <c r="C470" s="1" t="str">
-        <f>HYPERLINK(E470)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/impatience-plant</v>
       </c>
       <c r="D470" t="s">
@@ -23525,7 +23525,7 @@
         <v>1746</v>
       </c>
       <c r="C471" s="1" t="str">
-        <f>HYPERLINK(E471)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/inch-plant</v>
       </c>
       <c r="D471" t="s">
@@ -23552,7 +23552,7 @@
         <v>1750</v>
       </c>
       <c r="C472" s="1" t="str">
-        <f>HYPERLINK(E472)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/indian-apple</v>
       </c>
       <c r="D472" t="s">
@@ -23579,7 +23579,7 @@
         <v>1753</v>
       </c>
       <c r="C473" s="1" t="str">
-        <f>HYPERLINK(E473)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/indian-borage</v>
       </c>
       <c r="D473" t="s">
@@ -23606,7 +23606,7 @@
         <v>1756</v>
       </c>
       <c r="C474" s="1" t="str">
-        <f>HYPERLINK(E474)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/indian-hemp</v>
       </c>
       <c r="D474" t="s">
@@ -23633,7 +23633,7 @@
         <v>1756</v>
       </c>
       <c r="C475" s="1" t="str">
-        <f>HYPERLINK(E475)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/indian-hemp-0</v>
       </c>
       <c r="D475" t="s">
@@ -23660,7 +23660,7 @@
         <v>1759</v>
       </c>
       <c r="C476" s="1" t="str">
-        <f>HYPERLINK(E476)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/indian-pink</v>
       </c>
       <c r="D476" t="s">
@@ -23687,7 +23687,7 @@
         <v>1762</v>
       </c>
       <c r="C477" s="1" t="str">
-        <f>HYPERLINK(E477)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/indian-rubber-plant</v>
       </c>
       <c r="D477" t="s">
@@ -23714,7 +23714,7 @@
         <v>1765</v>
       </c>
       <c r="C478" s="1" t="str">
-        <f>HYPERLINK(E478)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/inkberry</v>
       </c>
       <c r="D478" t="s">
@@ -23741,7 +23741,7 @@
         <v>1768</v>
       </c>
       <c r="C479" s="1" t="str">
-        <f>HYPERLINK(E479)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/iris</v>
       </c>
       <c r="D479" t="s">
@@ -23768,7 +23768,7 @@
         <v>1771</v>
       </c>
       <c r="C480" s="1" t="str">
-        <f>HYPERLINK(E480)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/irish-moss</v>
       </c>
       <c r="D480" t="s">
@@ -23795,7 +23795,7 @@
         <v>1776</v>
       </c>
       <c r="C481" s="1" t="str">
-        <f>HYPERLINK(E481)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/iron-cross-begonia</v>
       </c>
       <c r="D481" t="s">
@@ -23822,7 +23822,7 @@
         <v>1779</v>
       </c>
       <c r="C482" s="1" t="str">
-        <f>HYPERLINK(E482)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/iron-tree</v>
       </c>
       <c r="D482" t="s">
@@ -23849,7 +23849,7 @@
         <v>1782</v>
       </c>
       <c r="C483" s="1" t="str">
-        <f>HYPERLINK(E483)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ivy-arum</v>
       </c>
       <c r="D483" t="s">
@@ -23876,7 +23876,7 @@
         <v>1785</v>
       </c>
       <c r="C484" s="1" t="str">
-        <f>HYPERLINK(E484)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ivy-peperomia</v>
       </c>
       <c r="D484" t="s">
@@ -23903,7 +23903,7 @@
         <v>1789</v>
       </c>
       <c r="C485" s="1" t="str">
-        <f>HYPERLINK(E485)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/jack-pulpit</v>
       </c>
       <c r="D485" t="s">
@@ -23930,7 +23930,7 @@
         <v>1793</v>
       </c>
       <c r="C486" s="1" t="str">
-        <f>HYPERLINK(E486)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/jackson-brier</v>
       </c>
       <c r="D486" t="s">
@@ -23957,7 +23957,7 @@
         <v>702</v>
       </c>
       <c r="C487" s="1" t="str">
-        <f>HYPERLINK(E487)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/jacobs-ladder</v>
       </c>
       <c r="D487" t="s">
@@ -23984,7 +23984,7 @@
         <v>1797</v>
       </c>
       <c r="C488" s="1" t="str">
-        <f>HYPERLINK(E488)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/jade-plant</v>
       </c>
       <c r="D488" t="s">
@@ -24011,7 +24011,7 @@
         <v>1801</v>
       </c>
       <c r="C489" s="1" t="str">
-        <f>HYPERLINK(E489)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/japanese-aralia</v>
       </c>
       <c r="D489" t="s">
@@ -24038,7 +24038,7 @@
         <v>1803</v>
       </c>
       <c r="C490" s="1" t="str">
-        <f>HYPERLINK(E490)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/japanese-holly-fern</v>
       </c>
       <c r="D490" t="s">
@@ -24065,7 +24065,7 @@
         <v>1806</v>
       </c>
       <c r="C491" s="1" t="str">
-        <f>HYPERLINK(E491)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/japanese-moss</v>
       </c>
       <c r="D491" t="s">
@@ -24092,7 +24092,7 @@
         <v>1809</v>
       </c>
       <c r="C492" s="1" t="str">
-        <f>HYPERLINK(E492)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/japanese-pittosporum</v>
       </c>
       <c r="D492" t="s">
@@ -24119,7 +24119,7 @@
         <v>1814</v>
       </c>
       <c r="C493" s="1" t="str">
-        <f>HYPERLINK(E493)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/japanese-show-lily</v>
       </c>
       <c r="D493" t="s">
@@ -24146,7 +24146,7 @@
         <v>1817</v>
       </c>
       <c r="C494" s="1" t="str">
-        <f>HYPERLINK(E494)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/japanese-yew</v>
       </c>
       <c r="D494" t="s">
@@ -24173,7 +24173,7 @@
         <v>1821</v>
       </c>
       <c r="C495" s="1" t="str">
-        <f>HYPERLINK(E495)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/jasmine</v>
       </c>
       <c r="D495" t="s">
@@ -24200,7 +24200,7 @@
         <v>1824</v>
       </c>
       <c r="C496" s="1" t="str">
-        <f>HYPERLINK(E496)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/jerusalem-cherry</v>
       </c>
       <c r="D496" t="s">
@@ -24227,7 +24227,7 @@
         <v>1828</v>
       </c>
       <c r="C497" s="1" t="str">
-        <f>HYPERLINK(E497)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/jerusalem-oak</v>
       </c>
       <c r="D497" t="s">
@@ -24254,7 +24254,7 @@
         <v>1538</v>
       </c>
       <c r="C498" s="1" t="str">
-        <f>HYPERLINK(E498)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/jewel-orchid</v>
       </c>
       <c r="D498" t="s">
@@ -24281,7 +24281,7 @@
         <v>1832</v>
       </c>
       <c r="C499" s="1" t="str">
-        <f>HYPERLINK(E499)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/jimmy-weed</v>
       </c>
       <c r="D499" t="s">
@@ -24308,7 +24308,7 @@
         <v>1836</v>
       </c>
       <c r="C500" s="1" t="str">
-        <f>HYPERLINK(E500)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/jonquil</v>
       </c>
       <c r="D500" t="s">
@@ -24335,7 +24335,7 @@
         <v>1840</v>
       </c>
       <c r="C501" s="1" t="str">
-        <f>HYPERLINK(E501)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/josephs-coat</v>
       </c>
       <c r="D501" t="s">
@@ -24362,7 +24362,7 @@
         <v>1861</v>
       </c>
       <c r="C502" s="1" t="str">
-        <f>HYPERLINK(E502)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/jungle-geranium</v>
       </c>
       <c r="D502" t="s">
@@ -24389,7 +24389,7 @@
         <v>1843</v>
       </c>
       <c r="C503" s="1" t="str">
-        <f>HYPERLINK(E503)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/kaempferia</v>
       </c>
       <c r="D503" t="s">
@@ -24416,7 +24416,7 @@
         <v>1847</v>
       </c>
       <c r="C504" s="1" t="str">
-        <f>HYPERLINK(E504)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/kaffir-lily</v>
       </c>
       <c r="D504" t="s">
@@ -24443,7 +24443,7 @@
         <v>1850</v>
       </c>
       <c r="C505" s="1" t="str">
-        <f>HYPERLINK(E505)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/kahali-ginger</v>
       </c>
       <c r="D505" t="s">
@@ -24470,7 +24470,7 @@
         <v>1853</v>
       </c>
       <c r="C506" s="1" t="str">
-        <f>HYPERLINK(E506)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/kalanchoe</v>
       </c>
       <c r="D506" t="s">
@@ -24497,7 +24497,7 @@
         <v>1857</v>
       </c>
       <c r="C507" s="1" t="str">
-        <f>HYPERLINK(E507)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/kenilworth-ivy</v>
       </c>
       <c r="D507" t="s">
@@ -24524,7 +24524,7 @@
         <v>1872</v>
       </c>
       <c r="C508" s="1" t="str">
-        <f>HYPERLINK(E508)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/kentia-palm</v>
       </c>
       <c r="D508" t="s">
@@ -24551,7 +24551,7 @@
         <v>1864</v>
       </c>
       <c r="C509" s="1" t="str">
-        <f>HYPERLINK(E509)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/kenya-violet</v>
       </c>
       <c r="D509" t="s">
@@ -24578,7 +24578,7 @@
         <v>1869</v>
       </c>
       <c r="C510" s="1" t="str">
-        <f>HYPERLINK(E510)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/kharoub</v>
       </c>
       <c r="D510" t="s">
@@ -24605,7 +24605,7 @@
         <v>1875</v>
       </c>
       <c r="C511" s="1" t="str">
-        <f>HYPERLINK(E511)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/king-and-queen-fern</v>
       </c>
       <c r="D511" t="s">
@@ -24632,7 +24632,7 @@
         <v>1878</v>
       </c>
       <c r="C512" s="1" t="str">
-        <f>HYPERLINK(E512)</f>
+        <f t="shared" si="7"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/king-nut</v>
       </c>
       <c r="D512" t="s">
@@ -24659,7 +24659,7 @@
         <v>1880</v>
       </c>
       <c r="C513" s="1" t="str">
-        <f>HYPERLINK(E513)</f>
+        <f t="shared" ref="C513:C576" si="8">HYPERLINK(E513)</f>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/king-forest</v>
       </c>
       <c r="D513" t="s">
@@ -24686,7 +24686,7 @@
         <v>1884</v>
       </c>
       <c r="C514" s="1" t="str">
-        <f>HYPERLINK(E514)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/kiss-me-quick</v>
       </c>
       <c r="D514" t="s">
@@ -24713,7 +24713,7 @@
         <v>1887</v>
       </c>
       <c r="C515" s="1" t="str">
-        <f>HYPERLINK(E515)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/klamath-weed</v>
       </c>
       <c r="D515" t="s">
@@ -24740,7 +24740,7 @@
         <v>1910</v>
       </c>
       <c r="C516" s="1" t="str">
-        <f>HYPERLINK(E516)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/kuang-yen-pa-hsieh</v>
       </c>
       <c r="D516" t="s">
@@ -24767,7 +24767,7 @@
         <v>1890</v>
       </c>
       <c r="C517" s="1" t="str">
-        <f>HYPERLINK(E517)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/kudu-lily</v>
       </c>
       <c r="D517" t="s">
@@ -24794,7 +24794,7 @@
         <v>1893</v>
       </c>
       <c r="C518" s="1" t="str">
-        <f>HYPERLINK(E518)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lace-fern</v>
       </c>
       <c r="D518" t="s">
@@ -24821,7 +24821,7 @@
         <v>1896</v>
       </c>
       <c r="C519" s="1" t="str">
-        <f>HYPERLINK(E519)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lace-flower-vine</v>
       </c>
       <c r="D519" t="s">
@@ -24848,7 +24848,7 @@
         <v>1898</v>
       </c>
       <c r="C520" s="1" t="str">
-        <f>HYPERLINK(E520)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lace-orchid</v>
       </c>
       <c r="D520" t="s">
@@ -24875,7 +24875,7 @@
         <v>1901</v>
       </c>
       <c r="C521" s="1" t="str">
-        <f>HYPERLINK(E521)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lacy-tree-philodendron</v>
       </c>
       <c r="D521" t="s">
@@ -24902,7 +24902,7 @@
         <v>1904</v>
       </c>
       <c r="C522" s="1" t="str">
-        <f>HYPERLINK(E522)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ladies-ear-drops</v>
       </c>
       <c r="D522" t="s">
@@ -24929,7 +24929,7 @@
         <v>1907</v>
       </c>
       <c r="C523" s="1" t="str">
-        <f>HYPERLINK(E523)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lady-lou</v>
       </c>
       <c r="D523" t="s">
@@ -24956,7 +24956,7 @@
         <v>1301</v>
       </c>
       <c r="C524" s="1" t="str">
-        <f>HYPERLINK(E524)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lady-palm</v>
       </c>
       <c r="D524" t="s">
@@ -24983,7 +24983,7 @@
         <v>1913</v>
       </c>
       <c r="C525" s="1" t="str">
-        <f>HYPERLINK(E525)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lady-slipper</v>
       </c>
       <c r="D525" t="s">
@@ -25010,7 +25010,7 @@
         <v>1918</v>
       </c>
       <c r="C526" s="1" t="str">
-        <f>HYPERLINK(E526)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lady-night</v>
       </c>
       <c r="D526" t="s">
@@ -25037,7 +25037,7 @@
         <v>1921</v>
       </c>
       <c r="C527" s="1" t="str">
-        <f>HYPERLINK(E527)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lagerstroemia-indica</v>
       </c>
       <c r="D527" t="s">
@@ -25064,7 +25064,7 @@
         <v>1924</v>
       </c>
       <c r="C528" s="1" t="str">
-        <f>HYPERLINK(E528)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lambkill</v>
       </c>
       <c r="D528" t="s">
@@ -25091,7 +25091,7 @@
         <v>1928</v>
       </c>
       <c r="C529" s="1" t="str">
-        <f>HYPERLINK(E529)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lance-pleomele</v>
       </c>
       <c r="D529" t="s">
@@ -25118,7 +25118,7 @@
         <v>1931</v>
       </c>
       <c r="C530" s="1" t="str">
-        <f>HYPERLINK(E530)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lantana</v>
       </c>
       <c r="D530" t="s">
@@ -25145,7 +25145,7 @@
         <v>1936</v>
       </c>
       <c r="C531" s="1" t="str">
-        <f>HYPERLINK(E531)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/larkspur</v>
       </c>
       <c r="D531" t="s">
@@ -25172,7 +25172,7 @@
         <v>1939</v>
       </c>
       <c r="C532" s="1" t="str">
-        <f>HYPERLINK(E532)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/laurel</v>
       </c>
       <c r="D532" t="s">
@@ -25199,7 +25199,7 @@
         <v>1970</v>
       </c>
       <c r="C533" s="1" t="str">
-        <f>HYPERLINK(E533)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/laurel-leaved-greenbrier</v>
       </c>
       <c r="D533" t="s">
@@ -25226,7 +25226,7 @@
         <v>1943</v>
       </c>
       <c r="C534" s="1" t="str">
-        <f>HYPERLINK(E534)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lavender</v>
       </c>
       <c r="D534" t="s">
@@ -25253,7 +25253,7 @@
         <v>1947</v>
       </c>
       <c r="C535" s="1" t="str">
-        <f>HYPERLINK(E535)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/leather-peperomia</v>
       </c>
       <c r="D535" t="s">
@@ -25280,7 +25280,7 @@
         <v>1950</v>
       </c>
       <c r="C536" s="1" t="str">
-        <f>HYPERLINK(E536)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/leatherflower</v>
       </c>
       <c r="D536" t="s">
@@ -25307,7 +25307,7 @@
         <v>1954</v>
       </c>
       <c r="C537" s="1" t="str">
-        <f>HYPERLINK(E537)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/leek</v>
       </c>
       <c r="D537" t="s">
@@ -25334,7 +25334,7 @@
         <v>1958</v>
       </c>
       <c r="C538" s="1" t="str">
-        <f>HYPERLINK(E538)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lemon</v>
       </c>
       <c r="D538" t="s">
@@ -25361,7 +25361,7 @@
         <v>1961</v>
       </c>
       <c r="C539" s="1" t="str">
-        <f>HYPERLINK(E539)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lemon-balm</v>
       </c>
       <c r="D539" t="s">
@@ -25388,7 +25388,7 @@
         <v>1965</v>
       </c>
       <c r="C540" s="1" t="str">
-        <f>HYPERLINK(E540)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lemon-grass</v>
       </c>
       <c r="D540" t="s">
@@ -25415,7 +25415,7 @@
         <v>1973</v>
       </c>
       <c r="C541" s="1" t="str">
-        <f>HYPERLINK(E541)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lemon-verbena</v>
       </c>
       <c r="D541" t="s">
@@ -25442,7 +25442,7 @@
         <v>1977</v>
       </c>
       <c r="C542" s="1" t="str">
-        <f>HYPERLINK(E542)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lenten-rose</v>
       </c>
       <c r="D542" t="s">
@@ -25469,7 +25469,7 @@
         <v>1980</v>
       </c>
       <c r="C543" s="1" t="str">
-        <f>HYPERLINK(E543)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/leopard-lily</v>
       </c>
       <c r="D543" t="s">
@@ -25496,7 +25496,7 @@
         <v>1984</v>
       </c>
       <c r="C544" s="1" t="str">
-        <f>HYPERLINK(E544)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/leopard-orchid</v>
       </c>
       <c r="D544" t="s">
@@ -25523,7 +25523,7 @@
         <v>1988</v>
       </c>
       <c r="C545" s="1" t="str">
-        <f>HYPERLINK(E545)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lesser-snapdragon</v>
       </c>
       <c r="D545" t="s">
@@ -25550,7 +25550,7 @@
         <v>1991</v>
       </c>
       <c r="C546" s="1" t="str">
-        <f>HYPERLINK(E546)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lily</v>
       </c>
       <c r="D546" t="s">
@@ -25577,7 +25577,7 @@
         <v>1994</v>
       </c>
       <c r="C547" s="1" t="str">
-        <f>HYPERLINK(E547)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lily-palace</v>
       </c>
       <c r="D547" t="s">
@@ -25604,7 +25604,7 @@
         <v>1997</v>
       </c>
       <c r="C548" s="1" t="str">
-        <f>HYPERLINK(E548)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lily-valley</v>
       </c>
       <c r="D548" t="s">
@@ -25631,7 +25631,7 @@
         <v>2000</v>
       </c>
       <c r="C549" s="1" t="str">
-        <f>HYPERLINK(E549)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lily-valley-orchid</v>
       </c>
       <c r="D549" t="s">
@@ -25658,7 +25658,7 @@
         <v>2003</v>
       </c>
       <c r="C550" s="1" t="str">
-        <f>HYPERLINK(E550)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lily-valley-bush</v>
       </c>
       <c r="D550" t="s">
@@ -25685,7 +25685,7 @@
         <v>2006</v>
       </c>
       <c r="C551" s="1" t="str">
-        <f>HYPERLINK(E551)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lime</v>
       </c>
       <c r="D551" t="s">
@@ -25712,7 +25712,7 @@
         <v>2009</v>
       </c>
       <c r="C552" s="1" t="str">
-        <f>HYPERLINK(E552)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/linden</v>
       </c>
       <c r="D552" t="s">
@@ -25739,7 +25739,7 @@
         <v>2013</v>
       </c>
       <c r="C553" s="1" t="str">
-        <f>HYPERLINK(E553)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lipstick-plant</v>
       </c>
       <c r="D553" t="s">
@@ -25766,7 +25766,7 @@
         <v>2016</v>
       </c>
       <c r="C554" s="1" t="str">
-        <f>HYPERLINK(E554)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/little-fantasy-peperomia</v>
       </c>
       <c r="D554" t="s">
@@ -25793,7 +25793,7 @@
         <v>2019</v>
       </c>
       <c r="C555" s="1" t="str">
-        <f>HYPERLINK(E555)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/little-zebra-plant</v>
       </c>
       <c r="D555" t="s">
@@ -25820,7 +25820,7 @@
         <v>2022</v>
       </c>
       <c r="C556" s="1" t="str">
-        <f>HYPERLINK(E556)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/living-rock-cactus</v>
       </c>
       <c r="D556" t="s">
@@ -25847,7 +25847,7 @@
         <v>2026</v>
       </c>
       <c r="C557" s="1" t="str">
-        <f>HYPERLINK(E557)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/living-stones</v>
       </c>
       <c r="D557" t="s">
@@ -25874,7 +25874,7 @@
         <v>2029</v>
       </c>
       <c r="C558" s="1" t="str">
-        <f>HYPERLINK(E558)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lobelia</v>
       </c>
       <c r="D558" t="s">
@@ -25901,7 +25901,7 @@
         <v>2032</v>
       </c>
       <c r="C559" s="1" t="str">
-        <f>HYPERLINK(E559)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/loco-weed-astragalus-spp</v>
       </c>
       <c r="D559" t="s">
@@ -25928,7 +25928,7 @@
         <v>2036</v>
       </c>
       <c r="C560" s="1" t="str">
-        <f>HYPERLINK(E560)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/loco-weed-oxytropis-spp</v>
       </c>
       <c r="D560" t="s">
@@ -25955,7 +25955,7 @@
         <v>2039</v>
       </c>
       <c r="C561" s="1" t="str">
-        <f>HYPERLINK(E561)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/locust</v>
       </c>
       <c r="D561" t="s">
@@ -25982,7 +25982,7 @@
         <v>2042</v>
       </c>
       <c r="C562" s="1" t="str">
-        <f>HYPERLINK(E562)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/locust-pods</v>
       </c>
       <c r="D562" t="s">
@@ -26009,7 +26009,7 @@
         <v>2045</v>
       </c>
       <c r="C563" s="1" t="str">
-        <f>HYPERLINK(E563)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lord-and-ladies</v>
       </c>
       <c r="D563" t="s">
@@ -26036,7 +26036,7 @@
         <v>2048</v>
       </c>
       <c r="C564" s="1" t="str">
-        <f>HYPERLINK(E564)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/lovage</v>
       </c>
       <c r="D564" t="s">
@@ -26063,7 +26063,7 @@
         <v>2052</v>
       </c>
       <c r="C565" s="1" t="str">
-        <f>HYPERLINK(E565)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/macadamia-nut</v>
       </c>
       <c r="D565" t="s">
@@ -26090,7 +26090,7 @@
         <v>2055</v>
       </c>
       <c r="C566" s="1" t="str">
-        <f>HYPERLINK(E566)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/madagascar-dragon-tree</v>
       </c>
       <c r="D566" t="s">
@@ -26117,7 +26117,7 @@
         <v>2058</v>
       </c>
       <c r="C567" s="1" t="str">
-        <f>HYPERLINK(E567)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/madagascar-jasmine</v>
       </c>
       <c r="D567" t="s">
@@ -26144,7 +26144,7 @@
         <v>2063</v>
       </c>
       <c r="C568" s="1" t="str">
-        <f>HYPERLINK(E568)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/magnolia-bush</v>
       </c>
       <c r="D568" t="s">
@@ -26171,7 +26171,7 @@
         <v>2068</v>
       </c>
       <c r="C569" s="1" t="str">
-        <f>HYPERLINK(E569)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mahonia</v>
       </c>
       <c r="D569" t="s">
@@ -26198,7 +26198,7 @@
         <v>223</v>
       </c>
       <c r="C570" s="1" t="str">
-        <f>HYPERLINK(E570)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/maidens-breath</v>
       </c>
       <c r="D570" t="s">
@@ -26225,7 +26225,7 @@
         <v>2072</v>
       </c>
       <c r="C571" s="1" t="str">
-        <f>HYPERLINK(E571)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/majesty-palm</v>
       </c>
       <c r="D571" t="s">
@@ -26252,7 +26252,7 @@
         <v>1350</v>
       </c>
       <c r="C572" s="1" t="str">
-        <f>HYPERLINK(E572)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/malabar-gourd</v>
       </c>
       <c r="D572" t="s">
@@ -26279,7 +26279,7 @@
         <v>2079</v>
       </c>
       <c r="C573" s="1" t="str">
-        <f>HYPERLINK(E573)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/malanga</v>
       </c>
       <c r="D573" t="s">
@@ -26306,7 +26306,7 @@
         <v>2082</v>
       </c>
       <c r="C574" s="1" t="str">
-        <f>HYPERLINK(E574)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/malaysian-dracaena</v>
       </c>
       <c r="D574" t="s">
@@ -26333,7 +26333,7 @@
         <v>2086</v>
       </c>
       <c r="C575" s="1" t="str">
-        <f>HYPERLINK(E575)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/maleberry</v>
       </c>
       <c r="D575" t="s">
@@ -26360,7 +26360,7 @@
         <v>2090</v>
       </c>
       <c r="C576" s="1" t="str">
-        <f>HYPERLINK(E576)</f>
+        <f t="shared" si="8"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/manila-palm</v>
       </c>
       <c r="D576" t="s">
@@ -26387,7 +26387,7 @@
         <v>2093</v>
       </c>
       <c r="C577" s="1" t="str">
-        <f>HYPERLINK(E577)</f>
+        <f t="shared" ref="C577:C640" si="9">HYPERLINK(E577)</f>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mapleleaf-begonia</v>
       </c>
       <c r="D577" t="s">
@@ -26414,7 +26414,7 @@
         <v>2096</v>
       </c>
       <c r="C578" s="1" t="str">
-        <f>HYPERLINK(E578)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/maranta</v>
       </c>
       <c r="D578" t="s">
@@ -26441,7 +26441,7 @@
         <v>2098</v>
       </c>
       <c r="C579" s="1" t="str">
-        <f>HYPERLINK(E579)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/marble-queen</v>
       </c>
       <c r="D579" t="s">
@@ -26468,7 +26468,7 @@
         <v>2101</v>
       </c>
       <c r="C580" s="1" t="str">
-        <f>HYPERLINK(E580)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/marbled-fingernail</v>
       </c>
       <c r="D580" t="s">
@@ -26495,7 +26495,7 @@
         <v>2103</v>
       </c>
       <c r="C581" s="1" t="str">
-        <f>HYPERLINK(E581)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/marijuana</v>
       </c>
       <c r="D581" t="s">
@@ -26522,7 +26522,7 @@
         <v>2106</v>
       </c>
       <c r="C582" s="1" t="str">
-        <f>HYPERLINK(E582)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mariposa-lily</v>
       </c>
       <c r="D582" t="s">
@@ -26549,7 +26549,7 @@
         <v>2110</v>
       </c>
       <c r="C583" s="1" t="str">
-        <f>HYPERLINK(E583)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/marjoram</v>
       </c>
       <c r="D583" t="s">
@@ -26576,7 +26576,7 @@
         <v>2114</v>
       </c>
       <c r="C584" s="1" t="str">
-        <f>HYPERLINK(E584)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/maroon</v>
       </c>
       <c r="D584" t="s">
@@ -26603,7 +26603,7 @@
         <v>2116</v>
       </c>
       <c r="C585" s="1" t="str">
-        <f>HYPERLINK(E585)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/maroon-chenille-plant</v>
       </c>
       <c r="D585" t="s">
@@ -26630,7 +26630,7 @@
         <v>2120</v>
       </c>
       <c r="C586" s="1" t="str">
-        <f>HYPERLINK(E586)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mary-bud</v>
       </c>
       <c r="D586" t="s">
@@ -26657,7 +26657,7 @@
         <v>2123</v>
       </c>
       <c r="C587" s="1" t="str">
-        <f>HYPERLINK(E587)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mauna-loa-peace-lily</v>
       </c>
       <c r="D587" t="s">
@@ -26684,7 +26684,7 @@
         <v>2127</v>
       </c>
       <c r="C588" s="1" t="str">
-        <f>HYPERLINK(E588)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mayapple</v>
       </c>
       <c r="D588" t="s">
@@ -26711,7 +26711,7 @@
         <v>2130</v>
       </c>
       <c r="C589" s="1" t="str">
-        <f>HYPERLINK(E589)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mayweed</v>
       </c>
       <c r="D589" t="s">
@@ -26738,7 +26738,7 @@
         <v>198</v>
       </c>
       <c r="C590" s="1" t="str">
-        <f>HYPERLINK(E590)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/meadow-saffron</v>
       </c>
       <c r="D590" t="s">
@@ -26765,7 +26765,7 @@
         <v>2138</v>
       </c>
       <c r="C591" s="1" t="str">
-        <f>HYPERLINK(E591)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/measles-plant</v>
       </c>
       <c r="D591" t="s">
@@ -26792,7 +26792,7 @@
         <v>2135</v>
       </c>
       <c r="C592" s="1" t="str">
-        <f>HYPERLINK(E592)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/medicine-plant</v>
       </c>
       <c r="D592" t="s">
@@ -26819,7 +26819,7 @@
         <v>2142</v>
       </c>
       <c r="C593" s="1" t="str">
-        <f>HYPERLINK(E593)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/metallic-leaf-begonia</v>
       </c>
       <c r="D593" t="s">
@@ -26846,7 +26846,7 @@
         <v>2145</v>
       </c>
       <c r="C594" s="1" t="str">
-        <f>HYPERLINK(E594)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/metallic-peperomia</v>
       </c>
       <c r="D594" t="s">
@@ -26873,7 +26873,7 @@
         <v>2147</v>
       </c>
       <c r="C595" s="1" t="str">
-        <f>HYPERLINK(E595)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mexican-breadfruit</v>
       </c>
       <c r="D595" t="s">
@@ -26900,7 +26900,7 @@
         <v>2150</v>
       </c>
       <c r="C596" s="1" t="str">
-        <f>HYPERLINK(E596)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mexican-firecracker</v>
       </c>
       <c r="D596" t="s">
@@ -26927,7 +26927,7 @@
         <v>2153</v>
       </c>
       <c r="C597" s="1" t="str">
-        <f>HYPERLINK(E597)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mexican-rosettes</v>
       </c>
       <c r="D597" t="s">
@@ -26954,7 +26954,7 @@
         <v>2156</v>
       </c>
       <c r="C598" s="1" t="str">
-        <f>HYPERLINK(E598)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mexican-snowballs</v>
       </c>
       <c r="D598" t="s">
@@ -26981,7 +26981,7 @@
         <v>2158</v>
       </c>
       <c r="C599" s="1" t="str">
-        <f>HYPERLINK(E599)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/milfoil</v>
       </c>
       <c r="D599" t="s">
@@ -27008,7 +27008,7 @@
         <v>2161</v>
       </c>
       <c r="C600" s="1" t="str">
-        <f>HYPERLINK(E600)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/milkweed</v>
       </c>
       <c r="D600" t="s">
@@ -27035,7 +27035,7 @@
         <v>2164</v>
       </c>
       <c r="C601" s="1" t="str">
-        <f>HYPERLINK(E601)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/miniature-date-palm</v>
       </c>
       <c r="D601" t="s">
@@ -27062,7 +27062,7 @@
         <v>2168</v>
       </c>
       <c r="C602" s="1" t="str">
-        <f>HYPERLINK(E602)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/miniature-fish-tail</v>
       </c>
       <c r="D602" t="s">
@@ -27089,7 +27089,7 @@
         <v>2171</v>
       </c>
       <c r="C603" s="1" t="str">
-        <f>HYPERLINK(E603)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/miniature-maranta</v>
       </c>
       <c r="D603" t="s">
@@ -27116,7 +27116,7 @@
         <v>2174</v>
       </c>
       <c r="C604" s="1" t="str">
-        <f>HYPERLINK(E604)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/miniature-marble-plant</v>
       </c>
       <c r="D604" t="s">
@@ -27143,7 +27143,7 @@
         <v>2176</v>
       </c>
       <c r="C605" s="1" t="str">
-        <f>HYPERLINK(E605)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mint</v>
       </c>
       <c r="D605" t="s">
@@ -27170,7 +27170,7 @@
         <v>2180</v>
       </c>
       <c r="C606" s="1" t="str">
-        <f>HYPERLINK(E606)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mistletoe-american</v>
       </c>
       <c r="D606" t="s">
@@ -27197,7 +27197,7 @@
         <v>2185</v>
       </c>
       <c r="C607" s="1" t="str">
-        <f>HYPERLINK(E607)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mistletoe-cactus</v>
       </c>
       <c r="D607" t="s">
@@ -27224,7 +27224,7 @@
         <v>2188</v>
       </c>
       <c r="C608" s="1" t="str">
-        <f>HYPERLINK(E608)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mock-azalea</v>
       </c>
       <c r="D608" t="s">
@@ -27251,7 +27251,7 @@
         <v>2191</v>
       </c>
       <c r="C609" s="1" t="str">
-        <f>HYPERLINK(E609)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mockernut-hickory</v>
       </c>
       <c r="D609" t="s">
@@ -27278,7 +27278,7 @@
         <v>2195</v>
       </c>
       <c r="C610" s="1" t="str">
-        <f>HYPERLINK(E610)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mole-bean-plant</v>
       </c>
       <c r="D610" t="s">
@@ -27305,7 +27305,7 @@
         <v>2198</v>
       </c>
       <c r="C611" s="1" t="str">
-        <f>HYPERLINK(E611)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/money-tree</v>
       </c>
       <c r="D611" t="s">
@@ -27332,7 +27332,7 @@
         <v>2202</v>
       </c>
       <c r="C612" s="1" t="str">
-        <f>HYPERLINK(E612)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/morning-glory</v>
       </c>
       <c r="D612" t="s">
@@ -27359,7 +27359,7 @@
         <v>2206</v>
       </c>
       <c r="C613" s="1" t="str">
-        <f>HYPERLINK(E613)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/morning-noon-and-night</v>
       </c>
       <c r="D613" t="s">
@@ -27386,7 +27386,7 @@
         <v>2208</v>
       </c>
       <c r="C614" s="1" t="str">
-        <f>HYPERLINK(E614)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mosaic-plant</v>
       </c>
       <c r="D614" t="s">
@@ -27413,7 +27413,7 @@
         <v>2213</v>
       </c>
       <c r="C615" s="1" t="str">
-        <f>HYPERLINK(E615)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mosaic-vase</v>
       </c>
       <c r="D615" t="s">
@@ -27440,7 +27440,7 @@
         <v>2216</v>
       </c>
       <c r="C616" s="1" t="str">
-        <f>HYPERLINK(E616)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/moss-agate</v>
       </c>
       <c r="D616" t="s">
@@ -27467,7 +27467,7 @@
         <v>2219</v>
       </c>
       <c r="C617" s="1" t="str">
-        <f>HYPERLINK(E617)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/moss-campion</v>
       </c>
       <c r="D617" t="s">
@@ -27494,7 +27494,7 @@
         <v>2223</v>
       </c>
       <c r="C618" s="1" t="str">
-        <f>HYPERLINK(E618)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/moss-fern</v>
       </c>
       <c r="D618" t="s">
@@ -27521,7 +27521,7 @@
         <v>2226</v>
       </c>
       <c r="C619" s="1" t="str">
-        <f>HYPERLINK(E619)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/moss-phlox</v>
       </c>
       <c r="D619" t="s">
@@ -27548,7 +27548,7 @@
         <v>2230</v>
       </c>
       <c r="C620" s="1" t="str">
-        <f>HYPERLINK(E620)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/moss-rose</v>
       </c>
       <c r="D620" t="s">
@@ -27575,7 +27575,7 @@
         <v>2235</v>
       </c>
       <c r="C621" s="1" t="str">
-        <f>HYPERLINK(E621)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mossy-campion</v>
       </c>
       <c r="D621" t="s">
@@ -27602,7 +27602,7 @@
         <v>2238</v>
       </c>
       <c r="C622" s="1" t="str">
-        <f>HYPERLINK(E622)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mother-fern</v>
       </c>
       <c r="D622" t="s">
@@ -27629,7 +27629,7 @@
         <v>2241</v>
       </c>
       <c r="C623" s="1" t="str">
-        <f>HYPERLINK(E623)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mother-millions</v>
       </c>
       <c r="D623" t="s">
@@ -27656,7 +27656,7 @@
         <v>1469</v>
       </c>
       <c r="C624" s="1" t="str">
-        <f>HYPERLINK(E624)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mother-pearl</v>
       </c>
       <c r="D624" t="s">
@@ -27683,7 +27683,7 @@
         <v>2246</v>
       </c>
       <c r="C625" s="1" t="str">
-        <f>HYPERLINK(E625)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mother-spleenwort</v>
       </c>
       <c r="D625" t="s">
@@ -27710,7 +27710,7 @@
         <v>2249</v>
       </c>
       <c r="C626" s="1" t="str">
-        <f>HYPERLINK(E626)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mother-law</v>
       </c>
       <c r="D626" t="s">
@@ -27737,7 +27737,7 @@
         <v>2251</v>
       </c>
       <c r="C627" s="1" t="str">
-        <f>HYPERLINK(E627)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mother-law-plant</v>
       </c>
       <c r="D627" t="s">
@@ -27764,7 +27764,7 @@
         <v>2254</v>
       </c>
       <c r="C628" s="1" t="str">
-        <f>HYPERLINK(E628)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mother-laws-tongue</v>
       </c>
       <c r="D628" t="s">
@@ -27791,7 +27791,7 @@
         <v>2257</v>
       </c>
       <c r="C629" s="1" t="str">
-        <f>HYPERLINK(E629)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mountain-camellia</v>
       </c>
       <c r="D629" t="s">
@@ -27818,7 +27818,7 @@
         <v>2261</v>
       </c>
       <c r="C630" s="1" t="str">
-        <f>HYPERLINK(E630)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mountain-grape</v>
       </c>
       <c r="D630" t="s">
@@ -27845,7 +27845,7 @@
         <v>2264</v>
       </c>
       <c r="C631" s="1" t="str">
-        <f>HYPERLINK(E631)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mountain-laurel</v>
       </c>
       <c r="D631" t="s">
@@ -27872,7 +27872,7 @@
         <v>2266</v>
       </c>
       <c r="C632" s="1" t="str">
-        <f>HYPERLINK(E632)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mulberry-bush-greenbrier</v>
       </c>
       <c r="D632" t="s">
@@ -27899,7 +27899,7 @@
         <v>2269</v>
       </c>
       <c r="C633" s="1" t="str">
-        <f>HYPERLINK(E633)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mulberry-tree</v>
       </c>
       <c r="D633" t="s">
@@ -27926,7 +27926,7 @@
         <v>2272</v>
       </c>
       <c r="C634" s="1" t="str">
-        <f>HYPERLINK(E634)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/mum</v>
       </c>
       <c r="D634" t="s">
@@ -27953,7 +27953,7 @@
         <v>2275</v>
       </c>
       <c r="C635" s="1" t="str">
-        <f>HYPERLINK(E635)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/musa-paradisiaca</v>
       </c>
       <c r="D635" t="s">
@@ -27980,7 +27980,7 @@
         <v>2278</v>
       </c>
       <c r="C636" s="1" t="str">
-        <f>HYPERLINK(E636)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/muscari-armeniacum</v>
       </c>
       <c r="D636" t="s">
@@ -28007,7 +28007,7 @@
         <v>2280</v>
       </c>
       <c r="C637" s="1" t="str">
-        <f>HYPERLINK(E637)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/muskmelon</v>
       </c>
       <c r="D637" t="s">
@@ -28034,7 +28034,7 @@
         <v>2283</v>
       </c>
       <c r="C638" s="1" t="str">
-        <f>HYPERLINK(E638)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/naked-lady</v>
       </c>
       <c r="D638" t="s">
@@ -28061,7 +28061,7 @@
         <v>2285</v>
       </c>
       <c r="C639" s="1" t="str">
-        <f>HYPERLINK(E639)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/nandina</v>
       </c>
       <c r="D639" t="s">
@@ -28088,7 +28088,7 @@
         <v>2288</v>
       </c>
       <c r="C640" s="1" t="str">
-        <f>HYPERLINK(E640)</f>
+        <f t="shared" si="9"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/narcissus</v>
       </c>
       <c r="D640" t="s">
@@ -28115,7 +28115,7 @@
         <v>2291</v>
       </c>
       <c r="C641" s="1" t="str">
-        <f>HYPERLINK(E641)</f>
+        <f t="shared" ref="C641:C704" si="10">HYPERLINK(E641)</f>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/nasturtium</v>
       </c>
       <c r="D641" t="s">
@@ -28142,7 +28142,7 @@
         <v>2296</v>
       </c>
       <c r="C642" s="1" t="str">
-        <f>HYPERLINK(E642)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/nasturtium-watercress</v>
       </c>
       <c r="D642" t="s">
@@ -28169,7 +28169,7 @@
         <v>2300</v>
       </c>
       <c r="C643" s="1" t="str">
-        <f>HYPERLINK(E643)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/natal-plum</v>
       </c>
       <c r="D643" t="s">
@@ -28196,7 +28196,7 @@
         <v>2303</v>
       </c>
       <c r="C644" s="1" t="str">
-        <f>HYPERLINK(E644)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/neanthe-bella-palm</v>
       </c>
       <c r="D644" t="s">
@@ -28223,7 +28223,7 @@
         <v>2306</v>
       </c>
       <c r="C645" s="1" t="str">
-        <f>HYPERLINK(E645)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/needlepoint-ivy</v>
       </c>
       <c r="D645" t="s">
@@ -28250,7 +28250,7 @@
         <v>2309</v>
       </c>
       <c r="C646" s="1" t="str">
-        <f>HYPERLINK(E646)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/nematanthus-spp</v>
       </c>
       <c r="D646" t="s">
@@ -28277,7 +28277,7 @@
         <v>2311</v>
       </c>
       <c r="C647" s="1" t="str">
-        <f>HYPERLINK(E647)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/neoregelia</v>
       </c>
       <c r="D647" t="s">
@@ -28304,7 +28304,7 @@
         <v>2314</v>
       </c>
       <c r="C648" s="1" t="str">
-        <f>HYPERLINK(E648)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/nephthytis</v>
       </c>
       <c r="D648" t="s">
@@ -28331,7 +28331,7 @@
         <v>2317</v>
       </c>
       <c r="C649" s="1" t="str">
-        <f>HYPERLINK(E649)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/nerve-plant</v>
       </c>
       <c r="D649" t="s">
@@ -28358,7 +28358,7 @@
         <v>2321</v>
       </c>
       <c r="C650" s="1" t="str">
-        <f>HYPERLINK(E650)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/nicotiana</v>
       </c>
       <c r="D650" t="s">
@@ -28385,7 +28385,7 @@
         <v>2325</v>
       </c>
       <c r="C651" s="1" t="str">
-        <f>HYPERLINK(E651)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/night-blooming-cereus</v>
       </c>
       <c r="D651" t="s">
@@ -28412,7 +28412,7 @@
         <v>2329</v>
       </c>
       <c r="C652" s="1" t="str">
-        <f>HYPERLINK(E652)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/nightshade</v>
       </c>
       <c r="D652" t="s">
@@ -28439,7 +28439,7 @@
         <v>2332</v>
       </c>
       <c r="C653" s="1" t="str">
-        <f>HYPERLINK(E653)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/oak</v>
       </c>
       <c r="D653" t="s">
@@ -28466,7 +28466,7 @@
         <v>2335</v>
       </c>
       <c r="C654" s="1" t="str">
-        <f>HYPERLINK(E654)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/octopus-tree</v>
       </c>
       <c r="D654" t="s">
@@ -28493,7 +28493,7 @@
         <v>2339</v>
       </c>
       <c r="C655" s="1" t="str">
-        <f>HYPERLINK(E655)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/oilcloth-flower</v>
       </c>
       <c r="D655" t="s">
@@ -28520,7 +28520,7 @@
         <v>2342</v>
       </c>
       <c r="C656" s="1" t="str">
-        <f>HYPERLINK(E656)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/old-man-cactus</v>
       </c>
       <c r="D656" t="s">
@@ -28547,7 +28547,7 @@
         <v>894</v>
       </c>
       <c r="C657" s="1" t="str">
-        <f>HYPERLINK(E657)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/old-world-orchid</v>
       </c>
       <c r="D657" t="s">
@@ -28574,7 +28574,7 @@
         <v>2346</v>
       </c>
       <c r="C658" s="1" t="str">
-        <f>HYPERLINK(E658)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/oleander</v>
       </c>
       <c r="D658" t="s">
@@ -28601,7 +28601,7 @@
         <v>2353</v>
       </c>
       <c r="C659" s="1" t="str">
-        <f>HYPERLINK(E659)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/onion</v>
       </c>
       <c r="D659" t="s">
@@ -28628,7 +28628,7 @@
         <v>2350</v>
       </c>
       <c r="C660" s="1" t="str">
-        <f>HYPERLINK(E660)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/orange</v>
       </c>
       <c r="D660" t="s">
@@ -28655,7 +28655,7 @@
         <v>2356</v>
       </c>
       <c r="C661" s="1" t="str">
-        <f>HYPERLINK(E661)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/orange-day-lily</v>
       </c>
       <c r="D661" t="s">
@@ -28682,7 +28682,7 @@
         <v>2359</v>
       </c>
       <c r="C662" s="1" t="str">
-        <f>HYPERLINK(E662)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/orange-star</v>
       </c>
       <c r="D662" t="s">
@@ -28709,7 +28709,7 @@
         <v>2362</v>
       </c>
       <c r="C663" s="1" t="str">
-        <f>HYPERLINK(E663)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/oregano</v>
       </c>
       <c r="D663" t="s">
@@ -28736,7 +28736,7 @@
         <v>2366</v>
       </c>
       <c r="C664" s="1" t="str">
-        <f>HYPERLINK(E664)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/oregon-grape</v>
       </c>
       <c r="D664" t="s">
@@ -28763,7 +28763,7 @@
         <v>2369</v>
       </c>
       <c r="C665" s="1" t="str">
-        <f>HYPERLINK(E665)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/oregon-holly</v>
       </c>
       <c r="D665" t="s">
@@ -28790,7 +28790,7 @@
         <v>2372</v>
       </c>
       <c r="C666" s="1" t="str">
-        <f>HYPERLINK(E666)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ornamental-pepper</v>
       </c>
       <c r="D666" t="s">
@@ -28817,7 +28817,7 @@
         <v>2375</v>
       </c>
       <c r="C667" s="1" t="str">
-        <f>HYPERLINK(E667)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ossifragi-vase</v>
       </c>
       <c r="D667" t="s">
@@ -28844,7 +28844,7 @@
         <v>2378</v>
       </c>
       <c r="C668" s="1" t="str">
-        <f>HYPERLINK(E668)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pacific-yew</v>
       </c>
       <c r="D668" t="s">
@@ -28871,7 +28871,7 @@
         <v>2382</v>
       </c>
       <c r="C669" s="1" t="str">
-        <f>HYPERLINK(E669)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/paddys-wig</v>
       </c>
       <c r="D669" t="s">
@@ -28898,7 +28898,7 @@
         <v>2386</v>
       </c>
       <c r="C670" s="1" t="str">
-        <f>HYPERLINK(E670)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/painted-lady</v>
       </c>
       <c r="D670" t="s">
@@ -28925,7 +28925,7 @@
         <v>2388</v>
       </c>
       <c r="C671" s="1" t="str">
-        <f>HYPERLINK(E671)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/painters-pallette</v>
       </c>
       <c r="D671" t="s">
@@ -28952,7 +28952,7 @@
         <v>2391</v>
       </c>
       <c r="C672" s="1" t="str">
-        <f>HYPERLINK(E672)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pale-laurel</v>
       </c>
       <c r="D672" t="s">
@@ -28979,7 +28979,7 @@
         <v>2394</v>
       </c>
       <c r="C673" s="1" t="str">
-        <f>HYPERLINK(E673)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/palm-lily</v>
       </c>
       <c r="D673" t="s">
@@ -29006,7 +29006,7 @@
         <v>2397</v>
       </c>
       <c r="C674" s="1" t="str">
-        <f>HYPERLINK(E674)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pampas-grass</v>
       </c>
       <c r="D674" t="s">
@@ -29033,7 +29033,7 @@
         <v>2400</v>
       </c>
       <c r="C675" s="1" t="str">
-        <f>HYPERLINK(E675)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/panamiga</v>
       </c>
       <c r="D675" t="s">
@@ -29060,7 +29060,7 @@
         <v>2402</v>
       </c>
       <c r="C676" s="1" t="str">
-        <f>HYPERLINK(E676)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/panda-plant</v>
       </c>
       <c r="D676" t="s">
@@ -29087,7 +29087,7 @@
         <v>2405</v>
       </c>
       <c r="C677" s="1" t="str">
-        <f>HYPERLINK(E677)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pansy-orchid</v>
       </c>
       <c r="D677" t="s">
@@ -29114,7 +29114,7 @@
         <v>2408</v>
       </c>
       <c r="C678" s="1" t="str">
-        <f>HYPERLINK(E678)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/paper-white</v>
       </c>
       <c r="D678" t="s">
@@ -29141,7 +29141,7 @@
         <v>2411</v>
       </c>
       <c r="C679" s="1" t="str">
-        <f>HYPERLINK(E679)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/paradise-palm</v>
       </c>
       <c r="D679" t="s">
@@ -29168,7 +29168,7 @@
         <v>2436</v>
       </c>
       <c r="C680" s="1" t="str">
-        <f>HYPERLINK(E680)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/paraguayan-jasmine</v>
       </c>
       <c r="D680" t="s">
@@ -29195,7 +29195,7 @@
         <v>2170</v>
       </c>
       <c r="C681" s="1" t="str">
-        <f>HYPERLINK(E681)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/parlor-palm</v>
       </c>
       <c r="D681" t="s">
@@ -29222,7 +29222,7 @@
         <v>2416</v>
       </c>
       <c r="C682" s="1" t="str">
-        <f>HYPERLINK(E682)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/parsley</v>
       </c>
       <c r="D682" t="s">
@@ -29249,7 +29249,7 @@
         <v>2420</v>
       </c>
       <c r="C683" s="1" t="str">
-        <f>HYPERLINK(E683)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/parsley-fern</v>
       </c>
       <c r="D683" t="s">
@@ -29276,7 +29276,7 @@
         <v>2423</v>
       </c>
       <c r="C684" s="1" t="str">
-        <f>HYPERLINK(E684)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/patient-lucy</v>
       </c>
       <c r="D684" t="s">
@@ -29303,7 +29303,7 @@
         <v>2426</v>
       </c>
       <c r="C685" s="1" t="str">
-        <f>HYPERLINK(E685)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/patient-plant</v>
       </c>
       <c r="D685" t="s">
@@ -29330,7 +29330,7 @@
         <v>2429</v>
       </c>
       <c r="C686" s="1" t="str">
-        <f>HYPERLINK(E686)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pattersons-curse</v>
       </c>
       <c r="D686" t="s">
@@ -29357,7 +29357,7 @@
         <v>2433</v>
       </c>
       <c r="C687" s="1" t="str">
-        <f>HYPERLINK(E687)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/peace-begonia</v>
       </c>
       <c r="D687" t="s">
@@ -29384,7 +29384,7 @@
         <v>2125</v>
       </c>
       <c r="C688" s="1" t="str">
-        <f>HYPERLINK(E688)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/peace-lily</v>
       </c>
       <c r="D688" t="s">
@@ -29411,7 +29411,7 @@
         <v>2439</v>
       </c>
       <c r="C689" s="1" t="str">
-        <f>HYPERLINK(E689)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/peach</v>
       </c>
       <c r="D689" t="s">
@@ -29438,7 +29438,7 @@
         <v>2443</v>
       </c>
       <c r="C690" s="1" t="str">
-        <f>HYPERLINK(E690)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/peacock-flower</v>
       </c>
       <c r="D690" t="s">
@@ -29465,7 +29465,7 @@
         <v>2447</v>
       </c>
       <c r="C691" s="1" t="str">
-        <f>HYPERLINK(E691)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/peacock-plant</v>
       </c>
       <c r="D691" t="s">
@@ -29492,7 +29492,7 @@
         <v>2450</v>
       </c>
       <c r="C692" s="1" t="str">
-        <f>HYPERLINK(E692)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pearl-plant</v>
       </c>
       <c r="D692" t="s">
@@ -29519,7 +29519,7 @@
         <v>2453</v>
       </c>
       <c r="C693" s="1" t="str">
-        <f>HYPERLINK(E693)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pearly-dots</v>
       </c>
       <c r="D693" t="s">
@@ -29546,7 +29546,7 @@
         <v>2455</v>
       </c>
       <c r="C694" s="1" t="str">
-        <f>HYPERLINK(E694)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pencil-cactus</v>
       </c>
       <c r="D694" t="s">
@@ -29573,7 +29573,7 @@
         <v>2459</v>
       </c>
       <c r="C695" s="1" t="str">
-        <f>HYPERLINK(E695)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/peony</v>
       </c>
       <c r="D695" t="s">
@@ -29600,7 +29600,7 @@
         <v>2463</v>
       </c>
       <c r="C696" s="1" t="str">
-        <f>HYPERLINK(E696)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/peperomia-hederifolia</v>
       </c>
       <c r="D696" t="s">
@@ -29627,7 +29627,7 @@
         <v>2466</v>
       </c>
       <c r="C697" s="1" t="str">
-        <f>HYPERLINK(E697)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/peperomia-peltfolia</v>
       </c>
       <c r="D697" t="s">
@@ -29654,7 +29654,7 @@
         <v>2469</v>
       </c>
       <c r="C698" s="1" t="str">
-        <f>HYPERLINK(E698)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/peperomia-rotundifolia</v>
       </c>
       <c r="D698" t="s">
@@ -29681,7 +29681,7 @@
         <v>2472</v>
       </c>
       <c r="C699" s="1" t="str">
-        <f>HYPERLINK(E699)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/peperomia-sandersii</v>
       </c>
       <c r="D699" t="s">
@@ -29708,7 +29708,7 @@
         <v>2475</v>
       </c>
       <c r="C700" s="1" t="str">
-        <f>HYPERLINK(E700)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pepper-face</v>
       </c>
       <c r="D700" t="s">
@@ -29735,7 +29735,7 @@
         <v>2478</v>
       </c>
       <c r="C701" s="1" t="str">
-        <f>HYPERLINK(E701)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/perennial-pea</v>
       </c>
       <c r="D701" t="s">
@@ -29762,7 +29762,7 @@
         <v>2481</v>
       </c>
       <c r="C702" s="1" t="str">
-        <f>HYPERLINK(E702)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/periwinkle</v>
       </c>
       <c r="D702" t="s">
@@ -29789,7 +29789,7 @@
         <v>2485</v>
       </c>
       <c r="C703" s="1" t="str">
-        <f>HYPERLINK(E703)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/persian-violet</v>
       </c>
       <c r="D703" t="s">
@@ -29816,7 +29816,7 @@
         <v>2488</v>
       </c>
       <c r="C704" s="1" t="str">
-        <f>HYPERLINK(E704)</f>
+        <f t="shared" si="10"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/peruvian-lily</v>
       </c>
       <c r="D704" t="s">
@@ -29843,7 +29843,7 @@
         <v>2492</v>
       </c>
       <c r="C705" s="1" t="str">
-        <f>HYPERLINK(E705)</f>
+        <f t="shared" ref="C705:C768" si="11">HYPERLINK(E705)</f>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/petunia</v>
       </c>
       <c r="D705" t="s">
@@ -29870,7 +29870,7 @@
         <v>2495</v>
       </c>
       <c r="C706" s="1" t="str">
-        <f>HYPERLINK(E706)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/phalaenopsis-orchid</v>
       </c>
       <c r="D706" t="s">
@@ -29897,7 +29897,7 @@
         <v>2499</v>
       </c>
       <c r="C707" s="1" t="str">
-        <f>HYPERLINK(E707)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pheasant-plant</v>
       </c>
       <c r="D707" t="s">
@@ -29924,7 +29924,7 @@
         <v>2503</v>
       </c>
       <c r="C708" s="1" t="str">
-        <f>HYPERLINK(E708)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/philodendron-pertusum</v>
       </c>
       <c r="D708" t="s">
@@ -29951,7 +29951,7 @@
         <v>2506</v>
       </c>
       <c r="C709" s="1" t="str">
-        <f>HYPERLINK(E709)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pie-plant</v>
       </c>
       <c r="D709" t="s">
@@ -29978,7 +29978,7 @@
         <v>2510</v>
       </c>
       <c r="C710" s="1" t="str">
-        <f>HYPERLINK(E710)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pieris</v>
       </c>
       <c r="D710" t="s">
@@ -30005,7 +30005,7 @@
         <v>2513</v>
       </c>
       <c r="C711" s="1" t="str">
-        <f>HYPERLINK(E711)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pig-lily</v>
       </c>
       <c r="D711" t="s">
@@ -30032,7 +30032,7 @@
         <v>2516</v>
       </c>
       <c r="C712" s="1" t="str">
-        <f>HYPERLINK(E712)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/piggy-back-plant</v>
       </c>
       <c r="D712" t="s">
@@ -30059,7 +30059,7 @@
         <v>2520</v>
       </c>
       <c r="C713" s="1" t="str">
-        <f>HYPERLINK(E713)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pignut-hickory</v>
       </c>
       <c r="D713" t="s">
@@ -30086,7 +30086,7 @@
         <v>2523</v>
       </c>
       <c r="C714" s="1" t="str">
-        <f>HYPERLINK(E714)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pigtail-plant</v>
       </c>
       <c r="D714" t="s">
@@ -30113,7 +30113,7 @@
         <v>2526</v>
       </c>
       <c r="C715" s="1" t="str">
-        <f>HYPERLINK(E715)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pilea-microphylla</v>
       </c>
       <c r="D715" t="s">
@@ -30140,7 +30140,7 @@
         <v>2528</v>
       </c>
       <c r="C716" s="1" t="str">
-        <f>HYPERLINK(E716)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pilea-mucosa</v>
       </c>
       <c r="D716" t="s">
@@ -30167,7 +30167,7 @@
         <v>2539</v>
       </c>
       <c r="C717" s="1" t="str">
-        <f>HYPERLINK(E717)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pincushion-flower</v>
       </c>
       <c r="D717" t="s">
@@ -30194,7 +30194,7 @@
         <v>2530</v>
       </c>
       <c r="C718" s="1" t="str">
-        <f>HYPERLINK(E718)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pink-brocade</v>
       </c>
       <c r="D718" t="s">
@@ -30221,7 +30221,7 @@
         <v>2533</v>
       </c>
       <c r="C719" s="1" t="str">
-        <f>HYPERLINK(E719)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pink-pearl</v>
       </c>
       <c r="D719" t="s">
@@ -30248,7 +30248,7 @@
         <v>2536</v>
       </c>
       <c r="C720" s="1" t="str">
-        <f>HYPERLINK(E720)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pink-splash</v>
       </c>
       <c r="D720" t="s">
@@ -30275,7 +30275,7 @@
         <v>2543</v>
       </c>
       <c r="C721" s="1" t="str">
-        <f>HYPERLINK(E721)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pink-starlite</v>
       </c>
       <c r="D721" t="s">
@@ -30302,7 +30302,7 @@
         <v>2546</v>
       </c>
       <c r="C722" s="1" t="str">
-        <f>HYPERLINK(E722)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pinks</v>
       </c>
       <c r="D722" t="s">
@@ -30329,7 +30329,7 @@
         <v>1620</v>
       </c>
       <c r="C723" s="1" t="str">
-        <f>HYPERLINK(E723)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pirliteiro</v>
       </c>
       <c r="D723" t="s">
@@ -30356,7 +30356,7 @@
         <v>2550</v>
       </c>
       <c r="C724" s="1" t="str">
-        <f>HYPERLINK(E724)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pitaya</v>
       </c>
       <c r="D724" t="s">
@@ -30383,7 +30383,7 @@
         <v>2553</v>
       </c>
       <c r="C725" s="1" t="str">
-        <f>HYPERLINK(E725)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/plantain-lily</v>
       </c>
       <c r="D725" t="s">
@@ -30410,7 +30410,7 @@
         <v>2556</v>
       </c>
       <c r="C726" s="1" t="str">
-        <f>HYPERLINK(E726)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/plantanus-occidentalis</v>
       </c>
       <c r="D726" t="s">
@@ -30437,7 +30437,7 @@
         <v>2561</v>
       </c>
       <c r="C727" s="1" t="str">
-        <f>HYPERLINK(E727)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/platinum-peperomia</v>
       </c>
       <c r="D727" t="s">
@@ -30464,7 +30464,7 @@
         <v>2564</v>
       </c>
       <c r="C728" s="1" t="str">
-        <f>HYPERLINK(E728)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/platycerium-alcicorne</v>
       </c>
       <c r="D728" t="s">
@@ -30491,7 +30491,7 @@
         <v>2568</v>
       </c>
       <c r="C729" s="1" t="str">
-        <f>HYPERLINK(E729)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/plum</v>
       </c>
       <c r="D729" t="s">
@@ -30518,7 +30518,7 @@
         <v>2572</v>
       </c>
       <c r="C730" s="1" t="str">
-        <f>HYPERLINK(E730)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/plumbago-larpentiae</v>
       </c>
       <c r="D730" t="s">
@@ -30545,7 +30545,7 @@
         <v>2575</v>
       </c>
       <c r="C731" s="1" t="str">
-        <f>HYPERLINK(E731)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/plumosa-fern</v>
       </c>
       <c r="D731" t="s">
@@ -30572,7 +30572,7 @@
         <v>2578</v>
       </c>
       <c r="C732" s="1" t="str">
-        <f>HYPERLINK(E732)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/plush-plant</v>
       </c>
       <c r="D732" t="s">
@@ -30599,7 +30599,7 @@
         <v>2581</v>
       </c>
       <c r="C733" s="1" t="str">
-        <f>HYPERLINK(E733)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/poinciana</v>
       </c>
       <c r="D733" t="s">
@@ -30626,7 +30626,7 @@
         <v>2585</v>
       </c>
       <c r="C734" s="1" t="str">
-        <f>HYPERLINK(E734)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/poinsettia</v>
       </c>
       <c r="D734" t="s">
@@ -30653,7 +30653,7 @@
         <v>2588</v>
       </c>
       <c r="C735" s="1" t="str">
-        <f>HYPERLINK(E735)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/poison-daisy</v>
       </c>
       <c r="D735" t="s">
@@ -30680,7 +30680,7 @@
         <v>2591</v>
       </c>
       <c r="C736" s="1" t="str">
-        <f>HYPERLINK(E736)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/poison-hemlock</v>
       </c>
       <c r="D736" t="s">
@@ -30707,7 +30707,7 @@
         <v>2595</v>
       </c>
       <c r="C737" s="1" t="str">
-        <f>HYPERLINK(E737)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/poison-ivy</v>
       </c>
       <c r="D737" t="s">
@@ -30734,7 +30734,7 @@
         <v>2600</v>
       </c>
       <c r="C738" s="1" t="str">
-        <f>HYPERLINK(E738)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/poison-oak</v>
       </c>
       <c r="D738" t="s">
@@ -30761,7 +30761,7 @@
         <v>2603</v>
       </c>
       <c r="C739" s="1" t="str">
-        <f>HYPERLINK(E739)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/poison-parsnip</v>
       </c>
       <c r="D739" t="s">
@@ -30788,7 +30788,7 @@
         <v>2607</v>
       </c>
       <c r="C740" s="1" t="str">
-        <f>HYPERLINK(E740)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/poison-sumac</v>
       </c>
       <c r="D740" t="s">
@@ -30815,7 +30815,7 @@
         <v>2610</v>
       </c>
       <c r="C741" s="1" t="str">
-        <f>HYPERLINK(E741)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/polka-dot-plant</v>
       </c>
       <c r="D741" t="s">
@@ -30842,7 +30842,7 @@
         <v>2613</v>
       </c>
       <c r="C742" s="1" t="str">
-        <f>HYPERLINK(E742)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/polystichum-falcatum</v>
       </c>
       <c r="D742" t="s">
@@ -30869,7 +30869,7 @@
         <v>2615</v>
       </c>
       <c r="C743" s="1" t="str">
-        <f>HYPERLINK(E743)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ponderosa-pine</v>
       </c>
       <c r="D743" t="s">
@@ -30896,7 +30896,7 @@
         <v>2618</v>
       </c>
       <c r="C744" s="1" t="str">
-        <f>HYPERLINK(E744)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pony-tail</v>
       </c>
       <c r="D744" t="s">
@@ -30923,7 +30923,7 @@
         <v>2621</v>
       </c>
       <c r="C745" s="1" t="str">
-        <f>HYPERLINK(E745)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/porcelain-flower</v>
       </c>
       <c r="D745" t="s">
@@ -30950,7 +30950,7 @@
         <v>2623</v>
       </c>
       <c r="C746" s="1" t="str">
-        <f>HYPERLINK(E746)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/portulaca</v>
       </c>
       <c r="D746" t="s">
@@ -30977,7 +30977,7 @@
         <v>2626</v>
       </c>
       <c r="C747" s="1" t="str">
-        <f>HYPERLINK(E747)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pot-marigold</v>
       </c>
       <c r="D747" t="s">
@@ -31004,7 +31004,7 @@
         <v>2629</v>
       </c>
       <c r="C748" s="1" t="str">
-        <f>HYPERLINK(E748)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/prairie-lily</v>
       </c>
       <c r="D748" t="s">
@@ -31031,7 +31031,7 @@
         <v>2633</v>
       </c>
       <c r="C749" s="1" t="str">
-        <f>HYPERLINK(E749)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/prayer-bean</v>
       </c>
       <c r="D749" t="s">
@@ -31058,7 +31058,7 @@
         <v>2637</v>
       </c>
       <c r="C750" s="1" t="str">
-        <f>HYPERLINK(E750)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/prayer-plant</v>
       </c>
       <c r="D750" t="s">
@@ -31085,7 +31085,7 @@
         <v>2640</v>
       </c>
       <c r="C751" s="1" t="str">
-        <f>HYPERLINK(E751)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pride-india</v>
       </c>
       <c r="D751" t="s">
@@ -31112,7 +31112,7 @@
         <v>2643</v>
       </c>
       <c r="C752" s="1" t="str">
-        <f>HYPERLINK(E752)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/primrose</v>
       </c>
       <c r="D752" t="s">
@@ -31139,7 +31139,7 @@
         <v>2646</v>
       </c>
       <c r="C753" s="1" t="str">
-        <f>HYPERLINK(E753)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/privet</v>
       </c>
       <c r="D753" t="s">
@@ -31166,7 +31166,7 @@
         <v>2650</v>
       </c>
       <c r="C754" s="1" t="str">
-        <f>HYPERLINK(E754)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/prostrate-coleus</v>
       </c>
       <c r="D754" t="s">
@@ -31193,7 +31193,7 @@
         <v>2653</v>
       </c>
       <c r="C755" s="1" t="str">
-        <f>HYPERLINK(E755)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/pupleosier-willow</v>
       </c>
       <c r="D755" t="s">
@@ -31220,7 +31220,7 @@
         <v>2657</v>
       </c>
       <c r="C756" s="1" t="str">
-        <f>HYPERLINK(E756)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/purple-baby-tears</v>
       </c>
       <c r="D756" t="s">
@@ -31247,7 +31247,7 @@
         <v>2661</v>
       </c>
       <c r="C757" s="1" t="str">
-        <f>HYPERLINK(E757)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/purple-passion-vine</v>
       </c>
       <c r="D757" t="s">
@@ -31274,7 +31274,7 @@
         <v>2665</v>
       </c>
       <c r="C758" s="1" t="str">
-        <f>HYPERLINK(E758)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/purple-velvet-plant</v>
       </c>
       <c r="D758" t="s">
@@ -31301,7 +31301,7 @@
         <v>2668</v>
       </c>
       <c r="C759" s="1" t="str">
-        <f>HYPERLINK(E759)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/purple-waffle-plant</v>
       </c>
       <c r="D759" t="s">
@@ -31328,7 +31328,7 @@
         <v>2672</v>
       </c>
       <c r="C760" s="1" t="str">
-        <f>HYPERLINK(E760)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/purslane</v>
       </c>
       <c r="D760" t="s">
@@ -31355,7 +31355,7 @@
         <v>505</v>
       </c>
       <c r="C761" s="1" t="str">
-        <f>HYPERLINK(E761)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/queencup</v>
       </c>
       <c r="D761" t="s">
@@ -31382,7 +31382,7 @@
         <v>2676</v>
       </c>
       <c r="C762" s="1" t="str">
-        <f>HYPERLINK(E762)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/queens-spiderwort</v>
       </c>
       <c r="D762" t="s">
@@ -31409,7 +31409,7 @@
         <v>2678</v>
       </c>
       <c r="C763" s="1" t="str">
-        <f>HYPERLINK(E763)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/queensland-arrowroot</v>
       </c>
       <c r="D763" t="s">
@@ -31436,7 +31436,7 @@
         <v>2681</v>
       </c>
       <c r="C764" s="1" t="str">
-        <f>HYPERLINK(E764)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/queensland-nut</v>
       </c>
       <c r="D764" t="s">
@@ -31463,7 +31463,7 @@
         <v>2684</v>
       </c>
       <c r="C765" s="1" t="str">
-        <f>HYPERLINK(E765)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/rabbits-foot-fern</v>
       </c>
       <c r="D765" t="s">
@@ -31490,7 +31490,7 @@
         <v>2687</v>
       </c>
       <c r="C766" s="1" t="str">
-        <f>HYPERLINK(E766)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/racemose-asparagus</v>
       </c>
       <c r="D766" t="s">
@@ -31517,7 +31517,7 @@
         <v>1545</v>
       </c>
       <c r="C767" s="1" t="str">
-        <f>HYPERLINK(E767)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ragwort</v>
       </c>
       <c r="D767" t="s">
@@ -31544,7 +31544,7 @@
         <v>2690</v>
       </c>
       <c r="C768" s="1" t="str">
-        <f>HYPERLINK(E768)</f>
+        <f t="shared" si="11"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/rainbow-orchid</v>
       </c>
       <c r="D768" t="s">
@@ -31571,7 +31571,7 @@
         <v>2693</v>
       </c>
       <c r="C769" s="1" t="str">
-        <f>HYPERLINK(E769)</f>
+        <f t="shared" ref="C769:C832" si="12">HYPERLINK(E769)</f>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/rangers-button</v>
       </c>
       <c r="D769" t="s">
@@ -31598,7 +31598,7 @@
         <v>2697</v>
       </c>
       <c r="C770" s="1" t="str">
-        <f>HYPERLINK(E770)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/rattlebox</v>
       </c>
       <c r="D770" t="s">
@@ -31625,7 +31625,7 @@
         <v>2700</v>
       </c>
       <c r="C771" s="1" t="str">
-        <f>HYPERLINK(E771)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/rayless-goldenrod</v>
       </c>
       <c r="D771" t="s">
@@ -31652,7 +31652,7 @@
         <v>2702</v>
       </c>
       <c r="C772" s="1" t="str">
-        <f>HYPERLINK(E772)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/red-african-violet</v>
       </c>
       <c r="D772" t="s">
@@ -31679,7 +31679,7 @@
         <v>2704</v>
       </c>
       <c r="C773" s="1" t="str">
-        <f>HYPERLINK(E773)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/red-berried-greenbrier</v>
       </c>
       <c r="D773" t="s">
@@ -31706,7 +31706,7 @@
         <v>2708</v>
       </c>
       <c r="C774" s="1" t="str">
-        <f>HYPERLINK(E774)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/red-edge-peperomia</v>
       </c>
       <c r="D774" t="s">
@@ -31733,7 +31733,7 @@
         <v>2713</v>
       </c>
       <c r="C775" s="1" t="str">
-        <f>HYPERLINK(E775)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/red-emerald</v>
       </c>
       <c r="D775" t="s">
@@ -31760,7 +31760,7 @@
         <v>2716</v>
       </c>
       <c r="C776" s="1" t="str">
-        <f>HYPERLINK(E776)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/red-hawthorne</v>
       </c>
       <c r="D776" t="s">
@@ -31787,7 +31787,7 @@
         <v>2719</v>
       </c>
       <c r="C777" s="1" t="str">
-        <f>HYPERLINK(E777)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/red-lily</v>
       </c>
       <c r="D777" t="s">
@@ -31814,7 +31814,7 @@
         <v>2722</v>
       </c>
       <c r="C778" s="1" t="str">
-        <f>HYPERLINK(E778)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/red-maple</v>
       </c>
       <c r="D778" t="s">
@@ -31841,7 +31841,7 @@
         <v>2725</v>
       </c>
       <c r="C779" s="1" t="str">
-        <f>HYPERLINK(E779)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/red-palm-lily</v>
       </c>
       <c r="D779" t="s">
@@ -31868,7 +31868,7 @@
         <v>2729</v>
       </c>
       <c r="C780" s="1" t="str">
-        <f>HYPERLINK(E780)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/red-princess</v>
       </c>
       <c r="D780" t="s">
@@ -31895,7 +31895,7 @@
         <v>2732</v>
       </c>
       <c r="C781" s="1" t="str">
-        <f>HYPERLINK(E781)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/red-veined-prayer</v>
       </c>
       <c r="D781" t="s">
@@ -31922,7 +31922,7 @@
         <v>2738</v>
       </c>
       <c r="C782" s="1" t="str">
-        <f>HYPERLINK(E782)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/red-marginated-dracaena</v>
       </c>
       <c r="D782" t="s">
@@ -31949,7 +31949,7 @@
         <v>2735</v>
       </c>
       <c r="C783" s="1" t="str">
-        <f>HYPERLINK(E783)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/reed-palm</v>
       </c>
       <c r="D783" t="s">
@@ -31976,7 +31976,7 @@
         <v>2741</v>
       </c>
       <c r="C784" s="1" t="str">
-        <f>HYPERLINK(E784)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/resurrection-lily</v>
       </c>
       <c r="D784" t="s">
@@ -32003,7 +32003,7 @@
         <v>310</v>
       </c>
       <c r="C785" s="1" t="str">
-        <f>HYPERLINK(E785)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/rex-begonia</v>
       </c>
       <c r="D785" t="s">
@@ -32030,7 +32030,7 @@
         <v>2745</v>
       </c>
       <c r="C786" s="1" t="str">
-        <f>HYPERLINK(E786)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/rhododendron</v>
       </c>
       <c r="D786" t="s">
@@ -32057,7 +32057,7 @@
         <v>2508</v>
       </c>
       <c r="C787" s="1" t="str">
-        <f>HYPERLINK(E787)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/rhubarb</v>
       </c>
       <c r="D787" t="s">
@@ -32084,7 +32084,7 @@
         <v>2749</v>
       </c>
       <c r="C788" s="1" t="str">
-        <f>HYPERLINK(E788)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/rhynchophorum</v>
       </c>
       <c r="D788" t="s">
@@ -32111,7 +32111,7 @@
         <v>2751</v>
       </c>
       <c r="C789" s="1" t="str">
-        <f>HYPERLINK(E789)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ribbon-plant</v>
       </c>
       <c r="D789" t="s">
@@ -32138,7 +32138,7 @@
         <v>2754</v>
       </c>
       <c r="C790" s="1" t="str">
-        <f>HYPERLINK(E790)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ribbon-plant-chlorophytum-comosum</v>
       </c>
       <c r="D790" t="s">
@@ -32165,7 +32165,7 @@
         <v>2757</v>
       </c>
       <c r="C791" s="1" t="str">
-        <f>HYPERLINK(E791)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ridderstjerne</v>
       </c>
       <c r="D791" t="s">
@@ -32192,7 +32192,7 @@
         <v>2760</v>
       </c>
       <c r="C792" s="1" t="str">
-        <f>HYPERLINK(E792)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/rock-moss</v>
       </c>
       <c r="D792" t="s">
@@ -32219,7 +32219,7 @@
         <v>2768</v>
       </c>
       <c r="C793" s="1" t="str">
-        <f>HYPERLINK(E793)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/roman-chamomile</v>
       </c>
       <c r="D793" t="s">
@@ -32246,7 +32246,7 @@
         <v>2763</v>
       </c>
       <c r="C794" s="1" t="str">
-        <f>HYPERLINK(E794)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/roosevelt-fern</v>
       </c>
       <c r="D794" t="s">
@@ -32273,7 +32273,7 @@
         <v>2765</v>
       </c>
       <c r="C795" s="1" t="str">
-        <f>HYPERLINK(E795)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/rose</v>
       </c>
       <c r="D795" t="s">
@@ -32300,7 +32300,7 @@
         <v>2771</v>
       </c>
       <c r="C796" s="1" t="str">
-        <f>HYPERLINK(E796)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/rose-china</v>
       </c>
       <c r="D796" t="s">
@@ -32327,7 +32327,7 @@
         <v>2774</v>
       </c>
       <c r="C797" s="1" t="str">
-        <f>HYPERLINK(E797)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/rose-sharon</v>
       </c>
       <c r="D797" t="s">
@@ -32354,7 +32354,7 @@
         <v>2777</v>
       </c>
       <c r="C798" s="1" t="str">
-        <f>HYPERLINK(E798)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/rosebay</v>
       </c>
       <c r="D798" t="s">
@@ -32381,7 +32381,7 @@
         <v>2780</v>
       </c>
       <c r="C799" s="1" t="str">
-        <f>HYPERLINK(E799)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/rosemary</v>
       </c>
       <c r="D799" t="s">
@@ -32408,7 +32408,7 @@
         <v>2784</v>
       </c>
       <c r="C800" s="1" t="str">
-        <f>HYPERLINK(E800)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/rubrum-lily</v>
       </c>
       <c r="D800" t="s">
@@ -32435,7 +32435,7 @@
         <v>2786</v>
       </c>
       <c r="C801" s="1" t="str">
-        <f>HYPERLINK(E801)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/running-myrtle</v>
       </c>
       <c r="D801" t="s">
@@ -32462,7 +32462,7 @@
         <v>2789</v>
       </c>
       <c r="C802" s="1" t="str">
-        <f>HYPERLINK(E802)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/russian-knapweed</v>
       </c>
       <c r="D802" t="s">
@@ -32489,7 +32489,7 @@
         <v>2792</v>
       </c>
       <c r="C803" s="1" t="str">
-        <f>HYPERLINK(E803)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/russian-olive</v>
       </c>
       <c r="D803" t="s">
@@ -32516,7 +32516,7 @@
         <v>2796</v>
       </c>
       <c r="C804" s="1" t="str">
-        <f>HYPERLINK(E804)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sabi-star</v>
       </c>
       <c r="D804" t="s">
@@ -32543,7 +32543,7 @@
         <v>2799</v>
       </c>
       <c r="C805" s="1" t="str">
-        <f>HYPERLINK(E805)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sacred-bamboo</v>
       </c>
       <c r="D805" t="s">
@@ -32570,7 +32570,7 @@
         <v>2802</v>
       </c>
       <c r="C806" s="1" t="str">
-        <f>HYPERLINK(E806)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/saddle-leaf</v>
       </c>
       <c r="D806" t="s">
@@ -32597,7 +32597,7 @@
         <v>2805</v>
       </c>
       <c r="C807" s="1" t="str">
-        <f>HYPERLINK(E807)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/saffron-spike-zebra</v>
       </c>
       <c r="D807" t="s">
@@ -32624,7 +32624,7 @@
         <v>2808</v>
       </c>
       <c r="C808" s="1" t="str">
-        <f>HYPERLINK(E808)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sage</v>
       </c>
       <c r="D808" t="s">
@@ -32651,7 +32651,7 @@
         <v>2812</v>
       </c>
       <c r="C809" s="1" t="str">
-        <f>HYPERLINK(E809)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sago-palm</v>
       </c>
       <c r="D809" t="s">
@@ -32678,7 +32678,7 @@
         <v>2816</v>
       </c>
       <c r="C810" s="1" t="str">
-        <f>HYPERLINK(E810)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/saint-bernards-lily</v>
       </c>
       <c r="D810" t="s">
@@ -32705,7 +32705,7 @@
         <v>2819</v>
       </c>
       <c r="C811" s="1" t="str">
-        <f>HYPERLINK(E811)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/salad-burnet</v>
       </c>
       <c r="D811" t="s">
@@ -32732,7 +32732,7 @@
         <v>2823</v>
       </c>
       <c r="C812" s="1" t="str">
-        <f>HYPERLINK(E812)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sand-lily</v>
       </c>
       <c r="D812" t="s">
@@ -32759,7 +32759,7 @@
         <v>2827</v>
       </c>
       <c r="C813" s="1" t="str">
-        <f>HYPERLINK(E813)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sand-verbena</v>
       </c>
       <c r="D813" t="s">
@@ -32786,7 +32786,7 @@
         <v>2832</v>
       </c>
       <c r="C814" s="1" t="str">
-        <f>HYPERLINK(E814)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/satin-pellionia</v>
       </c>
       <c r="D814" t="s">
@@ -32813,7 +32813,7 @@
         <v>2840</v>
       </c>
       <c r="C815" s="1" t="str">
-        <f>HYPERLINK(E815)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/satin-pothos</v>
       </c>
       <c r="D815" t="s">
@@ -32840,7 +32840,7 @@
         <v>2835</v>
       </c>
       <c r="C816" s="1" t="str">
-        <f>HYPERLINK(E816)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/savory-summer</v>
       </c>
       <c r="D816" t="s">
@@ -32867,7 +32867,7 @@
         <v>2838</v>
       </c>
       <c r="C817" s="1" t="str">
-        <f>HYPERLINK(E817)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/savory-winter</v>
       </c>
       <c r="D817" t="s">
@@ -32894,7 +32894,7 @@
         <v>2844</v>
       </c>
       <c r="C818" s="1" t="str">
-        <f>HYPERLINK(E818)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sawbrier</v>
       </c>
       <c r="D818" t="s">
@@ -32921,7 +32921,7 @@
         <v>2848</v>
       </c>
       <c r="C819" s="1" t="str">
-        <f>HYPERLINK(E819)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/scabious</v>
       </c>
       <c r="D819" t="s">
@@ -32948,7 +32948,7 @@
         <v>2850</v>
       </c>
       <c r="C820" s="1" t="str">
-        <f>HYPERLINK(E820)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/scarborough-lily</v>
       </c>
       <c r="D820" t="s">
@@ -32975,7 +32975,7 @@
         <v>1397</v>
       </c>
       <c r="C821" s="1" t="str">
-        <f>HYPERLINK(E821)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/scarlet-orchid</v>
       </c>
       <c r="D821" t="s">
@@ -33002,7 +33002,7 @@
         <v>2854</v>
       </c>
       <c r="C822" s="1" t="str">
-        <f>HYPERLINK(E822)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/scarlet-sage</v>
       </c>
       <c r="D822" t="s">
@@ -33029,7 +33029,7 @@
         <v>2858</v>
       </c>
       <c r="C823" s="1" t="str">
-        <f>HYPERLINK(E823)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/scented-geranium</v>
       </c>
       <c r="D823" t="s">
@@ -33056,7 +33056,7 @@
         <v>2863</v>
       </c>
       <c r="C824" s="1" t="str">
-        <f>HYPERLINK(E824)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/schefflera</v>
       </c>
       <c r="D824" t="s">
@@ -33083,7 +33083,7 @@
         <v>2866</v>
       </c>
       <c r="C825" s="1" t="str">
-        <f>HYPERLINK(E825)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/scouring-rush</v>
       </c>
       <c r="D825" t="s">
@@ -33110,7 +33110,7 @@
         <v>2869</v>
       </c>
       <c r="C826" s="1" t="str">
-        <f>HYPERLINK(E826)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/seaside-daisy</v>
       </c>
       <c r="D826" t="s">
@@ -33137,7 +33137,7 @@
         <v>2108</v>
       </c>
       <c r="C827" s="1" t="str">
-        <f>HYPERLINK(E827)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sego-lily</v>
       </c>
       <c r="D827" t="s">
@@ -33164,7 +33164,7 @@
         <v>2872</v>
       </c>
       <c r="C828" s="1" t="str">
-        <f>HYPERLINK(E828)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/seven-bark</v>
       </c>
       <c r="D828" t="s">
@@ -33191,7 +33191,7 @@
         <v>2875</v>
       </c>
       <c r="C829" s="1" t="str">
-        <f>HYPERLINK(E829)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/shagbark-hickory</v>
       </c>
       <c r="D829" t="s">
@@ -33218,7 +33218,7 @@
         <v>2885</v>
       </c>
       <c r="C830" s="1" t="str">
-        <f>HYPERLINK(E830)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/shamrock-plant</v>
       </c>
       <c r="D830" t="s">
@@ -33245,7 +33245,7 @@
         <v>2879</v>
       </c>
       <c r="C831" s="1" t="str">
-        <f>HYPERLINK(E831)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/shan-kuei-lai</v>
       </c>
       <c r="D831" t="s">
@@ -33272,7 +33272,7 @@
         <v>2882</v>
       </c>
       <c r="C832" s="1" t="str">
-        <f>HYPERLINK(E832)</f>
+        <f t="shared" si="12"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/shatavari</v>
       </c>
       <c r="D832" t="s">
@@ -33299,7 +33299,7 @@
         <v>2889</v>
       </c>
       <c r="C833" s="1" t="str">
-        <f>HYPERLINK(E833)</f>
+        <f t="shared" ref="C833:C896" si="13">HYPERLINK(E833)</f>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sheepkill</v>
       </c>
       <c r="D833" t="s">
@@ -33326,7 +33326,7 @@
         <v>333</v>
       </c>
       <c r="C834" s="1" t="str">
-        <f>HYPERLINK(E834)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/shellbark-hickory</v>
       </c>
       <c r="D834" t="s">
@@ -33353,7 +33353,7 @@
         <v>2892</v>
       </c>
       <c r="C835" s="1" t="str">
-        <f>HYPERLINK(E835)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/showy-daisy</v>
       </c>
       <c r="D835" t="s">
@@ -33380,7 +33380,7 @@
         <v>2895</v>
       </c>
       <c r="C836" s="1" t="str">
-        <f>HYPERLINK(E836)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/shrimp-cactus</v>
       </c>
       <c r="D836" t="s">
@@ -33407,7 +33407,7 @@
         <v>2898</v>
       </c>
       <c r="C837" s="1" t="str">
-        <f>HYPERLINK(E837)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/silver-bell</v>
       </c>
       <c r="D837" t="s">
@@ -33434,7 +33434,7 @@
         <v>2903</v>
       </c>
       <c r="C838" s="1" t="str">
-        <f>HYPERLINK(E838)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/silver-berry</v>
       </c>
       <c r="D838" t="s">
@@ -33461,7 +33461,7 @@
         <v>2906</v>
       </c>
       <c r="C839" s="1" t="str">
-        <f>HYPERLINK(E839)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/silver-dollar</v>
       </c>
       <c r="D839" t="s">
@@ -33488,7 +33488,7 @@
         <v>2909</v>
       </c>
       <c r="C840" s="1" t="str">
-        <f>HYPERLINK(E840)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/silver-heart</v>
       </c>
       <c r="D840" t="s">
@@ -33515,7 +33515,7 @@
         <v>2911</v>
       </c>
       <c r="C841" s="1" t="str">
-        <f>HYPERLINK(E841)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/silver-jade-plant</v>
       </c>
       <c r="D841" t="s">
@@ -33542,7 +33542,7 @@
         <v>2914</v>
       </c>
       <c r="C842" s="1" t="str">
-        <f>HYPERLINK(E842)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/silver-pink-vine</v>
       </c>
       <c r="D842" t="s">
@@ -33569,7 +33569,7 @@
         <v>2917</v>
       </c>
       <c r="C843" s="1" t="str">
-        <f>HYPERLINK(E843)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/silver-star</v>
       </c>
       <c r="D843" t="s">
@@ -33596,7 +33596,7 @@
         <v>2920</v>
       </c>
       <c r="C844" s="1" t="str">
-        <f>HYPERLINK(E844)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/silver-table-fern</v>
       </c>
       <c r="D844" t="s">
@@ -33623,7 +33623,7 @@
         <v>2923</v>
       </c>
       <c r="C845" s="1" t="str">
-        <f>HYPERLINK(E845)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/silver-tree-anamiga</v>
       </c>
       <c r="D845" t="s">
@@ -33650,7 +33650,7 @@
         <v>2926</v>
       </c>
       <c r="C846" s="1" t="str">
-        <f>HYPERLINK(E846)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/skunk-cabbage</v>
       </c>
       <c r="D846" t="s">
@@ -33677,7 +33677,7 @@
         <v>2930</v>
       </c>
       <c r="C847" s="1" t="str">
-        <f>HYPERLINK(E847)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/slender-deutzia</v>
       </c>
       <c r="D847" t="s">
@@ -33704,7 +33704,7 @@
         <v>2933</v>
       </c>
       <c r="C848" s="1" t="str">
-        <f>HYPERLINK(E848)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/small-fruited-hickory</v>
       </c>
       <c r="D848" t="s">
@@ -33731,7 +33731,7 @@
         <v>2935</v>
       </c>
       <c r="C849" s="1" t="str">
-        <f>HYPERLINK(E849)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/smilax-tamnoides-vas</v>
       </c>
       <c r="D849" t="s">
@@ -33758,7 +33758,7 @@
         <v>2938</v>
       </c>
       <c r="C850" s="1" t="str">
-        <f>HYPERLINK(E850)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/snake-lilly</v>
       </c>
       <c r="D850" t="s">
@@ -33785,7 +33785,7 @@
         <v>2941</v>
       </c>
       <c r="C851" s="1" t="str">
-        <f>HYPERLINK(E851)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/snake-plant</v>
       </c>
       <c r="D851" t="s">
@@ -33812,7 +33812,7 @@
         <v>2944</v>
       </c>
       <c r="C852" s="1" t="str">
-        <f>HYPERLINK(E852)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/solomons-lily</v>
       </c>
       <c r="D852" t="s">
@@ -33839,7 +33839,7 @@
         <v>1156</v>
       </c>
       <c r="C853" s="1" t="str">
-        <f>HYPERLINK(E853)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sorrel</v>
       </c>
       <c r="D853" t="s">
@@ -33866,7 +33866,7 @@
         <v>1085</v>
       </c>
       <c r="C854" s="1" t="str">
-        <f>HYPERLINK(E854)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sowbread</v>
       </c>
       <c r="D854" t="s">
@@ -33893,7 +33893,7 @@
         <v>2951</v>
       </c>
       <c r="C855" s="1" t="str">
-        <f>HYPERLINK(E855)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/spanish-thyme</v>
       </c>
       <c r="D855" t="s">
@@ -33920,7 +33920,7 @@
         <v>2954</v>
       </c>
       <c r="C856" s="1" t="str">
-        <f>HYPERLINK(E856)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/speckled-wood-lily</v>
       </c>
       <c r="D856" t="s">
@@ -33947,7 +33947,7 @@
         <v>2957</v>
       </c>
       <c r="C857" s="1" t="str">
-        <f>HYPERLINK(E857)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/spice-orchid</v>
       </c>
       <c r="D857" t="s">
@@ -33974,7 +33974,7 @@
         <v>2957</v>
       </c>
       <c r="C858" s="1" t="str">
-        <f>HYPERLINK(E858)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/spice-orchid-0</v>
       </c>
       <c r="D858" t="s">
@@ -34001,7 +34001,7 @@
         <v>2961</v>
       </c>
       <c r="C859" s="1" t="str">
-        <f>HYPERLINK(E859)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/spider-flower</v>
       </c>
       <c r="D859" t="s">
@@ -34028,7 +34028,7 @@
         <v>2965</v>
       </c>
       <c r="C860" s="1" t="str">
-        <f>HYPERLINK(E860)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/spider-ivy</v>
       </c>
       <c r="D860" t="s">
@@ -34055,7 +34055,7 @@
         <v>2968</v>
       </c>
       <c r="C861" s="1" t="str">
-        <f>HYPERLINK(E861)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/spider-plant</v>
       </c>
       <c r="D861" t="s">
@@ -34082,7 +34082,7 @@
         <v>2970</v>
       </c>
       <c r="C862" s="1" t="str">
-        <f>HYPERLINK(E862)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/spindle-tree</v>
       </c>
       <c r="D862" t="s">
@@ -34109,7 +34109,7 @@
         <v>2973</v>
       </c>
       <c r="C863" s="1" t="str">
-        <f>HYPERLINK(E863)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/split-leaf-philodendron</v>
       </c>
       <c r="D863" t="s">
@@ -34136,7 +34136,7 @@
         <v>2976</v>
       </c>
       <c r="C864" s="1" t="str">
-        <f>HYPERLINK(E864)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/spotted-dumb-cane</v>
       </c>
       <c r="D864" t="s">
@@ -34163,7 +34163,7 @@
         <v>2979</v>
       </c>
       <c r="C865" s="1" t="str">
-        <f>HYPERLINK(E865)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sprengeri-fern</v>
       </c>
       <c r="D865" t="s">
@@ -34190,7 +34190,7 @@
         <v>2982</v>
       </c>
       <c r="C866" s="1" t="str">
-        <f>HYPERLINK(E866)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/spring-parsley</v>
       </c>
       <c r="D866" t="s">
@@ -34217,7 +34217,7 @@
         <v>2985</v>
       </c>
       <c r="C867" s="1" t="str">
-        <f>HYPERLINK(E867)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/st-johns-wort</v>
       </c>
       <c r="D867" t="s">
@@ -34244,7 +34244,7 @@
         <v>2987</v>
       </c>
       <c r="C868" s="1" t="str">
-        <f>HYPERLINK(E868)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/staggerbush</v>
       </c>
       <c r="D868" t="s">
@@ -34271,7 +34271,7 @@
         <v>973</v>
       </c>
       <c r="C869" s="1" t="str">
-        <f>HYPERLINK(E869)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/star-jasmine</v>
       </c>
       <c r="D869" t="s">
@@ -34298,7 +34298,7 @@
         <v>2991</v>
       </c>
       <c r="C870" s="1" t="str">
-        <f>HYPERLINK(E870)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/star-lily</v>
       </c>
       <c r="D870" t="s">
@@ -34325,7 +34325,7 @@
         <v>2994</v>
       </c>
       <c r="C871" s="1" t="str">
-        <f>HYPERLINK(E871)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/star-plant</v>
       </c>
       <c r="D871" t="s">
@@ -34352,7 +34352,7 @@
         <v>2997</v>
       </c>
       <c r="C872" s="1" t="str">
-        <f>HYPERLINK(E872)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/starch-root</v>
       </c>
       <c r="D872" t="s">
@@ -34379,7 +34379,7 @@
         <v>3000</v>
       </c>
       <c r="C873" s="1" t="str">
-        <f>HYPERLINK(E873)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/stargazer-lily</v>
       </c>
       <c r="D873" t="s">
@@ -34406,7 +34406,7 @@
         <v>3003</v>
       </c>
       <c r="C874" s="1" t="str">
-        <f>HYPERLINK(E874)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/starleaf</v>
       </c>
       <c r="D874" t="s">
@@ -34433,7 +34433,7 @@
         <v>3006</v>
       </c>
       <c r="C875" s="1" t="str">
-        <f>HYPERLINK(E875)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/stevia</v>
       </c>
       <c r="D875" t="s">
@@ -34460,7 +34460,7 @@
         <v>3010</v>
       </c>
       <c r="C876" s="1" t="str">
-        <f>HYPERLINK(E876)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/stinking-chamomile</v>
       </c>
       <c r="D876" t="s">
@@ -34487,7 +34487,7 @@
         <v>3013</v>
       </c>
       <c r="C877" s="1" t="str">
-        <f>HYPERLINK(E877)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/straight-margined-dracaena</v>
       </c>
       <c r="D877" t="s">
@@ -34514,7 +34514,7 @@
         <v>3016</v>
       </c>
       <c r="C878" s="1" t="str">
-        <f>HYPERLINK(E878)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/strawberry</v>
       </c>
       <c r="D878" t="s">
@@ -34541,7 +34541,7 @@
         <v>3020</v>
       </c>
       <c r="C879" s="1" t="str">
-        <f>HYPERLINK(E879)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/striped-blushing</v>
       </c>
       <c r="D879" t="s">
@@ -34568,7 +34568,7 @@
         <v>3022</v>
       </c>
       <c r="C880" s="1" t="str">
-        <f>HYPERLINK(E880)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/striped-dracaena</v>
       </c>
       <c r="D880" t="s">
@@ -34595,7 +34595,7 @@
         <v>3026</v>
       </c>
       <c r="C881" s="1" t="str">
-        <f>HYPERLINK(E881)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sudan-grass</v>
       </c>
       <c r="D881" t="s">
@@ -34622,7 +34622,7 @@
         <v>3030</v>
       </c>
       <c r="C882" s="1" t="str">
-        <f>HYPERLINK(E882)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sugar-pods</v>
       </c>
       <c r="D882" t="s">
@@ -34649,7 +34649,7 @@
         <v>3033</v>
       </c>
       <c r="C883" s="1" t="str">
-        <f>HYPERLINK(E883)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sulfur-flower</v>
       </c>
       <c r="D883" t="s">
@@ -34676,7 +34676,7 @@
         <v>3037</v>
       </c>
       <c r="C884" s="1" t="str">
-        <f>HYPERLINK(E884)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/summer-hyacinth</v>
       </c>
       <c r="D884" t="s">
@@ -34703,7 +34703,7 @@
         <v>3041</v>
       </c>
       <c r="C885" s="1" t="str">
-        <f>HYPERLINK(E885)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sunflower</v>
       </c>
       <c r="D885" t="s">
@@ -34730,7 +34730,7 @@
         <v>3045</v>
       </c>
       <c r="C886" s="1" t="str">
-        <f>HYPERLINK(E886)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/superb-lily</v>
       </c>
       <c r="D886" t="s">
@@ -34757,7 +34757,7 @@
         <v>3050</v>
       </c>
       <c r="C887" s="1" t="str">
-        <f>HYPERLINK(E887)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/swamp-maple</v>
       </c>
       <c r="D887" t="s">
@@ -34784,7 +34784,7 @@
         <v>3048</v>
       </c>
       <c r="C888" s="1" t="str">
-        <f>HYPERLINK(E888)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/swamp-sunflower</v>
       </c>
       <c r="D888" t="s">
@@ -34811,7 +34811,7 @@
         <v>3053</v>
       </c>
       <c r="C889" s="1" t="str">
-        <f>HYPERLINK(E889)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/swedish-ivy</v>
       </c>
       <c r="D889" t="s">
@@ -34838,7 +34838,7 @@
         <v>3056</v>
       </c>
       <c r="C890" s="1" t="str">
-        <f>HYPERLINK(E890)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sweet-cherry</v>
       </c>
       <c r="D890" t="s">
@@ -34865,7 +34865,7 @@
         <v>3059</v>
       </c>
       <c r="C891" s="1" t="str">
-        <f>HYPERLINK(E891)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sweet-pea</v>
       </c>
       <c r="D891" t="s">
@@ -34892,7 +34892,7 @@
         <v>3062</v>
       </c>
       <c r="C892" s="1" t="str">
-        <f>HYPERLINK(E892)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sweet-potato-vine</v>
       </c>
       <c r="D892" t="s">
@@ -34919,7 +34919,7 @@
         <v>3089</v>
       </c>
       <c r="C893" s="1" t="str">
-        <f>HYPERLINK(E893)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sweet-william</v>
       </c>
       <c r="D893" t="s">
@@ -34946,7 +34946,7 @@
         <v>3066</v>
       </c>
       <c r="C894" s="1" t="str">
-        <f>HYPERLINK(E894)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sweetheart-hoya</v>
       </c>
       <c r="D894" t="s">
@@ -34973,7 +34973,7 @@
         <v>3070</v>
       </c>
       <c r="C895" s="1" t="str">
-        <f>HYPERLINK(E895)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sweetheart-ivy</v>
       </c>
       <c r="D895" t="s">
@@ -35000,7 +35000,7 @@
         <v>3073</v>
       </c>
       <c r="C896" s="1" t="str">
-        <f>HYPERLINK(E896)</f>
+        <f t="shared" si="13"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/swiss-cheese-plant</v>
       </c>
       <c r="D896" t="s">
@@ -35027,7 +35027,7 @@
         <v>3076</v>
       </c>
       <c r="C897" s="1" t="str">
-        <f>HYPERLINK(E897)</f>
+        <f t="shared" ref="C897:C960" si="14">HYPERLINK(E897)</f>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/sword-fern</v>
       </c>
       <c r="D897" t="s">
@@ -35054,7 +35054,7 @@
         <v>3079</v>
       </c>
       <c r="C898" s="1" t="str">
-        <f>HYPERLINK(E898)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tahitian-bridal-veil</v>
       </c>
       <c r="D898" t="s">
@@ -35081,7 +35081,7 @@
         <v>3083</v>
       </c>
       <c r="C899" s="1" t="str">
-        <f>HYPERLINK(E899)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tail-flower</v>
       </c>
       <c r="D899" t="s">
@@ -35108,7 +35108,7 @@
         <v>3086</v>
       </c>
       <c r="C900" s="1" t="str">
-        <f>HYPERLINK(E900)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tailed-orchid</v>
       </c>
       <c r="D900" t="s">
@@ -35135,7 +35135,7 @@
         <v>3092</v>
       </c>
       <c r="C901" s="1" t="str">
-        <f>HYPERLINK(E901)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tall-feather-fern</v>
       </c>
       <c r="D901" t="s">
@@ -35162,7 +35162,7 @@
         <v>3095</v>
       </c>
       <c r="C902" s="1" t="str">
-        <f>HYPERLINK(E902)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tall-mahonia</v>
       </c>
       <c r="D902" t="s">
@@ -35189,7 +35189,7 @@
         <v>3097</v>
       </c>
       <c r="C903" s="1" t="str">
-        <f>HYPERLINK(E903)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tangerine-impatience</v>
       </c>
       <c r="D903" t="s">
@@ -35216,7 +35216,7 @@
         <v>3100</v>
       </c>
       <c r="C904" s="1" t="str">
-        <f>HYPERLINK(E904)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/taro</v>
       </c>
       <c r="D904" t="s">
@@ -35243,7 +35243,7 @@
         <v>3100</v>
       </c>
       <c r="C905" s="1" t="str">
-        <f>HYPERLINK(E905)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/taro-0</v>
       </c>
       <c r="D905" t="s">
@@ -35270,7 +35270,7 @@
         <v>3105</v>
       </c>
       <c r="C906" s="1" t="str">
-        <f>HYPERLINK(E906)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/taro-vine</v>
       </c>
       <c r="D906" t="s">
@@ -35297,7 +35297,7 @@
         <v>3108</v>
       </c>
       <c r="C907" s="1" t="str">
-        <f>HYPERLINK(E907)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tarragon</v>
       </c>
       <c r="D907" t="s">
@@ -35324,7 +35324,7 @@
         <v>1638</v>
       </c>
       <c r="C908" s="1" t="str">
-        <f>HYPERLINK(E908)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/teasel-gourd</v>
       </c>
       <c r="D908" t="s">
@@ -35351,7 +35351,7 @@
         <v>2856</v>
       </c>
       <c r="C909" s="1" t="str">
-        <f>HYPERLINK(E909)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/texas-sage</v>
       </c>
       <c r="D909" t="s">
@@ -35378,7 +35378,7 @@
         <v>3114</v>
       </c>
       <c r="C910" s="1" t="str">
-        <f>HYPERLINK(E910)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/texas-umbrella-tree</v>
       </c>
       <c r="D910" t="s">
@@ -35405,7 +35405,7 @@
         <v>3117</v>
       </c>
       <c r="C911" s="1" t="str">
-        <f>HYPERLINK(E911)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/thea-japonica</v>
       </c>
       <c r="D911" t="s">
@@ -35432,7 +35432,7 @@
         <v>3119</v>
       </c>
       <c r="C912" s="1" t="str">
-        <f>HYPERLINK(E912)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/thimble-cactus</v>
       </c>
       <c r="D912" t="s">
@@ -35459,7 +35459,7 @@
         <v>3122</v>
       </c>
       <c r="C913" s="1" t="str">
-        <f>HYPERLINK(E913)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/thorn-apple</v>
       </c>
       <c r="D913" t="s">
@@ -35486,7 +35486,7 @@
         <v>3125</v>
       </c>
       <c r="C914" s="1" t="str">
-        <f>HYPERLINK(E914)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/thyme</v>
       </c>
       <c r="D914" t="s">
@@ -35513,7 +35513,7 @@
         <v>3129</v>
       </c>
       <c r="C915" s="1" t="str">
-        <f>HYPERLINK(E915)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ti-hu-ling</v>
       </c>
       <c r="D915" t="s">
@@ -35540,7 +35540,7 @@
         <v>997</v>
       </c>
       <c r="C916" s="1" t="str">
-        <f>HYPERLINK(E916)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tickseed</v>
       </c>
       <c r="D916" t="s">
@@ -35567,7 +35567,7 @@
         <v>3138</v>
       </c>
       <c r="C917" s="1" t="str">
-        <f>HYPERLINK(E917)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tiger-lily</v>
       </c>
       <c r="D917" t="s">
@@ -35594,7 +35594,7 @@
         <v>1986</v>
       </c>
       <c r="C918" s="1" t="str">
-        <f>HYPERLINK(E918)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tiger-orchid</v>
       </c>
       <c r="D918" t="s">
@@ -35621,7 +35621,7 @@
         <v>3132</v>
       </c>
       <c r="C919" s="1" t="str">
-        <f>HYPERLINK(E919)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/ti-plant</v>
       </c>
       <c r="D919" t="s">
@@ -35648,7 +35648,7 @@
         <v>3143</v>
       </c>
       <c r="C920" s="1" t="str">
-        <f>HYPERLINK(E920)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/toad-spotted-cactus</v>
       </c>
       <c r="D920" t="s">
@@ -35675,7 +35675,7 @@
         <v>3146</v>
       </c>
       <c r="C921" s="1" t="str">
-        <f>HYPERLINK(E921)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tobacco</v>
       </c>
       <c r="D921" t="s">
@@ -35702,7 +35702,7 @@
         <v>3149</v>
       </c>
       <c r="C922" s="1" t="str">
-        <f>HYPERLINK(E922)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tomato-plant</v>
       </c>
       <c r="D922" t="s">
@@ -35729,7 +35729,7 @@
         <v>3152</v>
       </c>
       <c r="C923" s="1" t="str">
-        <f>HYPERLINK(E923)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/torch-lily</v>
       </c>
       <c r="D923" t="s">
@@ -35756,7 +35756,7 @@
         <v>3157</v>
       </c>
       <c r="C924" s="1" t="str">
-        <f>HYPERLINK(E924)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tous-les-mois</v>
       </c>
       <c r="D924" t="s">
@@ -35783,7 +35783,7 @@
         <v>3159</v>
       </c>
       <c r="C925" s="1" t="str">
-        <f>HYPERLINK(E925)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants-na</v>
       </c>
       <c r="D925" t="s">
@@ -35810,7 +35810,7 @@
         <v>3161</v>
       </c>
       <c r="C926" s="1" t="str">
-        <f>HYPERLINK(E926)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/trailing-peperomia</v>
       </c>
       <c r="D926" t="s">
@@ -35837,7 +35837,7 @@
         <v>3164</v>
       </c>
       <c r="C927" s="1" t="str">
-        <f>HYPERLINK(E927)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tree-cactus</v>
       </c>
       <c r="D927" t="s">
@@ -35864,7 +35864,7 @@
         <v>3167</v>
       </c>
       <c r="C928" s="1" t="str">
-        <f>HYPERLINK(E928)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tree-gloxinia</v>
       </c>
       <c r="D928" t="s">
@@ -35891,7 +35891,7 @@
         <v>3171</v>
       </c>
       <c r="C929" s="1" t="str">
-        <f>HYPERLINK(E929)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tree-philodendron</v>
       </c>
       <c r="D929" t="s">
@@ -35918,7 +35918,7 @@
         <v>3173</v>
       </c>
       <c r="C930" s="1" t="str">
-        <f>HYPERLINK(E930)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tree-tobacco</v>
       </c>
       <c r="D930" t="s">
@@ -35945,7 +35945,7 @@
         <v>3176</v>
       </c>
       <c r="C931" s="1" t="str">
-        <f>HYPERLINK(E931)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tropic-snow</v>
       </c>
       <c r="D931" t="s">
@@ -35972,7 +35972,7 @@
         <v>3179</v>
       </c>
       <c r="C932" s="1" t="str">
-        <f>HYPERLINK(E932)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tropical-moss</v>
       </c>
       <c r="D932" t="s">
@@ -35999,7 +35999,7 @@
         <v>3181</v>
       </c>
       <c r="C933" s="1" t="str">
-        <f>HYPERLINK(E933)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/true-aloe</v>
       </c>
       <c r="D933" t="s">
@@ -36026,7 +36026,7 @@
         <v>3184</v>
       </c>
       <c r="C934" s="1" t="str">
-        <f>HYPERLINK(E934)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/true-cantaloupe</v>
       </c>
       <c r="D934" t="s">
@@ -36053,7 +36053,7 @@
         <v>3187</v>
       </c>
       <c r="C935" s="1" t="str">
-        <f>HYPERLINK(E935)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/trumpet-lily</v>
       </c>
       <c r="D935" t="s">
@@ -36080,7 +36080,7 @@
         <v>3190</v>
       </c>
       <c r="C936" s="1" t="str">
-        <f>HYPERLINK(E936)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tu-fu-ling</v>
       </c>
       <c r="D936" t="s">
@@ -36107,7 +36107,7 @@
         <v>3192</v>
       </c>
       <c r="C937" s="1" t="str">
-        <f>HYPERLINK(E937)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tulip</v>
       </c>
       <c r="D937" t="s">
@@ -36134,7 +36134,7 @@
         <v>3195</v>
       </c>
       <c r="C938" s="1" t="str">
-        <f>HYPERLINK(E938)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/tulip-poplar</v>
       </c>
       <c r="D938" t="s">
@@ -36161,7 +36161,7 @@
         <v>3199</v>
       </c>
       <c r="C939" s="1" t="str">
-        <f>HYPERLINK(E939)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/turban-squash</v>
       </c>
       <c r="D939" t="s">
@@ -36188,7 +36188,7 @@
         <v>3202</v>
       </c>
       <c r="C940" s="1" t="str">
-        <f>HYPERLINK(E940)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/turf-lily</v>
       </c>
       <c r="D940" t="s">
@@ -36215,7 +36215,7 @@
         <v>3206</v>
       </c>
       <c r="C941" s="1" t="str">
-        <f>HYPERLINK(E941)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/umbrella-leaf</v>
       </c>
       <c r="D941" t="s">
@@ -36242,7 +36242,7 @@
         <v>3209</v>
       </c>
       <c r="C942" s="1" t="str">
-        <f>HYPERLINK(E942)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/umbrella-plant</v>
       </c>
       <c r="D942" t="s">
@@ -36269,7 +36269,7 @@
         <v>3212</v>
       </c>
       <c r="C943" s="1" t="str">
-        <f>HYPERLINK(E943)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/umbrella-tree</v>
       </c>
       <c r="D943" t="s">
@@ -36296,7 +36296,7 @@
         <v>3215</v>
       </c>
       <c r="C944" s="1" t="str">
-        <f>HYPERLINK(E944)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/urbinia-agavoides</v>
       </c>
       <c r="D944" t="s">
@@ -36323,7 +36323,7 @@
         <v>3218</v>
       </c>
       <c r="C945" s="1" t="str">
-        <f>HYPERLINK(E945)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/usambara-violet</v>
       </c>
       <c r="D945" t="s">
@@ -36350,7 +36350,7 @@
         <v>3221</v>
       </c>
       <c r="C946" s="1" t="str">
-        <f>HYPERLINK(E946)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/variable-dieffenbachia</v>
       </c>
       <c r="D946" t="s">
@@ -36377,7 +36377,7 @@
         <v>3223</v>
       </c>
       <c r="C947" s="1" t="str">
-        <f>HYPERLINK(E947)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/variegated-inch-plant</v>
       </c>
       <c r="D947" t="s">
@@ -36404,7 +36404,7 @@
         <v>3247</v>
       </c>
       <c r="C948" s="1" t="str">
-        <f>HYPERLINK(E948)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/variegated-laurel</v>
       </c>
       <c r="D948" t="s">
@@ -36431,7 +36431,7 @@
         <v>3225</v>
       </c>
       <c r="C949" s="1" t="str">
-        <f>HYPERLINK(E949)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/variegated-philodendron</v>
       </c>
       <c r="D949" t="s">
@@ -36458,7 +36458,7 @@
         <v>3228</v>
       </c>
       <c r="C950" s="1" t="str">
-        <f>HYPERLINK(E950)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/variegated-wax-plant</v>
       </c>
       <c r="D950" t="s">
@@ -36485,7 +36485,7 @@
         <v>3231</v>
       </c>
       <c r="C951" s="1" t="str">
-        <f>HYPERLINK(E951)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/velvet-plant</v>
       </c>
       <c r="D951" t="s">
@@ -36512,7 +36512,7 @@
         <v>3234</v>
       </c>
       <c r="C952" s="1" t="str">
-        <f>HYPERLINK(E952)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/venus-fly-trap</v>
       </c>
       <c r="D952" t="s">
@@ -36539,7 +36539,7 @@
         <v>3238</v>
       </c>
       <c r="C953" s="1" t="str">
-        <f>HYPERLINK(E953)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/verona-fern</v>
       </c>
       <c r="D953" t="s">
@@ -36566,7 +36566,7 @@
         <v>3241</v>
       </c>
       <c r="C954" s="1" t="str">
-        <f>HYPERLINK(E954)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/verona-lace-fern</v>
       </c>
       <c r="D954" t="s">
@@ -36593,7 +36593,7 @@
         <v>3244</v>
       </c>
       <c r="C955" s="1" t="str">
-        <f>HYPERLINK(E955)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/vinca</v>
       </c>
       <c r="D955" t="s">
@@ -36620,7 +36620,7 @@
         <v>3250</v>
       </c>
       <c r="C956" s="1" t="str">
-        <f>HYPERLINK(E956)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/vining-peperomia</v>
       </c>
       <c r="D956" t="s">
@@ -36647,7 +36647,7 @@
         <v>3259</v>
       </c>
       <c r="C957" s="1" t="str">
-        <f>HYPERLINK(E957)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/violet-slipper-gloxinia</v>
       </c>
       <c r="D957" t="s">
@@ -36674,7 +36674,7 @@
         <v>2431</v>
       </c>
       <c r="C958" s="1" t="str">
-        <f>HYPERLINK(E958)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/vipers-bugloss</v>
       </c>
       <c r="D958" t="s">
@@ -36701,7 +36701,7 @@
         <v>2431</v>
       </c>
       <c r="C959" s="1" t="str">
-        <f>HYPERLINK(E959)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/vipers-bugloss-0</v>
       </c>
       <c r="D959" t="s">
@@ -36728,7 +36728,7 @@
         <v>3256</v>
       </c>
       <c r="C960" s="1" t="str">
-        <f>HYPERLINK(E960)</f>
+        <f t="shared" si="14"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/virgins-bower</v>
       </c>
       <c r="D960" t="s">
@@ -36755,7 +36755,7 @@
         <v>3262</v>
       </c>
       <c r="C961" s="1" t="str">
-        <f>HYPERLINK(E961)</f>
+        <f t="shared" ref="C961:C1028" si="15">HYPERLINK(E961)</f>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/waffle-plant</v>
       </c>
       <c r="D961" t="s">
@@ -36782,7 +36782,7 @@
         <v>3264</v>
       </c>
       <c r="C962" s="1" t="str">
-        <f>HYPERLINK(E962)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wahoo</v>
       </c>
       <c r="D962" t="s">
@@ -36809,7 +36809,7 @@
         <v>3268</v>
       </c>
       <c r="C963" s="1" t="str">
-        <f>HYPERLINK(E963)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wake-robin</v>
       </c>
       <c r="D963" t="s">
@@ -36836,7 +36836,7 @@
         <v>3271</v>
       </c>
       <c r="C964" s="1" t="str">
-        <f>HYPERLINK(E964)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/walking-anthericum</v>
       </c>
       <c r="D964" t="s">
@@ -36863,7 +36863,7 @@
         <v>3273</v>
       </c>
       <c r="C965" s="1" t="str">
-        <f>HYPERLINK(E965)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/warneckei-dracaena</v>
       </c>
       <c r="D965" t="s">
@@ -36890,7 +36890,7 @@
         <v>3276</v>
       </c>
       <c r="C966" s="1" t="str">
-        <f>HYPERLINK(E966)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/washington-hawthorn</v>
       </c>
       <c r="D966" t="s">
@@ -36917,7 +36917,7 @@
         <v>3279</v>
       </c>
       <c r="C967" s="1" t="str">
-        <f>HYPERLINK(E967)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/water-flag</v>
       </c>
       <c r="D967" t="s">
@@ -36944,7 +36944,7 @@
         <v>3282</v>
       </c>
       <c r="C968" s="1" t="str">
-        <f>HYPERLINK(E968)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/water-hemlock</v>
       </c>
       <c r="D968" t="s">
@@ -36971,7 +36971,7 @@
         <v>350</v>
       </c>
       <c r="C969" s="1" t="str">
-        <f>HYPERLINK(E969)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/water-hickory</v>
       </c>
       <c r="D969" t="s">
@@ -36998,7 +36998,7 @@
         <v>3286</v>
       </c>
       <c r="C970" s="1" t="str">
-        <f>HYPERLINK(E970)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/water-hyacinth</v>
       </c>
       <c r="D970" t="s">
@@ -37025,7 +37025,7 @@
         <v>3290</v>
       </c>
       <c r="C971" s="1" t="str">
-        <f>HYPERLINK(E971)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/watermelon-begonia</v>
       </c>
       <c r="D971" t="s">
@@ -37052,7 +37052,7 @@
         <v>3293</v>
       </c>
       <c r="C972" s="1" t="str">
-        <f>HYPERLINK(E972)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/watermelon-peperomia</v>
       </c>
       <c r="D972" t="s">
@@ -37079,7 +37079,7 @@
         <v>3295</v>
       </c>
       <c r="C973" s="1" t="str">
-        <f>HYPERLINK(E973)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/watermelon-pilea</v>
       </c>
       <c r="D973" t="s">
@@ -37106,7 +37106,7 @@
         <v>1695</v>
       </c>
       <c r="C974" s="1" t="str">
-        <f>HYPERLINK(E974)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wax-plant</v>
       </c>
       <c r="D974" t="s">
@@ -37133,7 +37133,7 @@
         <v>3300</v>
       </c>
       <c r="C975" s="1" t="str">
-        <f>HYPERLINK(E975)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wax-rosette</v>
       </c>
       <c r="D975" t="s">
@@ -37160,7 +37160,7 @@
         <v>3304</v>
       </c>
       <c r="C976" s="1" t="str">
-        <f>HYPERLINK(E976)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wax-leaf</v>
       </c>
       <c r="D976" t="s">
@@ -37187,7 +37187,7 @@
         <v>3311</v>
       </c>
       <c r="C977" s="1" t="str">
-        <f>HYPERLINK(E977)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/weeping-bottlebrush</v>
       </c>
       <c r="D977" t="s">
@@ -37214,7 +37214,7 @@
         <v>3307</v>
       </c>
       <c r="C978" s="1" t="str">
-        <f>HYPERLINK(E978)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/weeping-fig</v>
       </c>
       <c r="D978" t="s">
@@ -37241,7 +37241,7 @@
         <v>3314</v>
       </c>
       <c r="C979" s="1" t="str">
-        <f>HYPERLINK(E979)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/weeping-sargent-hemlock</v>
       </c>
       <c r="D979" t="s">
@@ -37268,7 +37268,7 @@
         <v>3316</v>
       </c>
       <c r="C980" s="1" t="str">
-        <f>HYPERLINK(E980)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/weisdornbluten</v>
       </c>
       <c r="D980" t="s">
@@ -37295,7 +37295,7 @@
         <v>3319</v>
       </c>
       <c r="C981" s="1" t="str">
-        <f>HYPERLINK(E981)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/west-indian-gherkin</v>
       </c>
       <c r="D981" t="s">
@@ -37322,7 +37322,7 @@
         <v>3322</v>
       </c>
       <c r="C982" s="1" t="str">
-        <f>HYPERLINK(E982)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/western-sword</v>
       </c>
       <c r="D982" t="s">
@@ -37349,7 +37349,7 @@
         <v>3325</v>
       </c>
       <c r="C983" s="1" t="str">
-        <f>HYPERLINK(E983)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/western-yellow-pine</v>
       </c>
       <c r="D983" t="s">
@@ -37376,7 +37376,7 @@
         <v>3328</v>
       </c>
       <c r="C984" s="1" t="str">
-        <f>HYPERLINK(E984)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/western-yew</v>
       </c>
       <c r="D984" t="s">
@@ -37403,7 +37403,7 @@
         <v>3331</v>
       </c>
       <c r="C985" s="1" t="str">
-        <f>HYPERLINK(E985)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/white-edged-swedish-ivy</v>
       </c>
       <c r="D985" t="s">
@@ -37430,7 +37430,7 @@
         <v>3344</v>
       </c>
       <c r="C986" s="1" t="str">
-        <f>HYPERLINK(E986)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/white-ginger</v>
       </c>
       <c r="D986" t="s">
@@ -37457,7 +37457,7 @@
         <v>2695</v>
       </c>
       <c r="C987" s="1" t="str">
-        <f>HYPERLINK(E987)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/white-heads</v>
       </c>
       <c r="D987" t="s">
@@ -37484,7 +37484,7 @@
         <v>3335</v>
       </c>
       <c r="C988" s="1" t="str">
-        <f>HYPERLINK(E988)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/white-heart-hickory</v>
       </c>
       <c r="D988" t="s">
@@ -37511,7 +37511,7 @@
         <v>3337</v>
       </c>
       <c r="C989" s="1" t="str">
-        <f>HYPERLINK(E989)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/white-snakeroot</v>
       </c>
       <c r="D989" t="s">
@@ -37538,7 +37538,7 @@
         <v>3341</v>
       </c>
       <c r="C990" s="1" t="str">
-        <f>HYPERLINK(E990)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/whiteblackyellow-indian-mustard</v>
       </c>
       <c r="D990" t="s">
@@ -37565,7 +37565,7 @@
         <v>3347</v>
       </c>
       <c r="C991" s="1" t="str">
-        <f>HYPERLINK(E991)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/whitman-fern</v>
       </c>
       <c r="D991" t="s">
@@ -37592,7 +37592,7 @@
         <v>3353</v>
       </c>
       <c r="C992" s="1" t="str">
-        <f>HYPERLINK(E992)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wild-arum</v>
       </c>
       <c r="D992" t="s">
@@ -37619,7 +37619,7 @@
         <v>3350</v>
       </c>
       <c r="C993" s="1" t="str">
-        <f>HYPERLINK(E993)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wild-buckwheat</v>
       </c>
       <c r="D993" t="s">
@@ -37646,7 +37646,7 @@
         <v>3356</v>
       </c>
       <c r="C994" s="1" t="str">
-        <f>HYPERLINK(E994)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wild-calla</v>
       </c>
       <c r="D994" t="s">
@@ -37673,7 +37673,7 @@
         <v>3359</v>
       </c>
       <c r="C995" s="1" t="str">
-        <f>HYPERLINK(E995)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wild-carnation</v>
       </c>
       <c r="D995" t="s">
@@ -37700,7 +37700,7 @@
         <v>3362</v>
       </c>
       <c r="C996" s="1" t="str">
-        <f>HYPERLINK(E996)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wild-coffee</v>
       </c>
       <c r="D996" t="s">
@@ -37727,7 +37727,7 @@
         <v>431</v>
       </c>
       <c r="C997" s="1" t="str">
-        <f>HYPERLINK(E997)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wild-hyacinth</v>
       </c>
       <c r="D997" t="s">
@@ -37754,7 +37754,7 @@
         <v>3367</v>
       </c>
       <c r="C998" s="1" t="str">
-        <f>HYPERLINK(E998)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wild-lantana</v>
       </c>
       <c r="D998" t="s">
@@ -37781,7 +37781,7 @@
         <v>3370</v>
       </c>
       <c r="C999" s="1" t="str">
-        <f>HYPERLINK(E999)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wild-radish</v>
       </c>
       <c r="D999" t="s">
@@ -37808,7 +37808,7 @@
         <v>2846</v>
       </c>
       <c r="C1000" s="1" t="str">
-        <f>HYPERLINK(E1000)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wild-sasparilla</v>
       </c>
       <c r="D1000" t="s">
@@ -37835,7 +37835,7 @@
         <v>3373</v>
       </c>
       <c r="C1001" s="1" t="str">
-        <f>HYPERLINK(E1001)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wild-strawberry</v>
       </c>
       <c r="D1001" t="s">
@@ -37862,7 +37862,7 @@
         <v>3384</v>
       </c>
       <c r="C1002" s="1" t="str">
-        <f>HYPERLINK(E1002)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/willow-herb</v>
       </c>
       <c r="D1002" t="s">
@@ -37889,7 +37889,7 @@
         <v>3377</v>
       </c>
       <c r="C1003" s="1" t="str">
-        <f>HYPERLINK(E1003)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/windmill-palm</v>
       </c>
       <c r="D1003" t="s">
@@ -37916,7 +37916,7 @@
         <v>871</v>
       </c>
       <c r="C1004" s="1" t="str">
-        <f>HYPERLINK(E1004)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/winter-cattleya</v>
       </c>
       <c r="D1004" t="s">
@@ -37943,7 +37943,7 @@
         <v>3381</v>
       </c>
       <c r="C1005" s="1" t="str">
-        <f>HYPERLINK(E1005)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/winter-cherry</v>
       </c>
       <c r="D1005" t="s">
@@ -37970,7 +37970,7 @@
         <v>3386</v>
       </c>
       <c r="C1006" s="1" t="str">
-        <f>HYPERLINK(E1006)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/winterberry</v>
       </c>
       <c r="D1006" t="s">
@@ -37997,7 +37997,7 @@
         <v>3389</v>
       </c>
       <c r="C1007" s="1" t="str">
-        <f>HYPERLINK(E1007)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wintercress</v>
       </c>
       <c r="D1007" t="s">
@@ -38024,7 +38024,7 @@
         <v>3392</v>
       </c>
       <c r="C1008" s="1" t="str">
-        <f>HYPERLINK(E1008)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wisteria</v>
       </c>
       <c r="D1008" t="s">
@@ -38051,7 +38051,7 @@
         <v>125</v>
       </c>
       <c r="C1009" s="1" t="str">
-        <f>HYPERLINK(E1009)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/withered-snapdragon</v>
       </c>
       <c r="D1009" t="s">
@@ -38078,7 +38078,7 @@
         <v>3398</v>
       </c>
       <c r="C1010" s="1" t="str">
-        <f>HYPERLINK(E1010)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wood-lily</v>
       </c>
       <c r="D1010" t="s">
@@ -38105,7 +38105,7 @@
         <v>3400</v>
       </c>
       <c r="C1011" s="1" t="str">
-        <f>HYPERLINK(E1011)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/woolflower</v>
       </c>
       <c r="D1011" t="s">
@@ -38132,7 +38132,7 @@
         <v>3402</v>
       </c>
       <c r="C1012" s="1" t="str">
-        <f>HYPERLINK(E1012)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/wormseed-mustard</v>
       </c>
       <c r="D1012" t="s">
@@ -38159,7 +38159,7 @@
         <v>2160</v>
       </c>
       <c r="C1013" s="1" t="str">
-        <f>HYPERLINK(E1013)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/yarrow</v>
       </c>
       <c r="D1013" t="s">
@@ -38186,7 +38186,7 @@
         <v>3405</v>
       </c>
       <c r="C1014" s="1" t="str">
-        <f>HYPERLINK(E1014)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/yellow-bloodleaf</v>
       </c>
       <c r="D1014" t="s">
@@ -38213,7 +38213,7 @@
         <v>3408</v>
       </c>
       <c r="C1015" s="1" t="str">
-        <f>HYPERLINK(E1015)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/yellow-oleander</v>
       </c>
       <c r="D1015" t="s">
@@ -38240,7 +38240,7 @@
         <v>3411</v>
       </c>
       <c r="C1016" s="1" t="str">
-        <f>HYPERLINK(E1016)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/yellow-palm</v>
       </c>
       <c r="D1016" t="s">
@@ -38267,7 +38267,7 @@
         <v>3413</v>
       </c>
       <c r="C1017" s="1" t="str">
-        <f>HYPERLINK(E1017)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/yellow-pine</v>
       </c>
       <c r="D1017" t="s">
@@ -38294,7 +38294,7 @@
         <v>3416</v>
       </c>
       <c r="C1018" s="1" t="str">
-        <f>HYPERLINK(E1018)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/yellow-starthistle</v>
       </c>
       <c r="D1018" t="s">
@@ -38321,7 +38321,7 @@
         <v>3418</v>
       </c>
       <c r="C1019" s="1" t="str">
-        <f>HYPERLINK(E1019)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/yellow-flowered-gourd</v>
       </c>
       <c r="D1019" t="s">
@@ -38348,7 +38348,7 @@
         <v>3421</v>
       </c>
       <c r="C1020" s="1" t="str">
-        <f>HYPERLINK(E1020)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/yellowrocket</v>
       </c>
       <c r="D1020" t="s">
@@ -38375,7 +38375,7 @@
         <v>3425</v>
       </c>
       <c r="C1021" s="1" t="str">
-        <f>HYPERLINK(E1021)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/yesterday-today-tomorrow</v>
       </c>
       <c r="D1021" t="s">
@@ -38402,7 +38402,7 @@
         <v>3428</v>
       </c>
       <c r="C1022" s="1" t="str">
-        <f>HYPERLINK(E1022)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/yew</v>
       </c>
       <c r="D1022" t="s">
@@ -38429,7 +38429,7 @@
         <v>3432</v>
       </c>
       <c r="C1023" s="1" t="str">
-        <f>HYPERLINK(E1023)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/yew-pine</v>
       </c>
       <c r="D1023" t="s">
@@ -38456,7 +38456,7 @@
         <v>3436</v>
       </c>
       <c r="C1024" s="1" t="str">
-        <f>HYPERLINK(E1024)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/yorba-linda</v>
       </c>
       <c r="D1024" t="s">
@@ -38483,7 +38483,7 @@
         <v>3438</v>
       </c>
       <c r="C1025" s="1" t="str">
-        <f>HYPERLINK(E1025)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/yucca</v>
       </c>
       <c r="D1025" t="s">
@@ -38510,7 +38510,7 @@
         <v>3441</v>
       </c>
       <c r="C1026" s="1" t="str">
-        <f>HYPERLINK(E1026)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/zebra-haworthia</v>
       </c>
       <c r="D1026" t="s">
@@ -38537,7 +38537,7 @@
         <v>3444</v>
       </c>
       <c r="C1027" s="1" t="str">
-        <f>HYPERLINK(E1027)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/zinnia</v>
       </c>
       <c r="D1027" t="s">
@@ -38564,7 +38564,7 @@
         <v>3447</v>
       </c>
       <c r="C1028" s="1" t="str">
-        <f>HYPERLINK(E1028)</f>
+        <f t="shared" si="15"/>
         <v>https://www.aspca.org/pet-care/animal-poison-control/toxic-and-non-toxic-plants/zucchini-squash</v>
       </c>
       <c r="D1028" t="s">
